--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C13B94-5B52-4A67-9014-2AB4F4CA3CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445266B1-2DB7-4030-8F7E-949334EF4B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="298">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -910,6 +910,21 @@
   </si>
   <si>
     <t>clima</t>
+  </si>
+  <si>
+    <t>https://snicc.azurewebsites.net/Busqueda/Resultado?powerbi=https://app.powerbi.com/view?r=eyJrIjoiYjk0ODRlMjktMjZlNi00OTgyLWEwMTMtNjQ5ODkzZjc3ZjRlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Herramienta de Visualización de Causas de Deforestación 2006-2016</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiYjk0ODRlMjktMjZlNi00OTgyLWEwMTMtNjQ5ODkzZjc3ZjRlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/vi5v40plr05pvt8/Estratos_de_Carbono_web.zip?dl=0</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1229,6 +1244,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1354,8 +1373,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:H90" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A3:H90" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:H91" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A3:H91" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2C68873B-B9C9-4DC5-B787-C168CCD28B73}" name="Tema" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{3D2E43D4-CBD9-40D1-907F-D386A213E9E5}" name="Documento/Dashboard Referenciados" dataDxfId="6"/>
@@ -1667,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,62 +2372,68 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="32" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F33" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="H33" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>35</v>
@@ -2421,15 +2446,15 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>35</v>
@@ -2442,15 +2467,15 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>35</v>
@@ -2463,15 +2488,15 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>35</v>
@@ -2484,15 +2509,15 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>35</v>
@@ -2505,15 +2530,15 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>35</v>
@@ -2523,62 +2548,62 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="32" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F41" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="H41" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>35</v>
@@ -2588,18 +2613,18 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="23" t="s">
-        <v>179</v>
+      <c r="B43" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="29" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>35</v>
@@ -2612,12 +2637,12 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="23" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>286</v>
@@ -2633,12 +2658,12 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>286</v>
@@ -2654,12 +2679,12 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>286</v>
@@ -2675,12 +2700,12 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>286</v>
@@ -2693,66 +2718,66 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="19" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C49" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D49" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E49" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F49" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="G49" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="H49" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B50" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>46</v>
@@ -2762,18 +2787,18 @@
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>46</v>
@@ -2783,18 +2808,18 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>46</v>
@@ -2805,19 +2830,17 @@
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>42</v>
+      <c r="A53" s="4"/>
+      <c r="B53" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="29" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>46</v>
@@ -2828,17 +2851,19 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="18" t="s">
-        <v>43</v>
+      <c r="A54" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="29" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>46</v>
@@ -2851,15 +2876,15 @@
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>46</v>
@@ -2869,131 +2894,129 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F57" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="19" t="s">
+      <c r="G57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C58" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D58" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E58" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F58" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
+      <c r="G58" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" s="47"/>
-      <c r="I58" t="s">
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="47"/>
+      <c r="I59" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B60" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C60" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D60" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E60" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F60" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G59" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="18" t="s">
+      <c r="G60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>49</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="29" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>46</v>
@@ -3004,17 +3027,19 @@
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="18" t="s">
-        <v>51</v>
+      <c r="A62" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="29" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>46</v>
@@ -3026,41 +3051,41 @@
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C64" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D64" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E64" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F64" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>257</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>46</v>
@@ -3073,15 +3098,15 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>46</v>
@@ -3094,15 +3119,15 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>46</v>
@@ -3115,15 +3140,15 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>46</v>
@@ -3136,134 +3161,130 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F69" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="22" t="s">
+      <c r="G69" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="32" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F70" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="G70" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B71" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D71" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F72" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="18" t="s">
+      <c r="G72" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="29" t="s">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F73" s="29" t="s">
         <v>265</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>266</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>46</v>
@@ -3275,16 +3296,20 @@
     </row>
     <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="E74" s="29" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>46</v>
@@ -3294,118 +3319,112 @@
       </c>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F76" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="20" t="s">
+      <c r="G76" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C77" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E77" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F77" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G76" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="24" t="s">
+      <c r="G77" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="29" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="F78" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="G78" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B79" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>289</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="C79" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>290</v>
+      <c r="D79" s="54" t="s">
+        <v>289</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>46</v>
@@ -3416,21 +3435,23 @@
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
+      <c r="A80" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="B80" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="53" t="s">
         <v>288</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>46</v>
@@ -3441,140 +3462,144 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="19" t="s">
-        <v>67</v>
+      <c r="A81" s="4"/>
+      <c r="B81" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="C81" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E82" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F82" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G81" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="G82" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B83" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C83" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D83" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E83" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F83" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G82" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="20" t="s">
+      <c r="G83" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C84" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E84" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F84" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="20" t="s">
+      <c r="G84" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C85" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E85" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F85" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>267</v>
-      </c>
       <c r="G85" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H85" s="34" t="s">
+      <c r="H85" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
-      <c r="B86" s="23" t="s">
-        <v>73</v>
+      <c r="B86" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>46</v>
@@ -3584,20 +3609,18 @@
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>74</v>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="29" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>46</v>
@@ -3612,67 +3635,90 @@
         <v>138</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
-      <c r="E88" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>113</v>
+      <c r="E88" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H88" s="34" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="23" t="s">
-        <v>76</v>
+      <c r="A89" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>75</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F90" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G89" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26" t="s">
+      <c r="G90" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B91" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="32" t="s">
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F90" s="32" t="s">
+      <c r="F91" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90" s="3"/>
+      <c r="G91" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3683,44 +3729,44 @@
     <hyperlink ref="E11" r:id="rId5" xr:uid="{5655A139-9823-4CDC-BEDD-B60A696D7598}"/>
     <hyperlink ref="E13" r:id="rId6" xr:uid="{44405157-E9AB-4A44-BF64-C354D784F94A}"/>
     <hyperlink ref="E21" r:id="rId7" xr:uid="{04E80402-32D5-4B41-A6D8-E02E078E1482}"/>
-    <hyperlink ref="E48" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
-    <hyperlink ref="D57" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
-    <hyperlink ref="C57" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
-    <hyperlink ref="E57" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
-    <hyperlink ref="D59" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
-    <hyperlink ref="C59" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
-    <hyperlink ref="E59" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
-    <hyperlink ref="C63" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
-    <hyperlink ref="D63" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
-    <hyperlink ref="E63" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
-    <hyperlink ref="D70" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
-    <hyperlink ref="C70" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
-    <hyperlink ref="E70" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
-    <hyperlink ref="E71" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
-    <hyperlink ref="C71" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
-    <hyperlink ref="D71" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
-    <hyperlink ref="C48" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
-    <hyperlink ref="D48" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
+    <hyperlink ref="E49" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
+    <hyperlink ref="D58" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
+    <hyperlink ref="C58" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
+    <hyperlink ref="E58" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
+    <hyperlink ref="D60" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
+    <hyperlink ref="C60" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
+    <hyperlink ref="E60" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
+    <hyperlink ref="C64" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
+    <hyperlink ref="D64" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
+    <hyperlink ref="E64" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
+    <hyperlink ref="D71" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
+    <hyperlink ref="C71" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
+    <hyperlink ref="E71" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
+    <hyperlink ref="E72" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
+    <hyperlink ref="C72" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
+    <hyperlink ref="D72" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
+    <hyperlink ref="C49" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
+    <hyperlink ref="D49" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
     <hyperlink ref="C13" r:id="rId26" xr:uid="{A1F789CA-8193-481F-9C14-31C433228CAF}"/>
     <hyperlink ref="C21" r:id="rId27" xr:uid="{78E3D53C-D832-42A0-9B14-AAE7E05EC251}"/>
     <hyperlink ref="D13" r:id="rId28" xr:uid="{2CEF5720-4D4A-42EA-981F-ED494315A5ED}"/>
     <hyperlink ref="D21" r:id="rId29" xr:uid="{3FE11369-19CE-4163-9A45-771E32A2D5C1}"/>
-    <hyperlink ref="D73" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
-    <hyperlink ref="C73" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
-    <hyperlink ref="E73" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
-    <hyperlink ref="C76" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
-    <hyperlink ref="D76" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
-    <hyperlink ref="E76" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
-    <hyperlink ref="E77" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
-    <hyperlink ref="E82" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
-    <hyperlink ref="C82" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
-    <hyperlink ref="D82" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
-    <hyperlink ref="E83" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
-    <hyperlink ref="C83" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
-    <hyperlink ref="D83" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
-    <hyperlink ref="E84" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
-    <hyperlink ref="C84" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
-    <hyperlink ref="D84" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
+    <hyperlink ref="D74" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
+    <hyperlink ref="C74" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
+    <hyperlink ref="E74" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
+    <hyperlink ref="C77" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
+    <hyperlink ref="D77" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
+    <hyperlink ref="E77" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
+    <hyperlink ref="E78" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
+    <hyperlink ref="E83" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
+    <hyperlink ref="C83" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
+    <hyperlink ref="D83" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
+    <hyperlink ref="E84" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
+    <hyperlink ref="C84" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
+    <hyperlink ref="D84" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
+    <hyperlink ref="E85" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
+    <hyperlink ref="C85" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
+    <hyperlink ref="D85" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
     <hyperlink ref="E4" r:id="rId46" xr:uid="{55AA08BF-EC4C-4284-AA73-CAE2B9F77272}"/>
     <hyperlink ref="E7" r:id="rId47" xr:uid="{1FB3A017-4666-4C63-9263-FE4B29A2B4E0}"/>
     <hyperlink ref="E8" r:id="rId48" xr:uid="{F790313A-4ABC-4DEC-B2E0-915F3C5A3ADF}"/>
@@ -3744,43 +3790,43 @@
     <hyperlink ref="E27" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
     <hyperlink ref="E26" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
     <hyperlink ref="E25" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
-    <hyperlink ref="E32" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
-    <hyperlink ref="E33" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
-    <hyperlink ref="E34" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
-    <hyperlink ref="E35" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
-    <hyperlink ref="E36" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
-    <hyperlink ref="E37" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
-    <hyperlink ref="E38" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
-    <hyperlink ref="E39" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
-    <hyperlink ref="E40" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
-    <hyperlink ref="E41" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
-    <hyperlink ref="E42" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
-    <hyperlink ref="E44" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
-    <hyperlink ref="E45" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
-    <hyperlink ref="E46" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
-    <hyperlink ref="E47" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
-    <hyperlink ref="E43" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
-    <hyperlink ref="E49" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
-    <hyperlink ref="E50" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
-    <hyperlink ref="E51" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
-    <hyperlink ref="E52" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
-    <hyperlink ref="E54" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
-    <hyperlink ref="E55" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
-    <hyperlink ref="E56" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
-    <hyperlink ref="E60" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
-    <hyperlink ref="E62" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
-    <hyperlink ref="E64" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
-    <hyperlink ref="E65" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
-    <hyperlink ref="E66" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
-    <hyperlink ref="E67" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
-    <hyperlink ref="E68" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
-    <hyperlink ref="E69" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
-    <hyperlink ref="E72" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
-    <hyperlink ref="E74" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
-    <hyperlink ref="E75" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
-    <hyperlink ref="E85" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
-    <hyperlink ref="E86" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
-    <hyperlink ref="E89" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
+    <hyperlink ref="E33" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
+    <hyperlink ref="E34" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
+    <hyperlink ref="E35" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
+    <hyperlink ref="E36" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
+    <hyperlink ref="E37" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
+    <hyperlink ref="E38" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
+    <hyperlink ref="E39" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
+    <hyperlink ref="E40" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
+    <hyperlink ref="E41" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
+    <hyperlink ref="E42" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
+    <hyperlink ref="E43" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
+    <hyperlink ref="E45" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
+    <hyperlink ref="E46" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
+    <hyperlink ref="E47" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
+    <hyperlink ref="E48" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
+    <hyperlink ref="E44" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
+    <hyperlink ref="E50" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
+    <hyperlink ref="E51" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
+    <hyperlink ref="E52" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
+    <hyperlink ref="E53" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
+    <hyperlink ref="E55" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
+    <hyperlink ref="E56" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
+    <hyperlink ref="E57" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
+    <hyperlink ref="E61" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
+    <hyperlink ref="E63" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
+    <hyperlink ref="E65" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
+    <hyperlink ref="E66" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
+    <hyperlink ref="E67" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
+    <hyperlink ref="E68" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
+    <hyperlink ref="E69" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
+    <hyperlink ref="E70" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
+    <hyperlink ref="E73" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
+    <hyperlink ref="E75" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
+    <hyperlink ref="E76" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
+    <hyperlink ref="E86" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
+    <hyperlink ref="E87" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
+    <hyperlink ref="E90" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
     <hyperlink ref="F4" r:id="rId106" xr:uid="{9AE2DF6B-2359-4671-961A-67C3E3D128AF}"/>
     <hyperlink ref="F5" r:id="rId107" xr:uid="{6F47A7B7-4BFB-4496-8EEC-0F7ED526C666}"/>
     <hyperlink ref="F6" r:id="rId108" xr:uid="{E55B49B4-D57E-4ADF-83C5-3B2D3FA4E86D}"/>
@@ -3809,80 +3855,85 @@
     <hyperlink ref="F29" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
     <hyperlink ref="F30" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
     <hyperlink ref="F31" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
-    <hyperlink ref="F32" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
-    <hyperlink ref="F33" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
-    <hyperlink ref="F34" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
-    <hyperlink ref="F35" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
-    <hyperlink ref="F36" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
-    <hyperlink ref="F37" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
-    <hyperlink ref="F38" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
-    <hyperlink ref="F39" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
-    <hyperlink ref="F40" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
-    <hyperlink ref="F41" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
-    <hyperlink ref="F42" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
-    <hyperlink ref="F48" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
-    <hyperlink ref="F49" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
-    <hyperlink ref="F50" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
-    <hyperlink ref="F51" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
-    <hyperlink ref="F52" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
-    <hyperlink ref="F54" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
-    <hyperlink ref="F55" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
-    <hyperlink ref="F56" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
-    <hyperlink ref="F57" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
-    <hyperlink ref="F59" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
-    <hyperlink ref="F60" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
-    <hyperlink ref="F62" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
-    <hyperlink ref="F63" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
-    <hyperlink ref="F64" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
-    <hyperlink ref="F65" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
-    <hyperlink ref="F66" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
-    <hyperlink ref="F67" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
-    <hyperlink ref="F68" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
-    <hyperlink ref="F69" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
-    <hyperlink ref="F70" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
-    <hyperlink ref="F71" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
-    <hyperlink ref="F72" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
-    <hyperlink ref="F73" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
-    <hyperlink ref="F74" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
-    <hyperlink ref="F75" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
-    <hyperlink ref="F76" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
-    <hyperlink ref="F77" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
-    <hyperlink ref="F85" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
-    <hyperlink ref="E53" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
-    <hyperlink ref="E61" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
-    <hyperlink ref="E78" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
-    <hyperlink ref="E79" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
-    <hyperlink ref="E80" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
-    <hyperlink ref="E81" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
-    <hyperlink ref="E87" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
-    <hyperlink ref="E90" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
-    <hyperlink ref="F78" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
-    <hyperlink ref="F79" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
-    <hyperlink ref="F80" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
-    <hyperlink ref="F81" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
-    <hyperlink ref="F82" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
-    <hyperlink ref="F83" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
-    <hyperlink ref="F86" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
-    <hyperlink ref="F89" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
-    <hyperlink ref="F43" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
-    <hyperlink ref="F44" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
-    <hyperlink ref="F45" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
-    <hyperlink ref="F46" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
-    <hyperlink ref="F47" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
-    <hyperlink ref="F53" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
-    <hyperlink ref="F61" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
-    <hyperlink ref="F87" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
-    <hyperlink ref="F90" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
-    <hyperlink ref="F84" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
-    <hyperlink ref="C78" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
-    <hyperlink ref="C79" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
-    <hyperlink ref="C80" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
-    <hyperlink ref="C81" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
+    <hyperlink ref="F33" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
+    <hyperlink ref="F34" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
+    <hyperlink ref="F35" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
+    <hyperlink ref="F36" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
+    <hyperlink ref="F37" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
+    <hyperlink ref="F38" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
+    <hyperlink ref="F39" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
+    <hyperlink ref="F40" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
+    <hyperlink ref="F41" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
+    <hyperlink ref="F42" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
+    <hyperlink ref="F43" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
+    <hyperlink ref="F49" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
+    <hyperlink ref="F50" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
+    <hyperlink ref="F51" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
+    <hyperlink ref="F52" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
+    <hyperlink ref="F53" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
+    <hyperlink ref="F55" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
+    <hyperlink ref="F56" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
+    <hyperlink ref="F57" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
+    <hyperlink ref="F58" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
+    <hyperlink ref="F60" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
+    <hyperlink ref="F61" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
+    <hyperlink ref="F63" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
+    <hyperlink ref="F64" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
+    <hyperlink ref="F65" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
+    <hyperlink ref="F66" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
+    <hyperlink ref="F67" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
+    <hyperlink ref="F68" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
+    <hyperlink ref="F69" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
+    <hyperlink ref="F70" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
+    <hyperlink ref="F71" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
+    <hyperlink ref="F72" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
+    <hyperlink ref="F73" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
+    <hyperlink ref="F74" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
+    <hyperlink ref="F75" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
+    <hyperlink ref="F76" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
+    <hyperlink ref="F77" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
+    <hyperlink ref="F78" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
+    <hyperlink ref="F86" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
+    <hyperlink ref="E54" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
+    <hyperlink ref="E62" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
+    <hyperlink ref="E79" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
+    <hyperlink ref="E80" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
+    <hyperlink ref="E81" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
+    <hyperlink ref="E82" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
+    <hyperlink ref="E88" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
+    <hyperlink ref="E91" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
+    <hyperlink ref="F79" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
+    <hyperlink ref="F80" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
+    <hyperlink ref="F81" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
+    <hyperlink ref="F82" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
+    <hyperlink ref="F83" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
+    <hyperlink ref="F84" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
+    <hyperlink ref="F87" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
+    <hyperlink ref="F90" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
+    <hyperlink ref="F44" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
+    <hyperlink ref="F45" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
+    <hyperlink ref="F46" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
+    <hyperlink ref="F47" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
+    <hyperlink ref="F48" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
+    <hyperlink ref="F54" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
+    <hyperlink ref="F62" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
+    <hyperlink ref="F88" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
+    <hyperlink ref="F91" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
+    <hyperlink ref="F85" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
+    <hyperlink ref="C79" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
+    <hyperlink ref="C80" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
+    <hyperlink ref="C81" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
+    <hyperlink ref="C82" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
+    <hyperlink ref="F89" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
+    <hyperlink ref="E32" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
+    <hyperlink ref="C32" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
+    <hyperlink ref="D32" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
+    <hyperlink ref="E89" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId203"/>
+  <pageSetup orientation="portrait" r:id="rId208"/>
   <tableParts count="1">
-    <tablePart r:id="rId204"/>
+    <tablePart r:id="rId209"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445266B1-2DB7-4030-8F7E-949334EF4B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB24EC1-D3E7-4561-AFA4-5579C30A0958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -372,9 +372,6 @@
     <t>Sistema de Reporte de Cumplimiento de Co-beneficios</t>
   </si>
   <si>
-    <t>PENDIENTE</t>
-  </si>
-  <si>
     <t>https://app.powerbi.com/view?r=eyJrIjoiZDRhYWM5ZWMtNTVmYi00N2I3LWFjMDEtMTk3ZmNhMDc3Nzk1IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
@@ -921,10 +918,13 @@
     <t>https://app.powerbi.com/view?r=eyJrIjoiYjk0ODRlMjktMjZlNi00OTgyLWEwMTMtNjQ5ODkzZjc3ZjRlIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/vi5v40plr05pvt8/Estratos_de_Carbono_web.zip?dl=0</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20Visualizaci%C3%B3n%20de%20Causas%20de%20Deforestaci%C3%B3n%202006-2016.png</t>
+  </si>
+  <si>
+    <t>Total= 12 temas</t>
   </si>
 </sst>
 </file>
@@ -1686,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="38" t="s">
@@ -1748,10 +1748,10 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>10</v>
@@ -1780,7 +1780,7 @@
         <v>83</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>10</v>
@@ -1805,7 +1805,7 @@
         <v>84</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>10</v>
@@ -1827,10 +1827,10 @@
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>10</v>
@@ -1854,10 +1854,10 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>10</v>
@@ -1879,10 +1879,10 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>10</v>
@@ -1893,7 +1893,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="48"/>
       <c r="K9" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,10 +1906,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>10</v>
@@ -1930,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>10</v>
@@ -1948,10 +1948,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>10</v>
@@ -1970,13 +1970,13 @@
         <v>82</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>10</v>
@@ -1994,10 +1994,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>10</v>
@@ -2015,10 +2015,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>10</v>
@@ -2036,10 +2036,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>10</v>
@@ -2057,10 +2057,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>10</v>
@@ -2078,10 +2078,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>10</v>
@@ -2094,15 +2094,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>10</v>
@@ -2120,10 +2120,10 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>10</v>
@@ -2144,13 +2144,13 @@
         <v>82</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>24</v>
@@ -2168,10 +2168,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>24</v>
@@ -2189,10 +2189,10 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>24</v>
@@ -2212,10 +2212,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>35</v>
@@ -2233,10 +2233,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>35</v>
@@ -2254,10 +2254,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>35</v>
@@ -2270,15 +2270,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>35</v>
@@ -2296,10 +2296,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>35</v>
@@ -2317,10 +2317,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>35</v>
@@ -2338,10 +2338,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>35</v>
@@ -2354,15 +2354,15 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>35</v>
@@ -2373,29 +2373,27 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
-        <v>296</v>
-      </c>
+      <c r="A32" s="56"/>
       <c r="B32" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>113</v>
+        <v>292</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>296</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -2407,10 +2405,10 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>35</v>
@@ -2430,10 +2428,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>35</v>
@@ -2451,10 +2449,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>35</v>
@@ -2472,10 +2470,10 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>35</v>
@@ -2493,10 +2491,10 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>35</v>
@@ -2514,10 +2512,10 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>35</v>
@@ -2535,10 +2533,10 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>35</v>
@@ -2556,10 +2554,10 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>35</v>
@@ -2577,10 +2575,10 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>35</v>
@@ -2600,10 +2598,10 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>35</v>
@@ -2621,10 +2619,10 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>35</v>
@@ -2637,15 +2635,15 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>35</v>
@@ -2663,10 +2661,10 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>35</v>
@@ -2684,10 +2682,10 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>35</v>
@@ -2705,10 +2703,10 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>35</v>
@@ -2726,10 +2724,10 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>35</v>
@@ -2748,13 +2746,13 @@
         <v>82</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>111</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>35</v>
@@ -2774,10 +2772,10 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>46</v>
@@ -2795,10 +2793,10 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>46</v>
@@ -2816,10 +2814,10 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>46</v>
@@ -2837,10 +2835,10 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>46</v>
@@ -2852,7 +2850,7 @@
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="50" t="s">
         <v>42</v>
@@ -2860,10 +2858,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>46</v>
@@ -2881,10 +2879,10 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>46</v>
@@ -2902,10 +2900,10 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>46</v>
@@ -2923,10 +2921,10 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>46</v>
@@ -2939,19 +2937,19 @@
     <row r="58" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="32" t="s">
-        <v>115</v>
-      </c>
       <c r="F58" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>46</v>
@@ -2975,7 +2973,7 @@
       </c>
       <c r="H59" s="47"/>
       <c r="I59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2989,13 +2987,13 @@
         <v>82</v>
       </c>
       <c r="D60" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="F60" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>46</v>
@@ -3013,10 +3011,10 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>46</v>
@@ -3028,7 +3026,7 @@
     </row>
     <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="51" t="s">
         <v>49</v>
@@ -3036,10 +3034,10 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>46</v>
@@ -3057,10 +3055,10 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>46</v>
@@ -3079,13 +3077,13 @@
         <v>82</v>
       </c>
       <c r="D64" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="29" t="s">
-        <v>124</v>
-      </c>
       <c r="F64" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>46</v>
@@ -3098,15 +3096,15 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>46</v>
@@ -3119,15 +3117,15 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>46</v>
@@ -3140,15 +3138,15 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>46</v>
@@ -3161,15 +3159,15 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>46</v>
@@ -3182,15 +3180,15 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>46</v>
@@ -3203,15 +3201,15 @@
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>46</v>
@@ -3232,13 +3230,13 @@
         <v>82</v>
       </c>
       <c r="D71" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="F71" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>46</v>
@@ -3257,13 +3255,13 @@
         <v>82</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>46</v>
@@ -3281,10 +3279,10 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>46</v>
@@ -3303,13 +3301,13 @@
         <v>82</v>
       </c>
       <c r="D74" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="F74" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>46</v>
@@ -3327,10 +3325,10 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>46</v>
@@ -3348,10 +3346,10 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>46</v>
@@ -3370,13 +3368,13 @@
         <v>82</v>
       </c>
       <c r="D77" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="F77" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>46</v>
@@ -3394,10 +3392,10 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>46</v>
@@ -3415,16 +3413,16 @@
         <v>64</v>
       </c>
       <c r="C79" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="54" t="s">
-        <v>289</v>
-      </c>
       <c r="E79" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>46</v>
@@ -3436,22 +3434,22 @@
     </row>
     <row r="80" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>46</v>
@@ -3467,16 +3465,16 @@
         <v>66</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>46</v>
@@ -3492,16 +3490,16 @@
         <v>67</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>46</v>
@@ -3519,16 +3517,16 @@
         <v>69</v>
       </c>
       <c r="C83" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="29" t="s">
-        <v>137</v>
-      </c>
       <c r="E83" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>46</v>
@@ -3547,13 +3545,13 @@
         <v>82</v>
       </c>
       <c r="D84" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="29" t="s">
-        <v>124</v>
-      </c>
       <c r="F84" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>46</v>
@@ -3569,16 +3567,16 @@
         <v>71</v>
       </c>
       <c r="C85" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D85" s="29" t="s">
-        <v>137</v>
-      </c>
       <c r="E85" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>46</v>
@@ -3596,10 +3594,10 @@
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>46</v>
@@ -3617,10 +3615,10 @@
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>46</v>
@@ -3632,7 +3630,7 @@
     </row>
     <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" s="51" t="s">
         <v>74</v>
@@ -3640,10 +3638,10 @@
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>46</v>
@@ -3655,7 +3653,7 @@
     </row>
     <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89" s="51" t="s">
         <v>75</v>
@@ -3663,10 +3661,10 @@
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>46</v>
@@ -3684,10 +3682,10 @@
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
       <c r="E90" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>46</v>
@@ -3699,7 +3697,7 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="52" t="s">
         <v>77</v>
@@ -3707,10 +3705,10 @@
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>46</v>
@@ -3719,6 +3717,11 @@
         <v>85</v>
       </c>
       <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3929,11 +3932,12 @@
     <hyperlink ref="C32" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
     <hyperlink ref="D32" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
     <hyperlink ref="E89" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
+    <hyperlink ref="F32" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId208"/>
+  <pageSetup orientation="portrait" r:id="rId209"/>
   <tableParts count="1">
-    <tablePart r:id="rId209"/>
+    <tablePart r:id="rId210"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB24EC1-D3E7-4561-AFA4-5579C30A0958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20AB581-66A6-4693-82AC-F439BE6395ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="300">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -925,6 +925,12 @@
   </si>
   <si>
     <t>Total= 12 temas</t>
+  </si>
+  <si>
+    <t>Entregable 7.7 Registro de Proyectos REDD+</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/Sistema%20de%20Registro%20de%20Proyectos/Repositorio%20Web/Informe_Regsitro_de_Proyectos.pdf</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:H91" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A3:H91" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:H92" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A3:H92" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2C68873B-B9C9-4DC5-B787-C168CCD28B73}" name="Tema" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{3D2E43D4-CBD9-40D1-907F-D386A213E9E5}" name="Documento/Dashboard Referenciados" dataDxfId="6"/>
@@ -1686,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,23 +1825,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="15" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="3"/>
@@ -1844,25 +1848,23 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="14" t="s">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I8" s="3"/>
@@ -1871,23 +1873,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="15" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>85</v>
       </c>
       <c r="I9" s="3"/>
@@ -1896,43 +1900,43 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="29" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="34" t="s">
@@ -1942,18 +1946,18 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="34" t="s">
@@ -1963,20 +1967,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="29" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>10</v>
@@ -1988,16 +1988,20 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="E14" s="29" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>10</v>
@@ -2010,15 +2014,15 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>10</v>
@@ -2031,15 +2035,15 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>10</v>
@@ -2052,15 +2056,15 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>10</v>
@@ -2073,15 +2077,15 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>10</v>
@@ -2094,15 +2098,15 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>10</v>
@@ -2112,66 +2116,66 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="32" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F21" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="H21" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C22" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D22" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>219</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>220</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>24</v>
@@ -2181,62 +2185,62 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="32" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F24" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="H24" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>35</v>
@@ -2249,15 +2253,15 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>35</v>
@@ -2270,15 +2274,15 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="11" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>35</v>
@@ -2291,15 +2295,15 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="11" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="29" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>35</v>
@@ -2312,15 +2316,15 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>35</v>
@@ -2333,15 +2337,15 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>35</v>
@@ -2352,17 +2356,17 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="11" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>35</v>
@@ -2373,21 +2377,17 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>294</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="29" t="s">
-        <v>292</v>
+        <v>158</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>35</v>
@@ -2397,62 +2397,66 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="32" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F34" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="H34" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>35</v>
@@ -2465,15 +2469,15 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>35</v>
@@ -2486,15 +2490,15 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>35</v>
@@ -2507,15 +2511,15 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>35</v>
@@ -2528,15 +2532,15 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>35</v>
@@ -2549,15 +2553,15 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>35</v>
@@ -2567,62 +2571,62 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="13" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="32" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F42" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="H42" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B43" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>35</v>
@@ -2632,18 +2636,18 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="23" t="s">
-        <v>178</v>
+      <c r="B44" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>35</v>
@@ -2656,12 +2660,12 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="23" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>285</v>
@@ -2677,12 +2681,12 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>285</v>
@@ -2698,12 +2702,12 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>285</v>
@@ -2719,12 +2723,12 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>285</v>
@@ -2737,66 +2741,66 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="19" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C50" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D50" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E50" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F50" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G50" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="H50" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B51" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>46</v>
@@ -2806,18 +2810,18 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>46</v>
@@ -2827,18 +2831,18 @@
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>46</v>
@@ -2849,19 +2853,17 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>42</v>
+      <c r="A54" s="4"/>
+      <c r="B54" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="29" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>46</v>
@@ -2872,17 +2874,19 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="18" t="s">
-        <v>43</v>
+      <c r="A55" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="29" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>46</v>
@@ -2895,15 +2899,15 @@
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>46</v>
@@ -2913,131 +2917,129 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F58" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="19" t="s">
+      <c r="G58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C59" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D59" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E59" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F59" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="G58" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="45" t="s">
+      <c r="G59" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="47"/>
-      <c r="I59" t="s">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="47"/>
+      <c r="I60" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B61" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E61" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F61" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="18" t="s">
+      <c r="G61" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>49</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="29" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>46</v>
@@ -3048,17 +3050,19 @@
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="18" t="s">
-        <v>51</v>
+      <c r="A63" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="29" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>46</v>
@@ -3070,41 +3074,41 @@
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C65" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E65" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F65" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>256</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>46</v>
@@ -3117,15 +3121,15 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>46</v>
@@ -3138,15 +3142,15 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>46</v>
@@ -3159,15 +3163,15 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>46</v>
@@ -3180,134 +3184,130 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F70" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="22" t="s">
+      <c r="G70" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="32" t="s">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="F71" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="G71" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B72" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E73" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F73" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="18" t="s">
+      <c r="G73" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="29" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F74" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>265</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>46</v>
@@ -3319,16 +3319,20 @@
     </row>
     <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="B75" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="E75" s="29" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>46</v>
@@ -3338,118 +3342,112 @@
       </c>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F77" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G76" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="20" t="s">
+      <c r="G77" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C78" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D78" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E78" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F78" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="24" t="s">
+      <c r="G78" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="29" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F79" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="G79" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B80" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="C80" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>289</v>
+      <c r="D80" s="54" t="s">
+        <v>288</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>46</v>
@@ -3460,21 +3458,23 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
+      <c r="A81" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="B81" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="53" t="s">
         <v>287</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>46</v>
@@ -3485,140 +3485,144 @@
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="19" t="s">
-        <v>67</v>
+      <c r="A82" s="4"/>
+      <c r="B82" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="C82" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E83" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F83" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="G82" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="G83" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B84" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C84" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E84" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F84" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="20" t="s">
+      <c r="G84" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C85" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E85" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F85" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="20" t="s">
+      <c r="G85" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C86" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D86" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E86" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F86" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G85" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>266</v>
-      </c>
       <c r="G86" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H86" s="34" t="s">
+      <c r="H86" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="23" t="s">
-        <v>73</v>
+      <c r="B87" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>46</v>
@@ -3628,20 +3632,18 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="51" t="s">
-        <v>74</v>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="29" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>46</v>
@@ -3656,12 +3658,12 @@
         <v>137</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
       <c r="E89" s="29" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="F89" s="29" t="s">
         <v>286</v>
@@ -3675,51 +3677,74 @@
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="23" t="s">
-        <v>76</v>
+      <c r="A90" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>75</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
       <c r="E90" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F91" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G90" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
+      <c r="G91" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B92" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="32" t="s">
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F91" s="32" t="s">
+      <c r="F92" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H91" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="G92" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3729,215 +3754,216 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{8B18FB44-E056-4252-92A9-7BCCA5D7A052}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{DC638C39-FC6B-47F3-9514-342017D0E1D1}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{7E6C11CD-BD80-4BBD-847A-92BDA91B8C4F}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{5655A139-9823-4CDC-BEDD-B60A696D7598}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{44405157-E9AB-4A44-BF64-C354D784F94A}"/>
-    <hyperlink ref="E21" r:id="rId7" xr:uid="{04E80402-32D5-4B41-A6D8-E02E078E1482}"/>
-    <hyperlink ref="E49" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
-    <hyperlink ref="D58" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
-    <hyperlink ref="C58" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
-    <hyperlink ref="E58" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
-    <hyperlink ref="D60" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
-    <hyperlink ref="C60" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
-    <hyperlink ref="E60" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
-    <hyperlink ref="C64" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
-    <hyperlink ref="D64" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
-    <hyperlink ref="E64" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
-    <hyperlink ref="D71" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
-    <hyperlink ref="C71" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
-    <hyperlink ref="E71" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
-    <hyperlink ref="E72" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
-    <hyperlink ref="C72" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
-    <hyperlink ref="D72" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
-    <hyperlink ref="C49" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
-    <hyperlink ref="D49" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
-    <hyperlink ref="C13" r:id="rId26" xr:uid="{A1F789CA-8193-481F-9C14-31C433228CAF}"/>
-    <hyperlink ref="C21" r:id="rId27" xr:uid="{78E3D53C-D832-42A0-9B14-AAE7E05EC251}"/>
-    <hyperlink ref="D13" r:id="rId28" xr:uid="{2CEF5720-4D4A-42EA-981F-ED494315A5ED}"/>
-    <hyperlink ref="D21" r:id="rId29" xr:uid="{3FE11369-19CE-4163-9A45-771E32A2D5C1}"/>
-    <hyperlink ref="D74" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
-    <hyperlink ref="C74" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
-    <hyperlink ref="E74" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
-    <hyperlink ref="C77" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
-    <hyperlink ref="E77" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
-    <hyperlink ref="E78" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
-    <hyperlink ref="E83" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
-    <hyperlink ref="C83" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
-    <hyperlink ref="D83" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
-    <hyperlink ref="E84" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
-    <hyperlink ref="C84" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
-    <hyperlink ref="D84" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
-    <hyperlink ref="E85" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
-    <hyperlink ref="C85" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
-    <hyperlink ref="D85" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{5655A139-9823-4CDC-BEDD-B60A696D7598}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{44405157-E9AB-4A44-BF64-C354D784F94A}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{04E80402-32D5-4B41-A6D8-E02E078E1482}"/>
+    <hyperlink ref="E50" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
+    <hyperlink ref="D59" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
+    <hyperlink ref="C59" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
+    <hyperlink ref="E59" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
+    <hyperlink ref="D61" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
+    <hyperlink ref="C61" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
+    <hyperlink ref="E61" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
+    <hyperlink ref="C65" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
+    <hyperlink ref="D65" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
+    <hyperlink ref="E65" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
+    <hyperlink ref="D72" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
+    <hyperlink ref="C72" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
+    <hyperlink ref="E72" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
+    <hyperlink ref="E73" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
+    <hyperlink ref="C73" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
+    <hyperlink ref="D73" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
+    <hyperlink ref="C50" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
+    <hyperlink ref="D50" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
+    <hyperlink ref="C14" r:id="rId26" xr:uid="{A1F789CA-8193-481F-9C14-31C433228CAF}"/>
+    <hyperlink ref="C22" r:id="rId27" xr:uid="{78E3D53C-D832-42A0-9B14-AAE7E05EC251}"/>
+    <hyperlink ref="D14" r:id="rId28" xr:uid="{2CEF5720-4D4A-42EA-981F-ED494315A5ED}"/>
+    <hyperlink ref="D22" r:id="rId29" xr:uid="{3FE11369-19CE-4163-9A45-771E32A2D5C1}"/>
+    <hyperlink ref="D75" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
+    <hyperlink ref="C75" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
+    <hyperlink ref="E75" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
+    <hyperlink ref="C78" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
+    <hyperlink ref="D78" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
+    <hyperlink ref="E78" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
+    <hyperlink ref="E79" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
+    <hyperlink ref="E84" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
+    <hyperlink ref="C84" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
+    <hyperlink ref="D84" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
+    <hyperlink ref="E85" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
+    <hyperlink ref="C85" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
+    <hyperlink ref="D85" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
+    <hyperlink ref="E86" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
+    <hyperlink ref="C86" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
+    <hyperlink ref="D86" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
     <hyperlink ref="E4" r:id="rId46" xr:uid="{55AA08BF-EC4C-4284-AA73-CAE2B9F77272}"/>
-    <hyperlink ref="E7" r:id="rId47" xr:uid="{1FB3A017-4666-4C63-9263-FE4B29A2B4E0}"/>
-    <hyperlink ref="E8" r:id="rId48" xr:uid="{F790313A-4ABC-4DEC-B2E0-915F3C5A3ADF}"/>
-    <hyperlink ref="E9" r:id="rId49" xr:uid="{068AD8CA-9BEB-4D90-BCC3-445A352716A1}"/>
-    <hyperlink ref="E10" r:id="rId50" xr:uid="{7592D244-0A46-47A4-A578-BD3EBB4573BC}"/>
-    <hyperlink ref="E12" r:id="rId51" xr:uid="{A25B0DE5-B19D-4A0F-A27E-51601601F4AD}"/>
-    <hyperlink ref="E14" r:id="rId52" xr:uid="{0166A7C7-6689-4D70-B462-74191C1D4B34}"/>
-    <hyperlink ref="E15" r:id="rId53" xr:uid="{0771CE9E-12EE-4139-86E2-EDC1391FED6B}"/>
-    <hyperlink ref="E16" r:id="rId54" xr:uid="{E7BDD23F-1304-4BEF-A155-9D1375F225F9}"/>
-    <hyperlink ref="E17" r:id="rId55" xr:uid="{3493FDAF-0516-4B19-9FCE-0AF56136A0E5}"/>
-    <hyperlink ref="E18" r:id="rId56" xr:uid="{39736642-F5A0-4B4A-B441-323B55665988}"/>
-    <hyperlink ref="E19" r:id="rId57" xr:uid="{9B128D51-8CD3-4163-9A48-70444310DAC1}"/>
-    <hyperlink ref="E20" r:id="rId58" xr:uid="{9B932BD3-3F50-4C2F-A97D-6459E471EE53}"/>
-    <hyperlink ref="E22" r:id="rId59" xr:uid="{728BBAC9-E40E-45F3-8D03-BF8FD55C5FDC}"/>
-    <hyperlink ref="E23" r:id="rId60" xr:uid="{9DE4BB3F-35C6-40A7-9E23-9043EB6FC7DF}"/>
-    <hyperlink ref="E28" r:id="rId61" xr:uid="{350B2830-FC1E-49A8-B7FF-FB825BBDE0D2}"/>
-    <hyperlink ref="E30" r:id="rId62" xr:uid="{CC057D40-5047-4280-ABDD-3A85E3914AFF}"/>
-    <hyperlink ref="E29" r:id="rId63" xr:uid="{AA7A3E9F-4B9A-468B-839B-128E37033483}"/>
-    <hyperlink ref="E31" r:id="rId64" xr:uid="{7F0897BE-59F8-4E4B-A6F8-4D9BB0A9AEE9}"/>
-    <hyperlink ref="E24" r:id="rId65" xr:uid="{7E8C7005-997A-42C7-9C99-145778E45F3E}"/>
-    <hyperlink ref="E27" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
-    <hyperlink ref="E26" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
-    <hyperlink ref="E25" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
-    <hyperlink ref="E33" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
-    <hyperlink ref="E34" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
-    <hyperlink ref="E35" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
-    <hyperlink ref="E36" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
-    <hyperlink ref="E37" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
-    <hyperlink ref="E38" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
-    <hyperlink ref="E39" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
-    <hyperlink ref="E40" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
-    <hyperlink ref="E41" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
-    <hyperlink ref="E42" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
-    <hyperlink ref="E43" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
-    <hyperlink ref="E45" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
-    <hyperlink ref="E46" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
-    <hyperlink ref="E47" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
-    <hyperlink ref="E48" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
-    <hyperlink ref="E44" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
-    <hyperlink ref="E50" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
-    <hyperlink ref="E51" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
-    <hyperlink ref="E52" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
-    <hyperlink ref="E53" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
-    <hyperlink ref="E55" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
-    <hyperlink ref="E56" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
-    <hyperlink ref="E57" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
-    <hyperlink ref="E61" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
-    <hyperlink ref="E63" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
-    <hyperlink ref="E65" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
-    <hyperlink ref="E66" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
-    <hyperlink ref="E67" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
-    <hyperlink ref="E68" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
-    <hyperlink ref="E69" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
-    <hyperlink ref="E70" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
-    <hyperlink ref="E73" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
-    <hyperlink ref="E75" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
-    <hyperlink ref="E76" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
-    <hyperlink ref="E86" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
-    <hyperlink ref="E87" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
-    <hyperlink ref="E90" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
+    <hyperlink ref="E8" r:id="rId47" xr:uid="{1FB3A017-4666-4C63-9263-FE4B29A2B4E0}"/>
+    <hyperlink ref="E9" r:id="rId48" xr:uid="{F790313A-4ABC-4DEC-B2E0-915F3C5A3ADF}"/>
+    <hyperlink ref="E10" r:id="rId49" xr:uid="{068AD8CA-9BEB-4D90-BCC3-445A352716A1}"/>
+    <hyperlink ref="E11" r:id="rId50" xr:uid="{7592D244-0A46-47A4-A578-BD3EBB4573BC}"/>
+    <hyperlink ref="E13" r:id="rId51" xr:uid="{A25B0DE5-B19D-4A0F-A27E-51601601F4AD}"/>
+    <hyperlink ref="E15" r:id="rId52" xr:uid="{0166A7C7-6689-4D70-B462-74191C1D4B34}"/>
+    <hyperlink ref="E16" r:id="rId53" xr:uid="{0771CE9E-12EE-4139-86E2-EDC1391FED6B}"/>
+    <hyperlink ref="E17" r:id="rId54" xr:uid="{E7BDD23F-1304-4BEF-A155-9D1375F225F9}"/>
+    <hyperlink ref="E18" r:id="rId55" xr:uid="{3493FDAF-0516-4B19-9FCE-0AF56136A0E5}"/>
+    <hyperlink ref="E19" r:id="rId56" xr:uid="{39736642-F5A0-4B4A-B441-323B55665988}"/>
+    <hyperlink ref="E20" r:id="rId57" xr:uid="{9B128D51-8CD3-4163-9A48-70444310DAC1}"/>
+    <hyperlink ref="E21" r:id="rId58" xr:uid="{9B932BD3-3F50-4C2F-A97D-6459E471EE53}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{728BBAC9-E40E-45F3-8D03-BF8FD55C5FDC}"/>
+    <hyperlink ref="E24" r:id="rId60" xr:uid="{9DE4BB3F-35C6-40A7-9E23-9043EB6FC7DF}"/>
+    <hyperlink ref="E29" r:id="rId61" xr:uid="{350B2830-FC1E-49A8-B7FF-FB825BBDE0D2}"/>
+    <hyperlink ref="E31" r:id="rId62" xr:uid="{CC057D40-5047-4280-ABDD-3A85E3914AFF}"/>
+    <hyperlink ref="E30" r:id="rId63" xr:uid="{AA7A3E9F-4B9A-468B-839B-128E37033483}"/>
+    <hyperlink ref="E32" r:id="rId64" xr:uid="{7F0897BE-59F8-4E4B-A6F8-4D9BB0A9AEE9}"/>
+    <hyperlink ref="E25" r:id="rId65" xr:uid="{7E8C7005-997A-42C7-9C99-145778E45F3E}"/>
+    <hyperlink ref="E28" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
+    <hyperlink ref="E27" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
+    <hyperlink ref="E26" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
+    <hyperlink ref="E34" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
+    <hyperlink ref="E35" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
+    <hyperlink ref="E36" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
+    <hyperlink ref="E37" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
+    <hyperlink ref="E38" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
+    <hyperlink ref="E39" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
+    <hyperlink ref="E40" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
+    <hyperlink ref="E41" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
+    <hyperlink ref="E42" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
+    <hyperlink ref="E43" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
+    <hyperlink ref="E44" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
+    <hyperlink ref="E46" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
+    <hyperlink ref="E47" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
+    <hyperlink ref="E48" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
+    <hyperlink ref="E49" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
+    <hyperlink ref="E45" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
+    <hyperlink ref="E51" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
+    <hyperlink ref="E52" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
+    <hyperlink ref="E53" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
+    <hyperlink ref="E54" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
+    <hyperlink ref="E56" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
+    <hyperlink ref="E57" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
+    <hyperlink ref="E58" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
+    <hyperlink ref="E62" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
+    <hyperlink ref="E64" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
+    <hyperlink ref="E66" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
+    <hyperlink ref="E67" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
+    <hyperlink ref="E68" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
+    <hyperlink ref="E69" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
+    <hyperlink ref="E70" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
+    <hyperlink ref="E71" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
+    <hyperlink ref="E74" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
+    <hyperlink ref="E76" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
+    <hyperlink ref="E77" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
+    <hyperlink ref="E87" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
+    <hyperlink ref="E88" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
+    <hyperlink ref="E91" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
     <hyperlink ref="F4" r:id="rId106" xr:uid="{9AE2DF6B-2359-4671-961A-67C3E3D128AF}"/>
     <hyperlink ref="F5" r:id="rId107" xr:uid="{6F47A7B7-4BFB-4496-8EEC-0F7ED526C666}"/>
     <hyperlink ref="F6" r:id="rId108" xr:uid="{E55B49B4-D57E-4ADF-83C5-3B2D3FA4E86D}"/>
-    <hyperlink ref="F7" r:id="rId109" xr:uid="{2298F098-0B56-4FE4-ADD3-63C622E5A6D3}"/>
-    <hyperlink ref="F8" r:id="rId110" xr:uid="{C84164D7-7D73-4004-BFEA-C2AB6BE2477E}"/>
-    <hyperlink ref="F9" r:id="rId111" xr:uid="{D48317B5-467F-44EA-8168-FF249C3725A0}"/>
-    <hyperlink ref="F10" r:id="rId112" xr:uid="{35C8B7C1-8ABE-4CDA-B23C-A3126655E361}"/>
-    <hyperlink ref="F11" r:id="rId113" xr:uid="{DDEF1DE3-D5C0-4BEB-AC6D-8994A33DC0BB}"/>
-    <hyperlink ref="F12" r:id="rId114" xr:uid="{4AA6312A-5C4D-4553-A7EC-E99FAB3E00ED}"/>
-    <hyperlink ref="F13" r:id="rId115" xr:uid="{9DFC2D16-376A-4535-8FE5-E15FECAA7CC6}"/>
-    <hyperlink ref="F14" r:id="rId116" xr:uid="{61DE6562-095B-49F9-B36D-A34A437F2115}"/>
-    <hyperlink ref="F15" r:id="rId117" xr:uid="{BEB9787A-707D-45EB-95D6-6508EBD0B111}"/>
-    <hyperlink ref="F16" r:id="rId118" xr:uid="{A286EF24-EE0F-4FD0-9C6F-CA314719EAEA}"/>
-    <hyperlink ref="F17" r:id="rId119" xr:uid="{50DFEACE-2EBD-4F5B-9E3C-E926C2C4E767}"/>
-    <hyperlink ref="F18" r:id="rId120" xr:uid="{B1189A16-33F2-4D31-858C-98C266779B26}"/>
-    <hyperlink ref="F19" r:id="rId121" xr:uid="{F990757C-2807-4187-B0CE-B4E4F9F89DCA}"/>
-    <hyperlink ref="F20" r:id="rId122" xr:uid="{BDA8A04C-06F3-44DB-BC20-E74EA2A857D4}"/>
-    <hyperlink ref="F21" r:id="rId123" xr:uid="{0C492958-55A2-4592-AA93-CA9B73417B4A}"/>
-    <hyperlink ref="F22" r:id="rId124" xr:uid="{02850476-00EF-4061-A28A-9C85170B446B}"/>
-    <hyperlink ref="F23" r:id="rId125" xr:uid="{A0BC01ED-0F79-465C-AF12-6B6855553840}"/>
-    <hyperlink ref="F24" r:id="rId126" xr:uid="{780F7922-750C-4474-AF5A-D15D84D00870}"/>
-    <hyperlink ref="F25" r:id="rId127" xr:uid="{3FA3A5E4-E12D-4377-9897-2D0AAFEC05D8}"/>
-    <hyperlink ref="F26" r:id="rId128" xr:uid="{6273858D-29FD-4B58-A6A0-ED2343F31BCF}"/>
-    <hyperlink ref="F27" r:id="rId129" xr:uid="{5DF1252F-5426-4335-9EC2-EBDE176191B1}"/>
-    <hyperlink ref="F28" r:id="rId130" xr:uid="{EC3EFFA2-0FE8-4362-9D24-E008D38B067B}"/>
-    <hyperlink ref="F29" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
-    <hyperlink ref="F30" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
-    <hyperlink ref="F31" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
-    <hyperlink ref="F33" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
-    <hyperlink ref="F34" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
-    <hyperlink ref="F35" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
-    <hyperlink ref="F36" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
-    <hyperlink ref="F37" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
-    <hyperlink ref="F38" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
-    <hyperlink ref="F39" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
-    <hyperlink ref="F40" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
-    <hyperlink ref="F41" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
-    <hyperlink ref="F42" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
-    <hyperlink ref="F43" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
-    <hyperlink ref="F49" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
-    <hyperlink ref="F50" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
-    <hyperlink ref="F51" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
-    <hyperlink ref="F52" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
-    <hyperlink ref="F53" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
-    <hyperlink ref="F55" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
-    <hyperlink ref="F56" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
-    <hyperlink ref="F57" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
-    <hyperlink ref="F58" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
-    <hyperlink ref="F60" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
-    <hyperlink ref="F61" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
-    <hyperlink ref="F63" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
-    <hyperlink ref="F64" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
-    <hyperlink ref="F65" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
-    <hyperlink ref="F66" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
-    <hyperlink ref="F67" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
-    <hyperlink ref="F68" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
-    <hyperlink ref="F69" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
-    <hyperlink ref="F70" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
-    <hyperlink ref="F71" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
-    <hyperlink ref="F72" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
-    <hyperlink ref="F73" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
-    <hyperlink ref="F74" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
-    <hyperlink ref="F75" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
-    <hyperlink ref="F76" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
-    <hyperlink ref="F77" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
-    <hyperlink ref="F78" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
-    <hyperlink ref="F86" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
-    <hyperlink ref="E54" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
-    <hyperlink ref="E62" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
-    <hyperlink ref="E79" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
-    <hyperlink ref="E80" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
-    <hyperlink ref="E81" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
-    <hyperlink ref="E82" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
-    <hyperlink ref="E88" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
-    <hyperlink ref="E91" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
-    <hyperlink ref="F79" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
-    <hyperlink ref="F80" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
-    <hyperlink ref="F81" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
-    <hyperlink ref="F82" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
-    <hyperlink ref="F83" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
-    <hyperlink ref="F84" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
-    <hyperlink ref="F87" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
-    <hyperlink ref="F90" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
-    <hyperlink ref="F44" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
-    <hyperlink ref="F45" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
-    <hyperlink ref="F46" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
-    <hyperlink ref="F47" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
-    <hyperlink ref="F48" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
-    <hyperlink ref="F54" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
-    <hyperlink ref="F62" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
-    <hyperlink ref="F88" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
-    <hyperlink ref="F91" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
-    <hyperlink ref="F85" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
-    <hyperlink ref="C79" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
-    <hyperlink ref="C80" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
-    <hyperlink ref="C81" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
-    <hyperlink ref="C82" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
-    <hyperlink ref="F89" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
-    <hyperlink ref="E32" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
-    <hyperlink ref="C32" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
-    <hyperlink ref="D32" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
-    <hyperlink ref="E89" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
-    <hyperlink ref="F32" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
+    <hyperlink ref="F8" r:id="rId109" xr:uid="{2298F098-0B56-4FE4-ADD3-63C622E5A6D3}"/>
+    <hyperlink ref="F9" r:id="rId110" xr:uid="{C84164D7-7D73-4004-BFEA-C2AB6BE2477E}"/>
+    <hyperlink ref="F10" r:id="rId111" xr:uid="{D48317B5-467F-44EA-8168-FF249C3725A0}"/>
+    <hyperlink ref="F11" r:id="rId112" xr:uid="{35C8B7C1-8ABE-4CDA-B23C-A3126655E361}"/>
+    <hyperlink ref="F12" r:id="rId113" xr:uid="{DDEF1DE3-D5C0-4BEB-AC6D-8994A33DC0BB}"/>
+    <hyperlink ref="F13" r:id="rId114" xr:uid="{4AA6312A-5C4D-4553-A7EC-E99FAB3E00ED}"/>
+    <hyperlink ref="F14" r:id="rId115" xr:uid="{9DFC2D16-376A-4535-8FE5-E15FECAA7CC6}"/>
+    <hyperlink ref="F15" r:id="rId116" xr:uid="{61DE6562-095B-49F9-B36D-A34A437F2115}"/>
+    <hyperlink ref="F16" r:id="rId117" xr:uid="{BEB9787A-707D-45EB-95D6-6508EBD0B111}"/>
+    <hyperlink ref="F17" r:id="rId118" xr:uid="{A286EF24-EE0F-4FD0-9C6F-CA314719EAEA}"/>
+    <hyperlink ref="F18" r:id="rId119" xr:uid="{50DFEACE-2EBD-4F5B-9E3C-E926C2C4E767}"/>
+    <hyperlink ref="F19" r:id="rId120" xr:uid="{B1189A16-33F2-4D31-858C-98C266779B26}"/>
+    <hyperlink ref="F20" r:id="rId121" xr:uid="{F990757C-2807-4187-B0CE-B4E4F9F89DCA}"/>
+    <hyperlink ref="F21" r:id="rId122" xr:uid="{BDA8A04C-06F3-44DB-BC20-E74EA2A857D4}"/>
+    <hyperlink ref="F22" r:id="rId123" xr:uid="{0C492958-55A2-4592-AA93-CA9B73417B4A}"/>
+    <hyperlink ref="F23" r:id="rId124" xr:uid="{02850476-00EF-4061-A28A-9C85170B446B}"/>
+    <hyperlink ref="F24" r:id="rId125" xr:uid="{A0BC01ED-0F79-465C-AF12-6B6855553840}"/>
+    <hyperlink ref="F25" r:id="rId126" xr:uid="{780F7922-750C-4474-AF5A-D15D84D00870}"/>
+    <hyperlink ref="F26" r:id="rId127" xr:uid="{3FA3A5E4-E12D-4377-9897-2D0AAFEC05D8}"/>
+    <hyperlink ref="F27" r:id="rId128" xr:uid="{6273858D-29FD-4B58-A6A0-ED2343F31BCF}"/>
+    <hyperlink ref="F28" r:id="rId129" xr:uid="{5DF1252F-5426-4335-9EC2-EBDE176191B1}"/>
+    <hyperlink ref="F29" r:id="rId130" xr:uid="{EC3EFFA2-0FE8-4362-9D24-E008D38B067B}"/>
+    <hyperlink ref="F30" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
+    <hyperlink ref="F31" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
+    <hyperlink ref="F32" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
+    <hyperlink ref="F34" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
+    <hyperlink ref="F35" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
+    <hyperlink ref="F36" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
+    <hyperlink ref="F37" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
+    <hyperlink ref="F38" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
+    <hyperlink ref="F39" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
+    <hyperlink ref="F40" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
+    <hyperlink ref="F41" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
+    <hyperlink ref="F42" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
+    <hyperlink ref="F43" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
+    <hyperlink ref="F44" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
+    <hyperlink ref="F50" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
+    <hyperlink ref="F51" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
+    <hyperlink ref="F52" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
+    <hyperlink ref="F53" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
+    <hyperlink ref="F54" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
+    <hyperlink ref="F56" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
+    <hyperlink ref="F57" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
+    <hyperlink ref="F58" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
+    <hyperlink ref="F59" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
+    <hyperlink ref="F61" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
+    <hyperlink ref="F62" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
+    <hyperlink ref="F64" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
+    <hyperlink ref="F65" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
+    <hyperlink ref="F66" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
+    <hyperlink ref="F67" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
+    <hyperlink ref="F68" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
+    <hyperlink ref="F69" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
+    <hyperlink ref="F70" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
+    <hyperlink ref="F71" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
+    <hyperlink ref="F72" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
+    <hyperlink ref="F73" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
+    <hyperlink ref="F74" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
+    <hyperlink ref="F75" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
+    <hyperlink ref="F76" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
+    <hyperlink ref="F77" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
+    <hyperlink ref="F78" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
+    <hyperlink ref="F79" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
+    <hyperlink ref="F87" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
+    <hyperlink ref="E55" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
+    <hyperlink ref="E63" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
+    <hyperlink ref="E80" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
+    <hyperlink ref="E81" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
+    <hyperlink ref="E82" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
+    <hyperlink ref="E83" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
+    <hyperlink ref="E89" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
+    <hyperlink ref="E92" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
+    <hyperlink ref="F80" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
+    <hyperlink ref="F81" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
+    <hyperlink ref="F82" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
+    <hyperlink ref="F83" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
+    <hyperlink ref="F84" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
+    <hyperlink ref="F85" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
+    <hyperlink ref="F88" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
+    <hyperlink ref="F91" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
+    <hyperlink ref="F45" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
+    <hyperlink ref="F46" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
+    <hyperlink ref="F47" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
+    <hyperlink ref="F48" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
+    <hyperlink ref="F49" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
+    <hyperlink ref="F55" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
+    <hyperlink ref="F63" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
+    <hyperlink ref="F89" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
+    <hyperlink ref="F92" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
+    <hyperlink ref="F86" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
+    <hyperlink ref="C80" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
+    <hyperlink ref="C81" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
+    <hyperlink ref="C82" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
+    <hyperlink ref="C83" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
+    <hyperlink ref="F90" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
+    <hyperlink ref="E33" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
+    <hyperlink ref="C33" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
+    <hyperlink ref="D33" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
+    <hyperlink ref="E90" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
+    <hyperlink ref="F33" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
+    <hyperlink ref="E7" r:id="rId209" xr:uid="{2004B6BB-26AD-4E55-B226-C61BAC4AC34E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId209"/>
+  <pageSetup orientation="portrait" r:id="rId210"/>
   <tableParts count="1">
-    <tablePart r:id="rId210"/>
+    <tablePart r:id="rId211"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20AB581-66A6-4693-82AC-F439BE6395ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0256A-1F49-47F4-9B09-BE60E85049ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="301">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/Sistema%20de%20Registro%20de%20Proyectos/Repositorio%20Web/Informe_Regsitro_de_Proyectos.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Entregable%207.7%20Registro%20de%20Proyectos%20REDD%2B.png</t>
   </si>
 </sst>
 </file>
@@ -1694,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1838,9 @@
       <c r="E7" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>300</v>
+      </c>
       <c r="G7" s="30" t="s">
         <v>10</v>
       </c>
@@ -3959,11 +3964,12 @@
     <hyperlink ref="E90" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
     <hyperlink ref="F33" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
     <hyperlink ref="E7" r:id="rId209" xr:uid="{2004B6BB-26AD-4E55-B226-C61BAC4AC34E}"/>
+    <hyperlink ref="F7" r:id="rId210" xr:uid="{0A98455D-0197-4D81-881E-24352D704928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId210"/>
+  <pageSetup orientation="portrait" r:id="rId211"/>
   <tableParts count="1">
-    <tablePart r:id="rId211"/>
+    <tablePart r:id="rId212"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0256A-1F49-47F4-9B09-BE60E85049ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F26E5-5A81-43FC-A72E-838781599A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="345">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -934,13 +934,145 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Entregable%207.7%20Registro%20de%20Proyectos%20REDD%2B.png</t>
+  </si>
+  <si>
+    <t>Comic Local MIAQ</t>
+  </si>
+  <si>
+    <t>Trifoliar Local MIAQ</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>Comic Institucional MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Comic Local MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Panfleto Local MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Panfleto Institucional MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Roll Up Institucional MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Roll Up Local MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Trifoliar Local MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Trifoliar Institucional MIAQ Garifuna</t>
+  </si>
+  <si>
+    <t>Comic Local MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Comic Institucional MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Panfleto Local MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Panfleto Institucional MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Roll Up Local MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Roll Up Institucional MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Trifoliar Local MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Trifoliar Institucional MIAQ Kaqchiquel</t>
+  </si>
+  <si>
+    <t>Comic Local MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Comic Institucional MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Panfleto Local MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Panfleto Institucional MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Roll Up Local MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Roll Up Institucional MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Trifoliar Local MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Trifoliar Institucional MIAQ Kiche</t>
+  </si>
+  <si>
+    <t>Nombre Corto Documento</t>
+  </si>
+  <si>
+    <t>Comic Local MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Comic Institucional MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Panfleto Local MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Panfleto Institucional MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Roll Up Local MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Roll Up Institucional MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Trifoliar Local MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Trifoliar Institucional MIAQ Mam</t>
+  </si>
+  <si>
+    <t>Comic Local MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Comic Institucional MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Panfleto Local MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Panfleto Institucional MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Roll Up Local MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Roll Up Institucional MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Trifoliar Local MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>Trifoliar Institucional MIAQ Quechi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1127,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1159,7 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,12 +1397,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -1382,17 +1558,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:H92" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A3:H92" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2C68873B-B9C9-4DC5-B787-C168CCD28B73}" name="Tema" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{3D2E43D4-CBD9-40D1-907F-D386A213E9E5}" name="Documento/Dashboard Referenciados" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1C1BB878-04A2-4694-96DB-AE1DF85A0A36}" name="Link Base" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{5C2C482E-4AE6-4110-9013-316730863BEB}" name="Link Específico" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B55BA4B2-6234-4D2B-90CD-635367E0334A}" name="Link Completo" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{2EEC04FB-2C4B-415B-869E-1E90AB71DED3}" name="Miniatura" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00A01212-C17A-44B3-B89A-12D876413F41}" name="Encargado" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{743E9532-AB82-4AB0-96A5-3ACD20B0FD29}" name="Estado" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:I134" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A3:I134" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{2C68873B-B9C9-4DC5-B787-C168CCD28B73}" name="Tema" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3D2E43D4-CBD9-40D1-907F-D386A213E9E5}" name="Documento/Dashboard Referenciados" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{0F4CAFCC-1F24-4CF0-B59E-82DD15A86630}" name="Nombre Corto Documento" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1C1BB878-04A2-4694-96DB-AE1DF85A0A36}" name="Link Base" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5C2C482E-4AE6-4110-9013-316730863BEB}" name="Link Específico" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B55BA4B2-6234-4D2B-90CD-635367E0334A}" name="Link Completo" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2EEC04FB-2C4B-415B-869E-1E90AB71DED3}" name="Miniatura" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00A01212-C17A-44B3-B89A-12D876413F41}" name="Encargado" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{743E9532-AB82-4AB0-96A5-3ACD20B0FD29}" name="Estado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1695,28 +1872,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1724,2247 +1902,3095 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="2"/>
+      <c r="K3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="39"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="39" t="s">
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="E5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="39" t="s">
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="39" t="s">
+      <c r="H6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="39" t="s">
+      <c r="H7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="39" t="s">
+      <c r="H8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49" t="s">
+      <c r="H9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="G14" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="G15" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="G17" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="H17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>303</v>
+      </c>
       <c r="B18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>303</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="14"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="29" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="G22" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="34"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="34"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="34"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="34"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="34"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="34"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="34"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="62"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="34"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="34"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="34"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="34"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="34"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="34"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="34"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="35"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="29" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="G65" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="H65" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
+      <c r="I65" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="32" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G66" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H66" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="I66" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J66" s="37"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="29" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="G67" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="H67" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="11" t="s">
+      <c r="I67" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="29" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="G68" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="H68" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="11" t="s">
+      <c r="I68" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="29" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="G69" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="H69" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="11" t="s">
+      <c r="I69" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="29" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="G70" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="H70" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="11" t="s">
+      <c r="I70" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="29" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="G71" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="H71" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="11" t="s">
+      <c r="I71" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="29" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="G72" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="H72" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="11" t="s">
+      <c r="I72" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="29" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="G73" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="H73" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="11" t="s">
+      <c r="I73" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="29" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="G74" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="H74" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="55" t="s">
+      <c r="I74" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="56"/>
+      <c r="B75" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C75" s="55"/>
+      <c r="D75" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="E75" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="F75" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="G75" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H75" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="17" t="s">
+      <c r="I75" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="32" t="s">
+      <c r="C76" s="17"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G76" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H76" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="I76" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="29" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="G77" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H77" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
+      <c r="I77" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="29" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="G78" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="H78" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12" t="s">
+      <c r="I78" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="29" t="s">
+      <c r="C79" s="12"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="G79" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="H79" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="12" t="s">
+      <c r="I79" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="29" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="G80" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="H80" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="12" t="s">
+      <c r="I80" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="29" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="G81" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="H81" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="12" t="s">
+      <c r="I81" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="29" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="G82" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="H82" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="12" t="s">
+      <c r="I82" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="29" t="s">
+      <c r="C83" s="12"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="G83" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="H83" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="13" t="s">
+      <c r="I83" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="32" t="s">
+      <c r="C84" s="13"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="G84" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="H84" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="I84" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B85" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="29" t="s">
+      <c r="C85" s="18"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="G85" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="H85" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="18" t="s">
+      <c r="I85" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="29" t="s">
+      <c r="C86" s="18"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="G86" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="H86" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="23" t="s">
+      <c r="I86" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="29" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="G87" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="H87" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="23" t="s">
+      <c r="I87" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="29" t="s">
+      <c r="C88" s="23"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="G88" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="H88" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="23" t="s">
+      <c r="I88" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="29" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="G89" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="H89" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="23" t="s">
+      <c r="I89" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="29" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="G90" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="H90" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="23" t="s">
+      <c r="I90" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="29" t="s">
+      <c r="C91" s="23"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="G91" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H91" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="19" t="s">
+      <c r="I91" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C92" s="19"/>
+      <c r="D92" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="E92" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="F92" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="G92" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="H92" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="I92" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B93" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="29" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F51" s="29" t="s">
+      <c r="G93" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="H93" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="18" t="s">
+      <c r="I93" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="29" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="G94" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="H94" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H52" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="18" t="s">
+      <c r="I94" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="29" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="G95" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="H95" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="18" t="s">
+      <c r="I95" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="29" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="G96" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="H96" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H54" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="I96" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B97" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="29" t="s">
+      <c r="C97" s="50"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="G97" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="H97" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="18" t="s">
+      <c r="I97" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="29" t="s">
+      <c r="C98" s="18"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="G98" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="H98" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="18" t="s">
+      <c r="I98" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="29" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="G99" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="H99" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="18" t="s">
+      <c r="I99" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="29" t="s">
+      <c r="C100" s="18"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="G100" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="H100" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="19" t="s">
+      <c r="I100" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C101" s="19"/>
+      <c r="D101" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="E101" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="F101" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G101" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="H101" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H59" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
+      <c r="I101" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46" t="s">
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="47"/>
-      <c r="I60" t="s">
+      <c r="I102" s="47"/>
+      <c r="J102" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="103" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B103" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C103" s="20"/>
+      <c r="D103" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="E103" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="F103" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="G103" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="H103" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H61" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="18" t="s">
+      <c r="I103" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J103" s="3"/>
+    </row>
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="29" t="s">
+      <c r="C104" s="18"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="G104" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="H104" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H62" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="I104" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J104" s="3"/>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B105" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="29" t="s">
+      <c r="C105" s="51"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="G105" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="H105" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H63" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="18" t="s">
+      <c r="I105" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J105" s="3"/>
+    </row>
+    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="29" t="s">
+      <c r="C106" s="18"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="G106" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="H106" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H64" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="20" t="s">
+      <c r="I106" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C107" s="20"/>
+      <c r="D107" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="E107" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="F107" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="G107" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="H107" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H65" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="21" t="s">
+      <c r="I107" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J107" s="3"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="29" t="s">
+      <c r="C108" s="21"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="G108" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="H108" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="21" t="s">
+      <c r="I108" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="29" t="s">
+      <c r="C109" s="21"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="G109" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="H109" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="21" t="s">
+      <c r="I109" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="29" t="s">
+      <c r="C110" s="21"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="G110" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="H110" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="21" t="s">
+      <c r="I110" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="29" t="s">
+      <c r="C111" s="21"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="G111" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="H111" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="21" t="s">
+      <c r="I111" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J111" s="3"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="29" t="s">
+      <c r="C112" s="21"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F70" s="29" t="s">
+      <c r="G112" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="H112" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H70" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="22" t="s">
+      <c r="I112" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="32" t="s">
+      <c r="C113" s="22"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="G113" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="H113" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H71" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="I113" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J113" s="3"/>
+    </row>
+    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B114" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C114" s="20"/>
+      <c r="D114" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="E114" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="F114" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="G114" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="H114" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H72" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="20" t="s">
+      <c r="I114" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C115" s="20"/>
+      <c r="D115" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="E115" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="F115" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="G115" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="H115" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H73" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="18" t="s">
+      <c r="I115" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="29" t="s">
+      <c r="C116" s="18"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="G116" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="H116" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H74" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="20" t="s">
+      <c r="I116" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C117" s="20"/>
+      <c r="D117" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="E117" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="F117" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="G117" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="H117" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H75" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="18" t="s">
+      <c r="I117" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="29" t="s">
+      <c r="C118" s="18"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="G118" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="H118" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H76" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="18" t="s">
+      <c r="I118" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="29" t="s">
+      <c r="C119" s="18"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="G119" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="H119" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H77" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="20" t="s">
+      <c r="I119" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J119" s="3"/>
+    </row>
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C120" s="20"/>
+      <c r="D120" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="E120" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="F120" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="G120" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="H120" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H78" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="24" t="s">
+      <c r="I120" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="29" t="s">
+      <c r="C121" s="24"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="G121" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="H121" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H79" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="I121" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J121" s="3"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B122" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C122" s="63"/>
+      <c r="D122" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="E122" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="F122" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="G122" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="H122" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H80" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="I122" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J122" s="3"/>
+    </row>
+    <row r="123" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B123" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C123" s="63"/>
+      <c r="D123" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="E123" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="F123" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="G123" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="H123" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H81" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="20" t="s">
+      <c r="I123" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4"/>
+      <c r="B124" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C124" s="63"/>
+      <c r="D124" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="E124" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="F124" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="G124" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="H124" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H82" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="19" t="s">
+      <c r="I124" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C125" s="63"/>
+      <c r="D125" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="E125" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="F125" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="G125" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="H125" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H83" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="I125" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J125" s="3"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B126" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C126" s="20"/>
+      <c r="D126" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="E126" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="F126" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="G126" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="H126" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H84" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="20" t="s">
+      <c r="I126" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4"/>
+      <c r="B127" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C127" s="20"/>
+      <c r="D127" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="E127" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="F127" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="G127" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="H127" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H85" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="20" t="s">
+      <c r="I127" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J127" s="3"/>
+    </row>
+    <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C128" s="20"/>
+      <c r="D128" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="E128" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="F128" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="G128" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="H128" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H86" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="18" t="s">
+      <c r="I128" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="29" t="s">
+      <c r="C129" s="18"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F87" s="29" t="s">
+      <c r="G129" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="H129" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H87" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="23" t="s">
+      <c r="I129" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J129" s="3"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="29" t="s">
+      <c r="C130" s="23"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="G130" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="H130" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H88" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="I130" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J130" s="3"/>
+    </row>
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B131" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="29" t="s">
+      <c r="C131" s="51"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="G131" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="H131" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H89" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="I131" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J131" s="3"/>
+    </row>
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B132" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="29" t="s">
+      <c r="C132" s="51"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="G132" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="H132" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H90" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="23" t="s">
+      <c r="I132" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J132" s="3"/>
+    </row>
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="29" t="s">
+      <c r="C133" s="23"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F91" s="29" t="s">
+      <c r="G133" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="H133" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H91" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
+      <c r="I133" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J133" s="3"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B134" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="32" t="s">
+      <c r="C134" s="52"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F92" s="32" t="s">
+      <c r="G134" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="G92" s="15" t="s">
+      <c r="H134" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H92" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="I134" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>297</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{73DE7216-033B-434D-9890-FD7CDC0D6F7F}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{8B18FB44-E056-4252-92A9-7BCCA5D7A052}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{DC638C39-FC6B-47F3-9514-342017D0E1D1}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{7E6C11CD-BD80-4BBD-847A-92BDA91B8C4F}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{5655A139-9823-4CDC-BEDD-B60A696D7598}"/>
-    <hyperlink ref="E14" r:id="rId6" xr:uid="{44405157-E9AB-4A44-BF64-C354D784F94A}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{04E80402-32D5-4B41-A6D8-E02E078E1482}"/>
-    <hyperlink ref="E50" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
-    <hyperlink ref="D59" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
-    <hyperlink ref="C59" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
-    <hyperlink ref="E59" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
-    <hyperlink ref="D61" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
-    <hyperlink ref="C61" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
-    <hyperlink ref="E61" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
-    <hyperlink ref="C65" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
-    <hyperlink ref="D65" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
-    <hyperlink ref="E65" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
-    <hyperlink ref="D72" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
-    <hyperlink ref="C72" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
-    <hyperlink ref="E72" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
-    <hyperlink ref="E73" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
-    <hyperlink ref="C73" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
-    <hyperlink ref="D73" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
-    <hyperlink ref="C50" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
-    <hyperlink ref="D50" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
-    <hyperlink ref="C14" r:id="rId26" xr:uid="{A1F789CA-8193-481F-9C14-31C433228CAF}"/>
-    <hyperlink ref="C22" r:id="rId27" xr:uid="{78E3D53C-D832-42A0-9B14-AAE7E05EC251}"/>
-    <hyperlink ref="D14" r:id="rId28" xr:uid="{2CEF5720-4D4A-42EA-981F-ED494315A5ED}"/>
-    <hyperlink ref="D22" r:id="rId29" xr:uid="{3FE11369-19CE-4163-9A45-771E32A2D5C1}"/>
-    <hyperlink ref="D75" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
-    <hyperlink ref="C75" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
-    <hyperlink ref="E75" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
-    <hyperlink ref="C78" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
-    <hyperlink ref="D78" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
-    <hyperlink ref="E78" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
-    <hyperlink ref="E79" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
-    <hyperlink ref="E84" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
-    <hyperlink ref="C84" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
-    <hyperlink ref="D84" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
-    <hyperlink ref="E85" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
-    <hyperlink ref="C85" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
-    <hyperlink ref="D85" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
-    <hyperlink ref="E86" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
-    <hyperlink ref="C86" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
-    <hyperlink ref="D86" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
-    <hyperlink ref="E4" r:id="rId46" xr:uid="{55AA08BF-EC4C-4284-AA73-CAE2B9F77272}"/>
-    <hyperlink ref="E8" r:id="rId47" xr:uid="{1FB3A017-4666-4C63-9263-FE4B29A2B4E0}"/>
-    <hyperlink ref="E9" r:id="rId48" xr:uid="{F790313A-4ABC-4DEC-B2E0-915F3C5A3ADF}"/>
-    <hyperlink ref="E10" r:id="rId49" xr:uid="{068AD8CA-9BEB-4D90-BCC3-445A352716A1}"/>
-    <hyperlink ref="E11" r:id="rId50" xr:uid="{7592D244-0A46-47A4-A578-BD3EBB4573BC}"/>
-    <hyperlink ref="E13" r:id="rId51" xr:uid="{A25B0DE5-B19D-4A0F-A27E-51601601F4AD}"/>
-    <hyperlink ref="E15" r:id="rId52" xr:uid="{0166A7C7-6689-4D70-B462-74191C1D4B34}"/>
-    <hyperlink ref="E16" r:id="rId53" xr:uid="{0771CE9E-12EE-4139-86E2-EDC1391FED6B}"/>
-    <hyperlink ref="E17" r:id="rId54" xr:uid="{E7BDD23F-1304-4BEF-A155-9D1375F225F9}"/>
-    <hyperlink ref="E18" r:id="rId55" xr:uid="{3493FDAF-0516-4B19-9FCE-0AF56136A0E5}"/>
-    <hyperlink ref="E19" r:id="rId56" xr:uid="{39736642-F5A0-4B4A-B441-323B55665988}"/>
-    <hyperlink ref="E20" r:id="rId57" xr:uid="{9B128D51-8CD3-4163-9A48-70444310DAC1}"/>
-    <hyperlink ref="E21" r:id="rId58" xr:uid="{9B932BD3-3F50-4C2F-A97D-6459E471EE53}"/>
-    <hyperlink ref="E23" r:id="rId59" xr:uid="{728BBAC9-E40E-45F3-8D03-BF8FD55C5FDC}"/>
-    <hyperlink ref="E24" r:id="rId60" xr:uid="{9DE4BB3F-35C6-40A7-9E23-9043EB6FC7DF}"/>
-    <hyperlink ref="E29" r:id="rId61" xr:uid="{350B2830-FC1E-49A8-B7FF-FB825BBDE0D2}"/>
-    <hyperlink ref="E31" r:id="rId62" xr:uid="{CC057D40-5047-4280-ABDD-3A85E3914AFF}"/>
-    <hyperlink ref="E30" r:id="rId63" xr:uid="{AA7A3E9F-4B9A-468B-839B-128E37033483}"/>
-    <hyperlink ref="E32" r:id="rId64" xr:uid="{7F0897BE-59F8-4E4B-A6F8-4D9BB0A9AEE9}"/>
-    <hyperlink ref="E25" r:id="rId65" xr:uid="{7E8C7005-997A-42C7-9C99-145778E45F3E}"/>
-    <hyperlink ref="E28" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
-    <hyperlink ref="E27" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
-    <hyperlink ref="E26" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
-    <hyperlink ref="E34" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
-    <hyperlink ref="E35" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
-    <hyperlink ref="E36" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
-    <hyperlink ref="E37" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
-    <hyperlink ref="E38" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
-    <hyperlink ref="E39" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
-    <hyperlink ref="E40" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
-    <hyperlink ref="E41" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
-    <hyperlink ref="E42" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
-    <hyperlink ref="E43" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
-    <hyperlink ref="E44" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
-    <hyperlink ref="E46" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
-    <hyperlink ref="E47" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
-    <hyperlink ref="E48" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
-    <hyperlink ref="E49" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
-    <hyperlink ref="E45" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
-    <hyperlink ref="E51" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
-    <hyperlink ref="E52" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
-    <hyperlink ref="E53" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
-    <hyperlink ref="E54" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
-    <hyperlink ref="E56" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
-    <hyperlink ref="E57" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
-    <hyperlink ref="E58" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
-    <hyperlink ref="E62" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
-    <hyperlink ref="E64" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
-    <hyperlink ref="E66" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
-    <hyperlink ref="E67" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
-    <hyperlink ref="E68" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
-    <hyperlink ref="E69" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
-    <hyperlink ref="E70" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
-    <hyperlink ref="E71" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
-    <hyperlink ref="E74" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
-    <hyperlink ref="E76" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
-    <hyperlink ref="E77" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
-    <hyperlink ref="E87" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
-    <hyperlink ref="E88" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
-    <hyperlink ref="E91" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
-    <hyperlink ref="F4" r:id="rId106" xr:uid="{9AE2DF6B-2359-4671-961A-67C3E3D128AF}"/>
-    <hyperlink ref="F5" r:id="rId107" xr:uid="{6F47A7B7-4BFB-4496-8EEC-0F7ED526C666}"/>
-    <hyperlink ref="F6" r:id="rId108" xr:uid="{E55B49B4-D57E-4ADF-83C5-3B2D3FA4E86D}"/>
-    <hyperlink ref="F8" r:id="rId109" xr:uid="{2298F098-0B56-4FE4-ADD3-63C622E5A6D3}"/>
-    <hyperlink ref="F9" r:id="rId110" xr:uid="{C84164D7-7D73-4004-BFEA-C2AB6BE2477E}"/>
-    <hyperlink ref="F10" r:id="rId111" xr:uid="{D48317B5-467F-44EA-8168-FF249C3725A0}"/>
-    <hyperlink ref="F11" r:id="rId112" xr:uid="{35C8B7C1-8ABE-4CDA-B23C-A3126655E361}"/>
-    <hyperlink ref="F12" r:id="rId113" xr:uid="{DDEF1DE3-D5C0-4BEB-AC6D-8994A33DC0BB}"/>
-    <hyperlink ref="F13" r:id="rId114" xr:uid="{4AA6312A-5C4D-4553-A7EC-E99FAB3E00ED}"/>
-    <hyperlink ref="F14" r:id="rId115" xr:uid="{9DFC2D16-376A-4535-8FE5-E15FECAA7CC6}"/>
-    <hyperlink ref="F15" r:id="rId116" xr:uid="{61DE6562-095B-49F9-B36D-A34A437F2115}"/>
-    <hyperlink ref="F16" r:id="rId117" xr:uid="{BEB9787A-707D-45EB-95D6-6508EBD0B111}"/>
-    <hyperlink ref="F17" r:id="rId118" xr:uid="{A286EF24-EE0F-4FD0-9C6F-CA314719EAEA}"/>
-    <hyperlink ref="F18" r:id="rId119" xr:uid="{50DFEACE-2EBD-4F5B-9E3C-E926C2C4E767}"/>
-    <hyperlink ref="F19" r:id="rId120" xr:uid="{B1189A16-33F2-4D31-858C-98C266779B26}"/>
-    <hyperlink ref="F20" r:id="rId121" xr:uid="{F990757C-2807-4187-B0CE-B4E4F9F89DCA}"/>
-    <hyperlink ref="F21" r:id="rId122" xr:uid="{BDA8A04C-06F3-44DB-BC20-E74EA2A857D4}"/>
-    <hyperlink ref="F22" r:id="rId123" xr:uid="{0C492958-55A2-4592-AA93-CA9B73417B4A}"/>
-    <hyperlink ref="F23" r:id="rId124" xr:uid="{02850476-00EF-4061-A28A-9C85170B446B}"/>
-    <hyperlink ref="F24" r:id="rId125" xr:uid="{A0BC01ED-0F79-465C-AF12-6B6855553840}"/>
-    <hyperlink ref="F25" r:id="rId126" xr:uid="{780F7922-750C-4474-AF5A-D15D84D00870}"/>
-    <hyperlink ref="F26" r:id="rId127" xr:uid="{3FA3A5E4-E12D-4377-9897-2D0AAFEC05D8}"/>
-    <hyperlink ref="F27" r:id="rId128" xr:uid="{6273858D-29FD-4B58-A6A0-ED2343F31BCF}"/>
-    <hyperlink ref="F28" r:id="rId129" xr:uid="{5DF1252F-5426-4335-9EC2-EBDE176191B1}"/>
-    <hyperlink ref="F29" r:id="rId130" xr:uid="{EC3EFFA2-0FE8-4362-9D24-E008D38B067B}"/>
-    <hyperlink ref="F30" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
-    <hyperlink ref="F31" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
-    <hyperlink ref="F32" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
-    <hyperlink ref="F34" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
-    <hyperlink ref="F35" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
-    <hyperlink ref="F36" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
-    <hyperlink ref="F37" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
-    <hyperlink ref="F38" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
-    <hyperlink ref="F39" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
-    <hyperlink ref="F40" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
-    <hyperlink ref="F41" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
-    <hyperlink ref="F42" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
-    <hyperlink ref="F43" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
-    <hyperlink ref="F44" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
-    <hyperlink ref="F50" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
-    <hyperlink ref="F51" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
-    <hyperlink ref="F52" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
-    <hyperlink ref="F53" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
-    <hyperlink ref="F54" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
-    <hyperlink ref="F56" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
-    <hyperlink ref="F57" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
-    <hyperlink ref="F58" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
-    <hyperlink ref="F59" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
-    <hyperlink ref="F61" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
-    <hyperlink ref="F62" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
-    <hyperlink ref="F64" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
-    <hyperlink ref="F65" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
-    <hyperlink ref="F66" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
-    <hyperlink ref="F67" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
-    <hyperlink ref="F68" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
-    <hyperlink ref="F69" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
-    <hyperlink ref="F70" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
-    <hyperlink ref="F71" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
-    <hyperlink ref="F72" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
-    <hyperlink ref="F73" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
-    <hyperlink ref="F74" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
-    <hyperlink ref="F75" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
-    <hyperlink ref="F76" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
-    <hyperlink ref="F77" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
-    <hyperlink ref="F78" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
-    <hyperlink ref="F79" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
-    <hyperlink ref="F87" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
-    <hyperlink ref="E55" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
-    <hyperlink ref="E63" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
-    <hyperlink ref="E80" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
-    <hyperlink ref="E81" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
-    <hyperlink ref="E82" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
-    <hyperlink ref="E83" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
-    <hyperlink ref="E89" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
-    <hyperlink ref="E92" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
-    <hyperlink ref="F80" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
-    <hyperlink ref="F81" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
-    <hyperlink ref="F82" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
-    <hyperlink ref="F83" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
-    <hyperlink ref="F84" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
-    <hyperlink ref="F85" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
-    <hyperlink ref="F88" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
-    <hyperlink ref="F91" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
-    <hyperlink ref="F45" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
-    <hyperlink ref="F46" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
-    <hyperlink ref="F47" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
-    <hyperlink ref="F48" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
-    <hyperlink ref="F49" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
-    <hyperlink ref="F55" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
-    <hyperlink ref="F63" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
-    <hyperlink ref="F89" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
-    <hyperlink ref="F92" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
-    <hyperlink ref="F86" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
-    <hyperlink ref="C80" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
-    <hyperlink ref="C81" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
-    <hyperlink ref="C82" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
-    <hyperlink ref="C83" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
-    <hyperlink ref="F90" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
-    <hyperlink ref="E33" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
-    <hyperlink ref="C33" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
-    <hyperlink ref="D33" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
-    <hyperlink ref="E90" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
-    <hyperlink ref="F33" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
-    <hyperlink ref="E7" r:id="rId209" xr:uid="{2004B6BB-26AD-4E55-B226-C61BAC4AC34E}"/>
-    <hyperlink ref="F7" r:id="rId210" xr:uid="{0A98455D-0197-4D81-881E-24352D704928}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{73DE7216-033B-434D-9890-FD7CDC0D6F7F}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{8B18FB44-E056-4252-92A9-7BCCA5D7A052}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{DC638C39-FC6B-47F3-9514-342017D0E1D1}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{7E6C11CD-BD80-4BBD-847A-92BDA91B8C4F}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{5655A139-9823-4CDC-BEDD-B60A696D7598}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{44405157-E9AB-4A44-BF64-C354D784F94A}"/>
+    <hyperlink ref="F64" r:id="rId7" xr:uid="{04E80402-32D5-4B41-A6D8-E02E078E1482}"/>
+    <hyperlink ref="F92" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
+    <hyperlink ref="E101" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
+    <hyperlink ref="D101" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
+    <hyperlink ref="F101" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
+    <hyperlink ref="E103" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
+    <hyperlink ref="D103" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
+    <hyperlink ref="F103" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
+    <hyperlink ref="D107" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
+    <hyperlink ref="E107" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
+    <hyperlink ref="F107" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
+    <hyperlink ref="E114" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
+    <hyperlink ref="D114" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
+    <hyperlink ref="F114" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
+    <hyperlink ref="F115" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
+    <hyperlink ref="D115" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
+    <hyperlink ref="E115" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
+    <hyperlink ref="D92" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
+    <hyperlink ref="E92" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{A1F789CA-8193-481F-9C14-31C433228CAF}"/>
+    <hyperlink ref="D64" r:id="rId27" xr:uid="{78E3D53C-D832-42A0-9B14-AAE7E05EC251}"/>
+    <hyperlink ref="E14" r:id="rId28" xr:uid="{2CEF5720-4D4A-42EA-981F-ED494315A5ED}"/>
+    <hyperlink ref="E64" r:id="rId29" xr:uid="{3FE11369-19CE-4163-9A45-771E32A2D5C1}"/>
+    <hyperlink ref="E117" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
+    <hyperlink ref="D117" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
+    <hyperlink ref="F117" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
+    <hyperlink ref="D120" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
+    <hyperlink ref="E120" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
+    <hyperlink ref="F120" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
+    <hyperlink ref="F121" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
+    <hyperlink ref="F126" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
+    <hyperlink ref="D126" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
+    <hyperlink ref="E126" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
+    <hyperlink ref="F127" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
+    <hyperlink ref="D127" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
+    <hyperlink ref="E127" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
+    <hyperlink ref="F128" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
+    <hyperlink ref="D128" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
+    <hyperlink ref="E128" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
+    <hyperlink ref="F4" r:id="rId46" xr:uid="{55AA08BF-EC4C-4284-AA73-CAE2B9F77272}"/>
+    <hyperlink ref="F8" r:id="rId47" xr:uid="{1FB3A017-4666-4C63-9263-FE4B29A2B4E0}"/>
+    <hyperlink ref="F9" r:id="rId48" xr:uid="{F790313A-4ABC-4DEC-B2E0-915F3C5A3ADF}"/>
+    <hyperlink ref="F10" r:id="rId49" xr:uid="{068AD8CA-9BEB-4D90-BCC3-445A352716A1}"/>
+    <hyperlink ref="F11" r:id="rId50" xr:uid="{7592D244-0A46-47A4-A578-BD3EBB4573BC}"/>
+    <hyperlink ref="F13" r:id="rId51" xr:uid="{A25B0DE5-B19D-4A0F-A27E-51601601F4AD}"/>
+    <hyperlink ref="F15" r:id="rId52" xr:uid="{0166A7C7-6689-4D70-B462-74191C1D4B34}"/>
+    <hyperlink ref="F16" r:id="rId53" xr:uid="{0771CE9E-12EE-4139-86E2-EDC1391FED6B}"/>
+    <hyperlink ref="F17" r:id="rId54" xr:uid="{E7BDD23F-1304-4BEF-A155-9D1375F225F9}"/>
+    <hyperlink ref="F20" r:id="rId55" xr:uid="{3493FDAF-0516-4B19-9FCE-0AF56136A0E5}"/>
+    <hyperlink ref="F21" r:id="rId56" xr:uid="{39736642-F5A0-4B4A-B441-323B55665988}"/>
+    <hyperlink ref="F22" r:id="rId57" xr:uid="{9B128D51-8CD3-4163-9A48-70444310DAC1}"/>
+    <hyperlink ref="F23" r:id="rId58" xr:uid="{9B932BD3-3F50-4C2F-A97D-6459E471EE53}"/>
+    <hyperlink ref="F65" r:id="rId59" xr:uid="{728BBAC9-E40E-45F3-8D03-BF8FD55C5FDC}"/>
+    <hyperlink ref="F66" r:id="rId60" xr:uid="{9DE4BB3F-35C6-40A7-9E23-9043EB6FC7DF}"/>
+    <hyperlink ref="F71" r:id="rId61" xr:uid="{350B2830-FC1E-49A8-B7FF-FB825BBDE0D2}"/>
+    <hyperlink ref="F73" r:id="rId62" xr:uid="{CC057D40-5047-4280-ABDD-3A85E3914AFF}"/>
+    <hyperlink ref="F72" r:id="rId63" xr:uid="{AA7A3E9F-4B9A-468B-839B-128E37033483}"/>
+    <hyperlink ref="F74" r:id="rId64" xr:uid="{7F0897BE-59F8-4E4B-A6F8-4D9BB0A9AEE9}"/>
+    <hyperlink ref="F67" r:id="rId65" xr:uid="{7E8C7005-997A-42C7-9C99-145778E45F3E}"/>
+    <hyperlink ref="F70" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
+    <hyperlink ref="F69" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
+    <hyperlink ref="F68" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
+    <hyperlink ref="F76" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
+    <hyperlink ref="F77" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
+    <hyperlink ref="F78" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
+    <hyperlink ref="F79" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
+    <hyperlink ref="F80" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
+    <hyperlink ref="F81" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
+    <hyperlink ref="F82" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
+    <hyperlink ref="F83" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
+    <hyperlink ref="F84" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
+    <hyperlink ref="F85" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
+    <hyperlink ref="F86" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
+    <hyperlink ref="F88" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
+    <hyperlink ref="F89" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
+    <hyperlink ref="F90" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
+    <hyperlink ref="F91" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
+    <hyperlink ref="F87" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
+    <hyperlink ref="F93" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
+    <hyperlink ref="F94" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
+    <hyperlink ref="F95" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
+    <hyperlink ref="F96" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
+    <hyperlink ref="F98" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
+    <hyperlink ref="F99" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
+    <hyperlink ref="F100" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
+    <hyperlink ref="F104" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
+    <hyperlink ref="F106" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
+    <hyperlink ref="F108" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
+    <hyperlink ref="F109" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
+    <hyperlink ref="F110" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
+    <hyperlink ref="F111" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
+    <hyperlink ref="F112" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
+    <hyperlink ref="F113" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
+    <hyperlink ref="F116" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
+    <hyperlink ref="F118" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
+    <hyperlink ref="F119" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
+    <hyperlink ref="F129" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
+    <hyperlink ref="F130" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
+    <hyperlink ref="F133" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
+    <hyperlink ref="G4" r:id="rId106" xr:uid="{9AE2DF6B-2359-4671-961A-67C3E3D128AF}"/>
+    <hyperlink ref="G5" r:id="rId107" xr:uid="{6F47A7B7-4BFB-4496-8EEC-0F7ED526C666}"/>
+    <hyperlink ref="G6" r:id="rId108" xr:uid="{E55B49B4-D57E-4ADF-83C5-3B2D3FA4E86D}"/>
+    <hyperlink ref="G8" r:id="rId109" xr:uid="{2298F098-0B56-4FE4-ADD3-63C622E5A6D3}"/>
+    <hyperlink ref="G9" r:id="rId110" xr:uid="{C84164D7-7D73-4004-BFEA-C2AB6BE2477E}"/>
+    <hyperlink ref="G10" r:id="rId111" xr:uid="{D48317B5-467F-44EA-8168-FF249C3725A0}"/>
+    <hyperlink ref="G11" r:id="rId112" xr:uid="{35C8B7C1-8ABE-4CDA-B23C-A3126655E361}"/>
+    <hyperlink ref="G12" r:id="rId113" xr:uid="{DDEF1DE3-D5C0-4BEB-AC6D-8994A33DC0BB}"/>
+    <hyperlink ref="G13" r:id="rId114" xr:uid="{4AA6312A-5C4D-4553-A7EC-E99FAB3E00ED}"/>
+    <hyperlink ref="G14" r:id="rId115" xr:uid="{9DFC2D16-376A-4535-8FE5-E15FECAA7CC6}"/>
+    <hyperlink ref="G15" r:id="rId116" xr:uid="{61DE6562-095B-49F9-B36D-A34A437F2115}"/>
+    <hyperlink ref="G16" r:id="rId117" xr:uid="{BEB9787A-707D-45EB-95D6-6508EBD0B111}"/>
+    <hyperlink ref="G17" r:id="rId118" xr:uid="{A286EF24-EE0F-4FD0-9C6F-CA314719EAEA}"/>
+    <hyperlink ref="G20" r:id="rId119" xr:uid="{50DFEACE-2EBD-4F5B-9E3C-E926C2C4E767}"/>
+    <hyperlink ref="G21" r:id="rId120" xr:uid="{B1189A16-33F2-4D31-858C-98C266779B26}"/>
+    <hyperlink ref="G22" r:id="rId121" xr:uid="{F990757C-2807-4187-B0CE-B4E4F9F89DCA}"/>
+    <hyperlink ref="G23" r:id="rId122" xr:uid="{BDA8A04C-06F3-44DB-BC20-E74EA2A857D4}"/>
+    <hyperlink ref="G64" r:id="rId123" xr:uid="{0C492958-55A2-4592-AA93-CA9B73417B4A}"/>
+    <hyperlink ref="G65" r:id="rId124" xr:uid="{02850476-00EF-4061-A28A-9C85170B446B}"/>
+    <hyperlink ref="G66" r:id="rId125" xr:uid="{A0BC01ED-0F79-465C-AF12-6B6855553840}"/>
+    <hyperlink ref="G67" r:id="rId126" xr:uid="{780F7922-750C-4474-AF5A-D15D84D00870}"/>
+    <hyperlink ref="G68" r:id="rId127" xr:uid="{3FA3A5E4-E12D-4377-9897-2D0AAFEC05D8}"/>
+    <hyperlink ref="G69" r:id="rId128" xr:uid="{6273858D-29FD-4B58-A6A0-ED2343F31BCF}"/>
+    <hyperlink ref="G70" r:id="rId129" xr:uid="{5DF1252F-5426-4335-9EC2-EBDE176191B1}"/>
+    <hyperlink ref="G71" r:id="rId130" xr:uid="{EC3EFFA2-0FE8-4362-9D24-E008D38B067B}"/>
+    <hyperlink ref="G72" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
+    <hyperlink ref="G73" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
+    <hyperlink ref="G74" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
+    <hyperlink ref="G76" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
+    <hyperlink ref="G77" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
+    <hyperlink ref="G78" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
+    <hyperlink ref="G79" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
+    <hyperlink ref="G80" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
+    <hyperlink ref="G81" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
+    <hyperlink ref="G82" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
+    <hyperlink ref="G83" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
+    <hyperlink ref="G84" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
+    <hyperlink ref="G85" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
+    <hyperlink ref="G86" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
+    <hyperlink ref="G92" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
+    <hyperlink ref="G93" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
+    <hyperlink ref="G94" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
+    <hyperlink ref="G95" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
+    <hyperlink ref="G96" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
+    <hyperlink ref="G98" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
+    <hyperlink ref="G99" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
+    <hyperlink ref="G100" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
+    <hyperlink ref="G101" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
+    <hyperlink ref="G103" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
+    <hyperlink ref="G104" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
+    <hyperlink ref="G106" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
+    <hyperlink ref="G107" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
+    <hyperlink ref="G108" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
+    <hyperlink ref="G109" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
+    <hyperlink ref="G110" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
+    <hyperlink ref="G111" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
+    <hyperlink ref="G112" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
+    <hyperlink ref="G113" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
+    <hyperlink ref="G114" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
+    <hyperlink ref="G115" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
+    <hyperlink ref="G116" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
+    <hyperlink ref="G117" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
+    <hyperlink ref="G118" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
+    <hyperlink ref="G119" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
+    <hyperlink ref="G120" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
+    <hyperlink ref="G121" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
+    <hyperlink ref="G129" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
+    <hyperlink ref="F97" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
+    <hyperlink ref="F105" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
+    <hyperlink ref="F122" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
+    <hyperlink ref="F123" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
+    <hyperlink ref="F124" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
+    <hyperlink ref="F125" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
+    <hyperlink ref="F131" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
+    <hyperlink ref="F134" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
+    <hyperlink ref="G122" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
+    <hyperlink ref="G123" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
+    <hyperlink ref="G124" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
+    <hyperlink ref="G125" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
+    <hyperlink ref="G126" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
+    <hyperlink ref="G127" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
+    <hyperlink ref="G130" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
+    <hyperlink ref="G133" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
+    <hyperlink ref="G87" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
+    <hyperlink ref="G88" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
+    <hyperlink ref="G89" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
+    <hyperlink ref="G90" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
+    <hyperlink ref="G91" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
+    <hyperlink ref="G97" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
+    <hyperlink ref="G105" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
+    <hyperlink ref="G131" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
+    <hyperlink ref="G134" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
+    <hyperlink ref="G128" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
+    <hyperlink ref="D122" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
+    <hyperlink ref="D123" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
+    <hyperlink ref="D124" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
+    <hyperlink ref="D125" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
+    <hyperlink ref="G132" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
+    <hyperlink ref="F75" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
+    <hyperlink ref="D75" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
+    <hyperlink ref="E75" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
+    <hyperlink ref="F132" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
+    <hyperlink ref="G75" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
+    <hyperlink ref="F7" r:id="rId209" xr:uid="{2004B6BB-26AD-4E55-B226-C61BAC4AC34E}"/>
+    <hyperlink ref="G7" r:id="rId210" xr:uid="{0A98455D-0197-4D81-881E-24352D704928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId211"/>

--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F26E5-5A81-43FC-A72E-838781599A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5489705C-37DB-4136-9C8F-96FD2C54E40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="SIGLAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="579">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -42,12 +43,6 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Herramienta de Registro de Proyectos</t>
-  </si>
-  <si>
-    <t>Manual del Usuario de Herramienta de Registro de Proyectos</t>
-  </si>
-  <si>
     <t>Miniatura</t>
   </si>
   <si>
@@ -90,9 +85,6 @@
     <t>Reglamento de Operación del MIAQ</t>
   </si>
   <si>
-    <t>Reglamento del Regristro de Proyectos</t>
-  </si>
-  <si>
     <t>Sistema de Información de Salvaguardas (SIS)</t>
   </si>
   <si>
@@ -219,9 +211,6 @@
     <t>Metodología, Enfoque y Análisis Estadístico de Factores de Emisión Estimados para Guatemala en Marco del Nivel de Referencia de Emisiones Forestales a Nivel Subnacional</t>
   </si>
   <si>
-    <t>Documento Técnico del Inventario Forestal Nacional 2002-2003</t>
-  </si>
-  <si>
     <t>Sistema de Alerta Temprana (SAT)</t>
   </si>
   <si>
@@ -348,9 +337,6 @@
     <t>Mapa</t>
   </si>
   <si>
-    <t>Trifoliar MIAQ</t>
-  </si>
-  <si>
     <t>Panfleto Institucional MIAQ</t>
   </si>
   <si>
@@ -1066,6 +1052,723 @@
   </si>
   <si>
     <t>Trifoliar Institucional MIAQ Quechi</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/comic_local_miaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/trifoliar_local_miaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Local%20MIAQ.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Local%20MIAQ.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Local%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Institucional%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Local%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Institucional%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Local%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Institucional%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Local%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Institucional%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Local%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Institucional%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Local%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Institucional%20MIAQ%20Quechi.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Local%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Institucional%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Local%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Institucional%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Local%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Institucional%20MIAQ%20Mam.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Local%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Institucional%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Local%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Institucional%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Local%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Institucional%20MIAQ%20Kiche.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Local%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Institucional%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Local%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Institucional%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Local%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Institucional%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Local%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Institucional%20MIAQ%20Kaqchiquel.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Local%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Comic%20Institucional%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Local%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Panfleto%20Institucional%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Local%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Roll%20Up%20Institucional%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Local%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Trifoliar%20Institucional%20MIAQ%20Garifuna.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/comic%20local_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/comic_miaq_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/panfleto_local_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/panfleto_institucional_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/pendon_local_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/ROLL%20_UP_INSTITUCIONAL_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/trifoliar_local_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/quechi/trifoliar_inst_quechi.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/comic%20local_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/comic_miaq_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/panfleto_local_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/Panfleto_institucional_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/pendon_local_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/ROLL%20UP%20INSTITUCIONAL_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/trifoliar_local_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/mam/trifoliar_institucional_mam.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/comic%20local_kiche.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/comic%20miaq%20v6.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/Panfleto_local_kiche.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/Panfleto_institucional_kich.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/pendon_local_kiche.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/pendon_inst_kiche.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/editable%20local.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kiche/editable%20institucional.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/comic%20local_kakchiquel.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/comic_miaq_kaqchiquel.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/Panfleto_local_kaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/Panfleto_institucional_kaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/pendon_local_kaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/ROLL%20_UP_INSTITUCIONAL_kaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/Trifoliar_local_kaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/kaqchiquel/Trifoliar_institucional_kaq.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/comic%20local_gar%C3%ADfuna.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/comic%20miaq%20v6.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/Panfleto_local.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/Panfleto_inst.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/pendon%20version%20local.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/ROLL%20UP%20INSTITUCIONAL.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/Trifoliar_local.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Astrid/MIAQ/Repositorio%20Web/Adicional/Material%20en%20idioma%20Local/garifuna/trifoliar_institucional.pdf</t>
+  </si>
+  <si>
+    <t>Trifoliar Institucional MIAQ</t>
+  </si>
+  <si>
+    <t>Reglamento del Sistema de Regristro de Proyectos</t>
+  </si>
+  <si>
+    <t>Sistema del Sistema de Registro de Proyectos</t>
+  </si>
+  <si>
+    <t>Herramienta del Sistema de Registro de Proyectos</t>
+  </si>
+  <si>
+    <t>Manual del Usuario de Herramienta del Sistema de Registro de Proyectos</t>
+  </si>
+  <si>
+    <t>Manual Operativo MIAQ</t>
+  </si>
+  <si>
+    <t>Herramienta MIAQ</t>
+  </si>
+  <si>
+    <t>Manual Usuario Herramienta MIAQ</t>
+  </si>
+  <si>
+    <t>Ruta Género Guatemala</t>
+  </si>
+  <si>
+    <t>Herramienta Monitoreo Fuego</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>SRP</t>
+  </si>
+  <si>
+    <t>Reglamento SRP</t>
+  </si>
+  <si>
+    <t>Sistema SRP</t>
+  </si>
+  <si>
+    <t>Herramienta SRP</t>
+  </si>
+  <si>
+    <t>Informe SRP</t>
+  </si>
+  <si>
+    <t>Plan Distribución Beneficio</t>
+  </si>
+  <si>
+    <t>Informe Plan Distribución Beneficio</t>
+  </si>
+  <si>
+    <t>Manual Usuario Herramienta SRP</t>
+  </si>
+  <si>
+    <t>MIAQ</t>
+  </si>
+  <si>
+    <t>Mecanismo de Información y Atención a Quejas</t>
+  </si>
+  <si>
+    <t>Reglamento Operación MIAQ</t>
+  </si>
+  <si>
+    <t>Enfoque Nacional Salvaguardas Guatemala</t>
+  </si>
+  <si>
+    <t>CDEF</t>
+  </si>
+  <si>
+    <t>Causas de Deforestación</t>
+  </si>
+  <si>
+    <t>Herramienta Visualización CDEF 2006-2016</t>
+  </si>
+  <si>
+    <t>Matriz Evaluación Indicadores Fase I</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Co-beneficios</t>
+  </si>
+  <si>
+    <t>Propuesta Priorización Indicadores SMART CB</t>
+  </si>
+  <si>
+    <t>CB Guatemala</t>
+  </si>
+  <si>
+    <t>Formato Captura Datos INAB</t>
+  </si>
+  <si>
+    <t>Formato Captura Datos CONAP</t>
+  </si>
+  <si>
+    <t>Formato Captura Datos MAGA</t>
+  </si>
+  <si>
+    <t>Formato Captura Datos MARN</t>
+  </si>
+  <si>
+    <t>Sistema Reporte Cumplimiento CB</t>
+  </si>
+  <si>
+    <t>Diseño Conceptual MFC</t>
+  </si>
+  <si>
+    <t>Manual Usuario Medición y Monitoreo CF</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Cobertura Forestal</t>
+  </si>
+  <si>
+    <t>Manual Usuario Herramienta Indicador DS</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Degradación de Suelos</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>BD Herramienta Monitoreo CF</t>
+  </si>
+  <si>
+    <t>Instructivo Monitoreo Terrestre RV</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Recursos Vegetacionales</t>
+  </si>
+  <si>
+    <t>Instructivo Monitoreo Satelital RV</t>
+  </si>
+  <si>
+    <t>Instructivo Monitoreo Bosques CE</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Collect Earth</t>
+  </si>
+  <si>
+    <t>Herramienta Monitoreo Dinámica CF</t>
+  </si>
+  <si>
+    <t>NREF</t>
+  </si>
+  <si>
+    <t>Nivel de Referencia de Emisiones Forestales</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>Emisiones Forestales</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Estratos de Carbono</t>
+  </si>
+  <si>
+    <t>BD Herramientas Mapa EC</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Datos de Actividad</t>
+  </si>
+  <si>
+    <t>DA y Herramienta NREF</t>
+  </si>
+  <si>
+    <t>Informe NREF Subnacional</t>
+  </si>
+  <si>
+    <t>Metodología Estimación Emisiones</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Emisiones y Absorciones</t>
+  </si>
+  <si>
+    <t>NREF Nacional Estimado</t>
+  </si>
+  <si>
+    <t>Variables Climáticas y Topográficas</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>Herramienta Mapeo VCT</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Cobertura y Dinámica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventario Forestal Nacional </t>
+  </si>
+  <si>
+    <t>IFN</t>
+  </si>
+  <si>
+    <t>Herramienta EC Mapa CF 2016</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>Factores de Emisión</t>
+  </si>
+  <si>
+    <t>Metodología FE en Marco NREF Subnacional</t>
+  </si>
+  <si>
+    <t>NREF Subnacional</t>
+  </si>
+  <si>
+    <t>Herramienta DA Mapa DF 2006-2016</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Dinámica Forestal</t>
+  </si>
+  <si>
+    <t>Informe Mapa EC</t>
+  </si>
+  <si>
+    <t>Herramienta IFN 2002-2013</t>
+  </si>
+  <si>
+    <t>Informe IFN 2002-2013</t>
+  </si>
+  <si>
+    <t>Documento Técnico del Inventario Forestal Nacional 2002-2013</t>
+  </si>
+  <si>
+    <t>Herramienta Factores EA Mapa DF 2006-2016</t>
+  </si>
+  <si>
+    <t>Mapa DF 2006-2016</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Pérdida Forestal</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>Gnancia Forestal</t>
+  </si>
+  <si>
+    <t>Mapa PF 2006-2016</t>
+  </si>
+  <si>
+    <t>Mapa CF 2006</t>
+  </si>
+  <si>
+    <t>Mapa CF 2016</t>
+  </si>
+  <si>
+    <t>Mapa GF 2006-2016</t>
+  </si>
+  <si>
+    <t>Herramienta DA Muestreo CE</t>
+  </si>
+  <si>
+    <t>Sistema DA Mapa DF</t>
+  </si>
+  <si>
+    <t>Herramienta DA Mapa Dinámica CF 2006-2016</t>
+  </si>
+  <si>
+    <t>Informe y DG sobre DA</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>Datos Geográficos</t>
+  </si>
+  <si>
+    <t>Informe y DG de DA Muestreo CE</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>Sistema de Información Geográfica</t>
+  </si>
+  <si>
+    <t>DG Raster Mapa DF 2006-2015</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Sector Forestal</t>
+  </si>
+  <si>
+    <t>Herramienta EA CO2 SF Subnacional</t>
+  </si>
+  <si>
+    <t>Herramienta EA CO2 SF Nacional</t>
+  </si>
+  <si>
+    <t>CDDF</t>
+  </si>
+  <si>
+    <t>Causas de Degradación y Deforestación Forestal</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Norte</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Nororiente</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Suroriente</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Central</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Suroccidente</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región Noroccidente</t>
+  </si>
+  <si>
+    <t>Mapa CDDF Región de Petén</t>
+  </si>
+  <si>
+    <t>Informe CDDF</t>
+  </si>
+  <si>
+    <t>Manual Usuario Cálculo y Análisis CCT</t>
+  </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>Cambio de Cobertura Terrestre</t>
+  </si>
+  <si>
+    <t>CDEG</t>
+  </si>
+  <si>
+    <t>Causales de Degradación</t>
+  </si>
+  <si>
+    <t>Mapa CDEG</t>
+  </si>
+  <si>
+    <t>Mapa CDEG FIP</t>
+  </si>
+  <si>
+    <t>Mapa CDEG Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>Mapa CDEF</t>
+  </si>
+  <si>
+    <t>Mapa CDEF FIP</t>
+  </si>
+  <si>
+    <t>Mapa CDEF Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>REDD</t>
+  </si>
+  <si>
+    <t>Reducción de Emisiones causadas por la Deforestación y la Degradación de los Bosques</t>
+  </si>
+  <si>
+    <t>Mapa CDEG REDD</t>
+  </si>
+  <si>
+    <t>Mapa CDEF REDD</t>
+  </si>
+  <si>
+    <t>Herramienta Mapeo CD en Bosque 2006-2016</t>
+  </si>
+  <si>
+    <t>Herramienta Cálculo Absorciones CO2</t>
+  </si>
+  <si>
+    <t>Herramienta NREF Subnacional</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>INAB</t>
+  </si>
+  <si>
+    <t>CONAP</t>
+  </si>
+  <si>
+    <t>MAGA</t>
+  </si>
+  <si>
+    <t>MARN</t>
+  </si>
+  <si>
+    <t>MFC</t>
+  </si>
+  <si>
+    <t>Consejo Nacional de Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Bosques</t>
+  </si>
+  <si>
+    <t>Ministerio de Agricultura, Ganadería y Alimentación</t>
+  </si>
+  <si>
+    <t>Ministerio de Ambiente y Recursos Naturales</t>
+  </si>
+  <si>
+    <t>Monitoreo Forestal Comunitario</t>
+  </si>
+  <si>
+    <t>Specific, measurable, attainable, realistic and timely (específico, medible, alcanzable, realista y temporal)</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +2002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1400,7 +2103,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,37 +2110,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -1506,6 +2184,27 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1563,13 +2262,13 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2C68873B-B9C9-4DC5-B787-C168CCD28B73}" name="Tema" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{3D2E43D4-CBD9-40D1-907F-D386A213E9E5}" name="Documento/Dashboard Referenciados" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{0F4CAFCC-1F24-4CF0-B59E-82DD15A86630}" name="Nombre Corto Documento" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1C1BB878-04A2-4694-96DB-AE1DF85A0A36}" name="Link Base" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5C2C482E-4AE6-4110-9013-316730863BEB}" name="Link Específico" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B55BA4B2-6234-4D2B-90CD-635367E0334A}" name="Link Completo" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2EEC04FB-2C4B-415B-869E-1E90AB71DED3}" name="Miniatura" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00A01212-C17A-44B3-B89A-12D876413F41}" name="Encargado" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{743E9532-AB82-4AB0-96A5-3ACD20B0FD29}" name="Estado" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{0F4CAFCC-1F24-4CF0-B59E-82DD15A86630}" name="Nombre Corto Documento" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1C1BB878-04A2-4694-96DB-AE1DF85A0A36}" name="Link Base" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{5C2C482E-4AE6-4110-9013-316730863BEB}" name="Link Específico" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B55BA4B2-6234-4D2B-90CD-635367E0334A}" name="Link Completo" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{2EEC04FB-2C4B-415B-869E-1E90AB71DED3}" name="Miniatura" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00A01212-C17A-44B3-B89A-12D876413F41}" name="Encargado" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{743E9532-AB82-4AB0-96A5-3ACD20B0FD29}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1874,15 +2573,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H39"/>
+    <sheetView showGridLines="0" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
@@ -1899,32 +2598,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L3" s="39"/>
     </row>
@@ -1933,52 +2632,56 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>425</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="40"/>
       <c r="L4" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>426</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>438</v>
+      </c>
       <c r="D5" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="41"/>
@@ -1989,2002 +2692,2448 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>427</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="42"/>
       <c r="L6" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="33" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="43"/>
       <c r="L7" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>428</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>443</v>
+      </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="44"/>
       <c r="L8" s="39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="48"/>
       <c r="L9" s="49" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>442</v>
+      </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>430</v>
+      </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>431</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="29" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>296</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>342</v>
+      </c>
       <c r="H18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>297</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>343</v>
+      </c>
       <c r="H19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>424</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>424</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="58"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>446</v>
+      </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="59" t="s">
-        <v>152</v>
+      <c r="F23" s="58" t="s">
+        <v>147</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="58"/>
+        <v>332</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>344</v>
+      </c>
       <c r="H24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C25" s="58"/>
+        <v>333</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>345</v>
+      </c>
       <c r="H25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C26" s="58"/>
+        <v>334</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>350</v>
+      </c>
       <c r="H26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C27" s="58"/>
+        <v>335</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>351</v>
+      </c>
       <c r="H27" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="58"/>
+        <v>336</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>352</v>
+      </c>
       <c r="H28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" s="58"/>
+        <v>337</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="F29" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="H29" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C30" s="58"/>
+        <v>338</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="F30" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>354</v>
+      </c>
       <c r="H30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C31" s="58"/>
+        <v>339</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="F31" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>355</v>
+      </c>
       <c r="H31" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C32" s="58"/>
+        <v>324</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="F32" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="H32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C33" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="F33" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="H33" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C34" s="58"/>
+        <v>326</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>356</v>
+      </c>
       <c r="H34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C35" s="58"/>
+        <v>327</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>357</v>
+      </c>
       <c r="H35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="C36" s="58"/>
+        <v>328</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="F36" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>358</v>
+      </c>
       <c r="H36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C37" s="58"/>
+        <v>329</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="F37" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>359</v>
+      </c>
       <c r="H37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" s="58"/>
+        <v>330</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="F38" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>360</v>
+      </c>
       <c r="H38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" s="58"/>
+        <v>331</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="F39" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>361</v>
+      </c>
       <c r="H39" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C40" s="7"/>
+        <v>315</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="F40" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>348</v>
+      </c>
       <c r="H40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C41" s="7"/>
+        <v>316</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
+      <c r="F41" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>349</v>
+      </c>
       <c r="H41" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="F42" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>362</v>
+      </c>
       <c r="H42" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
+      <c r="F43" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>363</v>
+      </c>
       <c r="H43" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>319</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
+      <c r="F44" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>364</v>
+      </c>
       <c r="H44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
+      <c r="F45" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>365</v>
+      </c>
       <c r="H45" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="7"/>
+        <v>321</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="F46" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>366</v>
+      </c>
       <c r="H46" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C47" s="62"/>
+        <v>322</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="D47" s="6"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="F47" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>367</v>
+      </c>
       <c r="H47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C48" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
+      <c r="F48" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>368</v>
+      </c>
       <c r="H48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="F49" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>369</v>
+      </c>
       <c r="H49" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
+      <c r="F50" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>370</v>
+      </c>
       <c r="H50" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
+      <c r="F51" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>371</v>
+      </c>
       <c r="H51" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="7"/>
+        <v>311</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="F52" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>372</v>
+      </c>
       <c r="H52" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>312</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
+      <c r="F53" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>373</v>
+      </c>
       <c r="H53" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C54" s="7"/>
+        <v>313</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
+      <c r="F54" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>374</v>
+      </c>
       <c r="H54" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C55" s="62"/>
+        <v>314</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
+      <c r="F55" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>375</v>
+      </c>
       <c r="H55" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
-        <v>303</v>
+      <c r="A56" s="59" t="s">
+        <v>298</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
+      <c r="F56" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="H56" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>299</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
+      <c r="F57" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>377</v>
+      </c>
       <c r="H57" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I57" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C58" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
+      <c r="F58" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>378</v>
+      </c>
       <c r="H58" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>302</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
+      <c r="F59" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>379</v>
+      </c>
       <c r="H59" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C60" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
+      <c r="F60" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="H60" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="F61" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>381</v>
+      </c>
       <c r="H61" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C62" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="F62" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>382</v>
+      </c>
       <c r="H62" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="61" t="s">
-        <v>303</v>
+      <c r="A63" s="60" t="s">
+        <v>298</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C63" s="10"/>
+        <v>306</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>306</v>
+      </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
+      <c r="F63" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>383</v>
+      </c>
       <c r="H63" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H64" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="I64" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>447</v>
+      </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>432</v>
+      </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J66" s="37"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>554</v>
+      </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>555</v>
+      </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>556</v>
+      </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>562</v>
+      </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>558</v>
+      </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>559</v>
+      </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" s="11"/>
+        <v>221</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>563</v>
+      </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="55"/>
+        <v>288</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>450</v>
+      </c>
       <c r="D75" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>548</v>
+      </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="32" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>541</v>
+      </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="29" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>542</v>
+      </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I79" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>543</v>
+      </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>544</v>
+      </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>545</v>
+      </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="29" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>546</v>
+      </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="29" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>547</v>
+      </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>451</v>
+      </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="29" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>454</v>
+      </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>455</v>
+      </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="29" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I87" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>456</v>
+      </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>457</v>
+      </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>458</v>
+      </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I90" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="23"/>
+        <v>31</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>459</v>
+      </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>460</v>
+      </c>
       <c r="D92" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I92" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>461</v>
+      </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I93" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>462</v>
+      </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I94" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="B95" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>549</v>
+      </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I95" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>465</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="29" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I96" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" s="50"/>
+        <v>39</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>471</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I97" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>472</v>
+      </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I98" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C99" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>475</v>
+      </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I99" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>476</v>
+      </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I100" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>525</v>
+      </c>
       <c r="D101" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I101" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B102" s="46"/>
       <c r="C102" s="46"/>
@@ -3993,790 +5142,854 @@
       <c r="F102" s="46"/>
       <c r="G102" s="46"/>
       <c r="H102" s="46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I102" s="47"/>
       <c r="J102" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>526</v>
+      </c>
       <c r="D103" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>527</v>
+      </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B105" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" s="51"/>
+        <v>46</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>533</v>
+      </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>530</v>
+      </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I106" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>524</v>
+      </c>
       <c r="D107" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>521</v>
+      </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="21"/>
+        <v>112</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>522</v>
+      </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="21"/>
+        <v>113</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>515</v>
+      </c>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
       <c r="F110" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="21"/>
+        <v>114</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>520</v>
+      </c>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
       <c r="F111" s="29" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>523</v>
+      </c>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I112" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="22"/>
+        <v>116</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H113" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I113" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>514</v>
+      </c>
       <c r="D114" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I114" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>511</v>
+      </c>
       <c r="D115" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C116" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>510</v>
+      </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I116" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>507</v>
+      </c>
       <c r="D117" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C118" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>506</v>
+      </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I118" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C119" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>505</v>
+      </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I119" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C120" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="D120" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I120" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" s="24"/>
+        <v>513</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>512</v>
+      </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I121" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>433</v>
+      </c>
       <c r="D122" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E122" s="54" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I122" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" s="63"/>
+        <v>61</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>479</v>
+      </c>
       <c r="D123" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I123" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C124" s="63"/>
+        <v>62</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>564</v>
+      </c>
       <c r="D124" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G124" s="29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" s="63"/>
+        <v>63</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="D125" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I125" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C126" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>494</v>
+      </c>
       <c r="D126" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>536</v>
+      </c>
       <c r="D127" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I127" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" s="20"/>
+        <v>67</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>537</v>
+      </c>
       <c r="D128" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I128" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C129" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>490</v>
+      </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="29" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I129" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" s="23"/>
+        <v>69</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>489</v>
+      </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="29" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I130" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B131" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="C131" s="51" t="s">
+        <v>491</v>
+      </c>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B132" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C132" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>486</v>
+      </c>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="29" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I132" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I133" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" s="52"/>
+        <v>73</v>
+      </c>
+      <c r="C134" s="52" t="s">
+        <v>565</v>
+      </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="32" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I134" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4991,11 +6204,394 @@
     <hyperlink ref="G75" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
     <hyperlink ref="F7" r:id="rId209" xr:uid="{2004B6BB-26AD-4E55-B226-C61BAC4AC34E}"/>
     <hyperlink ref="G7" r:id="rId210" xr:uid="{0A98455D-0197-4D81-881E-24352D704928}"/>
+    <hyperlink ref="F18" r:id="rId211" xr:uid="{969CFA0D-5C49-4F71-8812-818C34558C76}"/>
+    <hyperlink ref="F19" r:id="rId212" xr:uid="{18DC51FB-DEA7-485C-A579-B5B6FE824EEA}"/>
+    <hyperlink ref="G18" r:id="rId213" xr:uid="{CECBFB87-4F86-4992-85B0-B97D19E86996}"/>
+    <hyperlink ref="G19" r:id="rId214" xr:uid="{304FD18E-FF8A-4DC8-A9FC-AF661B6EEF77}"/>
+    <hyperlink ref="G24" r:id="rId215" xr:uid="{36AE82B1-4094-495F-85A4-B652D6DBAC85}"/>
+    <hyperlink ref="G25" r:id="rId216" xr:uid="{9FA3FBB9-9B93-4B8E-8407-496AFAA69AD6}"/>
+    <hyperlink ref="G26" r:id="rId217" xr:uid="{D7423F7E-67EB-4CA0-8E0F-E95D6A0591B1}"/>
+    <hyperlink ref="G27" r:id="rId218" xr:uid="{CBF6C22E-5446-40CA-A25D-11146FA30051}"/>
+    <hyperlink ref="G28" r:id="rId219" xr:uid="{EC7BB093-92BA-4477-AF0B-A633765C1200}"/>
+    <hyperlink ref="G29" r:id="rId220" xr:uid="{15CFB684-6473-4D19-8EF7-0EDE1AB5C78A}"/>
+    <hyperlink ref="G30" r:id="rId221" xr:uid="{EA4BFE69-1C62-4F91-9601-45A07CD690AF}"/>
+    <hyperlink ref="G31" r:id="rId222" xr:uid="{2525AA20-97BA-4FB8-85EE-B731C36AD90B}"/>
+    <hyperlink ref="G32" r:id="rId223" xr:uid="{BF90AF68-6A11-4480-9AFF-509841C56AF2}"/>
+    <hyperlink ref="G33" r:id="rId224" xr:uid="{5F564EF3-F3BD-4BF2-953C-F845868BFE1F}"/>
+    <hyperlink ref="G34" r:id="rId225" xr:uid="{A5744897-D0FB-4216-AE07-806413AB785F}"/>
+    <hyperlink ref="G35" r:id="rId226" xr:uid="{D8E2B833-5AAB-4330-AD3D-F54D7EEDF242}"/>
+    <hyperlink ref="G36" r:id="rId227" xr:uid="{84493E4D-663D-48D1-952E-E08F17027647}"/>
+    <hyperlink ref="G37" r:id="rId228" xr:uid="{66D0CA8F-0E69-4B61-9656-3EB3D7739454}"/>
+    <hyperlink ref="G38" r:id="rId229" xr:uid="{209CD1F3-C05A-47AC-B12B-70F42C49AE32}"/>
+    <hyperlink ref="G39" r:id="rId230" xr:uid="{2198C4F5-310E-4E74-8F96-4DAA4CDD8B40}"/>
+    <hyperlink ref="G40" r:id="rId231" xr:uid="{6D7948D6-8A99-48C2-BA2B-4CA457A894B8}"/>
+    <hyperlink ref="G41" r:id="rId232" xr:uid="{378898B3-F7D6-4229-ABD3-4EBD2C4E1F2E}"/>
+    <hyperlink ref="G42" r:id="rId233" xr:uid="{29AB4AEE-85CD-4AF1-8D93-E276E0521936}"/>
+    <hyperlink ref="G43" r:id="rId234" xr:uid="{D58613B5-0210-423E-A9C1-312056B79D7E}"/>
+    <hyperlink ref="G44" r:id="rId235" xr:uid="{698DEB5D-9F00-4F0C-B032-066F1177541A}"/>
+    <hyperlink ref="G45" r:id="rId236" xr:uid="{415ABC5D-862A-49D1-A27B-450727D1FB27}"/>
+    <hyperlink ref="G46" r:id="rId237" xr:uid="{A681D64E-A753-48EB-BDD9-1DE55ED3CC61}"/>
+    <hyperlink ref="G47" r:id="rId238" xr:uid="{5187A4BE-6615-4AB1-9923-7A489881A405}"/>
+    <hyperlink ref="G48" r:id="rId239" xr:uid="{461D1C28-07C8-43CA-AE9A-3E12EE6BC76D}"/>
+    <hyperlink ref="G49" r:id="rId240" xr:uid="{472D5D2F-8696-4418-9D38-F2D3D47C4F53}"/>
+    <hyperlink ref="G50" r:id="rId241" xr:uid="{75D4C468-2C62-4AF2-9BA8-23E63DC1CC82}"/>
+    <hyperlink ref="G51" r:id="rId242" xr:uid="{AD633F4B-647E-4AF4-867E-E5A0361D0942}"/>
+    <hyperlink ref="G52" r:id="rId243" xr:uid="{F590F3E0-EC52-454F-8832-0FA27E079CA8}"/>
+    <hyperlink ref="G53" r:id="rId244" xr:uid="{EB60D6CB-1729-4579-B1F7-1A17E6DEC687}"/>
+    <hyperlink ref="G54" r:id="rId245" xr:uid="{7817D42E-BEDB-4555-B561-3E795C703E84}"/>
+    <hyperlink ref="G55" r:id="rId246" xr:uid="{F241DE42-AA31-4DED-ADCE-BDD58841F925}"/>
+    <hyperlink ref="G56" r:id="rId247" xr:uid="{D196F07A-8BE3-4431-B991-A3BBE8ACE20A}"/>
+    <hyperlink ref="G57" r:id="rId248" xr:uid="{3436B55F-2F9C-4366-A631-884A5C840FFB}"/>
+    <hyperlink ref="G58" r:id="rId249" xr:uid="{1FC6B7AC-8C7C-4C01-987B-42FC80D5AFC3}"/>
+    <hyperlink ref="G59" r:id="rId250" xr:uid="{B9FC3551-7BC7-4A40-A43D-95CBA4601F48}"/>
+    <hyperlink ref="G60" r:id="rId251" xr:uid="{5AA3AA1A-F8DA-4B35-A253-9DBFAAEAF353}"/>
+    <hyperlink ref="G61" r:id="rId252" xr:uid="{B50197DA-EEAF-4D6A-A96B-9C29FD5F8EFB}"/>
+    <hyperlink ref="G62" r:id="rId253" xr:uid="{34F8D9D1-B0CF-48AD-9A61-62FF0C223B39}"/>
+    <hyperlink ref="G63" r:id="rId254" xr:uid="{0B3BD3AB-D206-4B71-924D-BDABD7C05D07}"/>
+    <hyperlink ref="F24" r:id="rId255" xr:uid="{5DE8DFE7-D685-4C4C-BEA2-3D559AA6F75E}"/>
+    <hyperlink ref="F25" r:id="rId256" xr:uid="{18717193-E12F-4826-B95A-F857999757E0}"/>
+    <hyperlink ref="F26" r:id="rId257" xr:uid="{1D9255D6-CABC-493F-BA79-6AA6AE3A839F}"/>
+    <hyperlink ref="F27" r:id="rId258" xr:uid="{5984424B-07F5-417D-8358-091F7CA8AEBB}"/>
+    <hyperlink ref="F28" r:id="rId259" xr:uid="{434B7ECE-025C-428E-9325-008B5A7B6D84}"/>
+    <hyperlink ref="F29" r:id="rId260" xr:uid="{E78C7334-FB38-4A59-9302-F205E7F9410B}"/>
+    <hyperlink ref="F30" r:id="rId261" xr:uid="{3C9855D4-729B-483D-B410-8C5AAFBF0DFC}"/>
+    <hyperlink ref="F31" r:id="rId262" xr:uid="{F1F4D7A1-A9A3-47DB-9DFD-73F9E7976993}"/>
+    <hyperlink ref="F32" r:id="rId263" xr:uid="{0AC78819-CB17-42E3-BAED-D5B2812FBBB0}"/>
+    <hyperlink ref="F33" r:id="rId264" xr:uid="{1D58D064-0D36-4555-B78B-EFFD10F7BAEA}"/>
+    <hyperlink ref="F34" r:id="rId265" xr:uid="{D31FEBF4-974A-4BA1-95E9-81653C761168}"/>
+    <hyperlink ref="F35" r:id="rId266" xr:uid="{73DCEC4E-AD1A-4EF6-9D8A-AFC827F88B72}"/>
+    <hyperlink ref="F36" r:id="rId267" xr:uid="{E3A498F4-779C-4385-A72D-61F60647FF60}"/>
+    <hyperlink ref="F37" r:id="rId268" xr:uid="{9691070D-0B5D-4F85-BE44-87FAE140BA54}"/>
+    <hyperlink ref="F38" r:id="rId269" xr:uid="{2E4776AE-7B8F-418D-AD31-C7CFF3A5C352}"/>
+    <hyperlink ref="F39" r:id="rId270" xr:uid="{64E3E664-E477-4211-842D-60DAF13CCA7B}"/>
+    <hyperlink ref="F40" r:id="rId271" xr:uid="{ECB91755-E6FD-4035-9357-CE833F5C95D1}"/>
+    <hyperlink ref="F41" r:id="rId272" xr:uid="{EB88E1C8-5AC6-4106-AEC9-7D75952BAFF4}"/>
+    <hyperlink ref="F42" r:id="rId273" xr:uid="{C03AC564-B91D-4027-8CA6-80B6EE6DB352}"/>
+    <hyperlink ref="F43" r:id="rId274" xr:uid="{19F35424-5C87-43FE-99F1-E7B870F79663}"/>
+    <hyperlink ref="F44" r:id="rId275" xr:uid="{6C719923-7DEB-4CC9-9E5F-A080961CD31C}"/>
+    <hyperlink ref="F45" r:id="rId276" xr:uid="{57E50D07-E925-486F-8D4A-6611710A71D1}"/>
+    <hyperlink ref="F46" r:id="rId277" xr:uid="{AA36DA69-CB64-42F1-97E3-61D5C19B642E}"/>
+    <hyperlink ref="F47" r:id="rId278" xr:uid="{1E541B5B-A78E-466D-9043-8A895698BF54}"/>
+    <hyperlink ref="F48" r:id="rId279" xr:uid="{4FD3C95A-6D87-456F-BDB9-44FE8A51D096}"/>
+    <hyperlink ref="F49" r:id="rId280" xr:uid="{D0E18B7D-0E2E-490B-BD2A-2FB0A28E2E23}"/>
+    <hyperlink ref="F50" r:id="rId281" xr:uid="{69FD47A1-AC6F-43B4-841D-E6B168CE878A}"/>
+    <hyperlink ref="F51" r:id="rId282" xr:uid="{046C0DC9-D6B8-4850-8C0B-5A8CE89A1746}"/>
+    <hyperlink ref="F52" r:id="rId283" xr:uid="{B0CD4D85-FF4A-4CC6-9E43-8DDF3A8927CE}"/>
+    <hyperlink ref="F53" r:id="rId284" xr:uid="{DC16E2EF-5265-4281-A0E7-61FF1CA1C6B0}"/>
+    <hyperlink ref="F54" r:id="rId285" xr:uid="{0D0FC76F-947F-45CA-99A9-4E4D4DD0DB86}"/>
+    <hyperlink ref="F55" r:id="rId286" xr:uid="{E3F82271-C3A4-4FD2-BE7C-A3AA3504ACBE}"/>
+    <hyperlink ref="F56" r:id="rId287" xr:uid="{DF2220BB-7CB8-4BDE-99C8-BE60BD14FB92}"/>
+    <hyperlink ref="F57" r:id="rId288" xr:uid="{8CA76FA9-0173-4A12-BFF5-AA5E4CF509FA}"/>
+    <hyperlink ref="F58" r:id="rId289" xr:uid="{9B6C5D54-92BA-46A6-A7AE-2B99C8821162}"/>
+    <hyperlink ref="F59" r:id="rId290" xr:uid="{B3607FEC-8E9C-41CD-AF99-CE6D56809DCA}"/>
+    <hyperlink ref="F60" r:id="rId291" xr:uid="{46622330-B179-4732-9C45-1F6FD0FBEB66}"/>
+    <hyperlink ref="F61" r:id="rId292" xr:uid="{3B490B64-C26F-415B-BF0B-930777127604}"/>
+    <hyperlink ref="F62" r:id="rId293" xr:uid="{E548DDAA-38DA-4F9B-9CF3-96DAA31AE740}"/>
+    <hyperlink ref="F63" r:id="rId294" xr:uid="{4FDAFD03-2ECA-425A-BB8F-601D20982A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId211"/>
+  <pageSetup orientation="portrait" r:id="rId295"/>
   <tableParts count="1">
-    <tablePart r:id="rId212"/>
+    <tablePart r:id="rId296"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FD5895-B098-4A9D-98A5-1DA02E0B5048}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="79.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>501</v>
+      </c>
+      <c r="B21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>480</v>
+      </c>
+      <c r="B27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>516</v>
+      </c>
+      <c r="B28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B29" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>473</v>
+      </c>
+      <c r="B30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>534</v>
+      </c>
+      <c r="B31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>531</v>
+      </c>
+      <c r="B32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5489705C-37DB-4136-9C8F-96FD2C54E40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C7FCA-006C-4685-B3E9-8E9AF62CE70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="SIGLAS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="579">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Efraín</t>
   </si>
   <si>
-    <t>Sistema de Monitoreo, Reporte y Verificación (MRV)</t>
-  </si>
-  <si>
     <t>Metodología, Resultados y Datos Geográficos Asociados a Datos de Actividad</t>
   </si>
   <si>
@@ -928,9 +925,6 @@
     <t>Trifoliar Local MIAQ</t>
   </si>
   <si>
-    <t>NUEVO</t>
-  </si>
-  <si>
     <t>Comic Institucional MIAQ Garifuna</t>
   </si>
   <si>
@@ -1769,6 +1763,33 @@
   </si>
   <si>
     <t>Specific, measurable, attainable, realistic and timely (específico, medible, alcanzable, realista y temporal)</t>
+  </si>
+  <si>
+    <t>Diseño Conceptual MRV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NUEVO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sistema de Monitoreo, Reporte y Verificación (MRV)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2002,7 +2023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2078,9 +2099,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2111,6 +2129,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2573,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C100" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -2619,11 +2641,11 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="39"/>
     </row>
@@ -2632,56 +2654,56 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="40"/>
       <c r="L4" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>79</v>
-      </c>
       <c r="G5" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="41"/>
@@ -2692,85 +2714,85 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="42"/>
       <c r="L6" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>294</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="43"/>
       <c r="L7" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="44"/>
       <c r="L8" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2781,26 +2803,26 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49" t="s">
-        <v>132</v>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2809,21 +2831,21 @@
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -2835,21 +2857,21 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2859,21 +2881,21 @@
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -2883,21 +2905,21 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -2910,218 +2932,214 @@
         <v>15</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A18" s="56"/>
       <c r="B18" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>340</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>342</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A19" s="56"/>
       <c r="B19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>343</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -3131,1061 +3149,981 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="58" t="s">
-        <v>147</v>
+      <c r="F23" s="57" t="s">
+        <v>146</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A24" s="56"/>
       <c r="B24" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A25" s="56"/>
       <c r="B25" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A26" s="56"/>
       <c r="B26" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A27" s="56"/>
       <c r="B27" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A28" s="56"/>
       <c r="B28" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A29" s="56"/>
       <c r="B29" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="29" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A30" s="56"/>
       <c r="B30" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A31" s="56"/>
       <c r="B31" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="29" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A32" s="56"/>
       <c r="B32" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A33" s="56"/>
       <c r="B33" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A34" s="56"/>
       <c r="B34" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A35" s="56"/>
       <c r="B35" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A36" s="56"/>
       <c r="B36" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A37" s="56"/>
       <c r="B37" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A38" s="56"/>
       <c r="B38" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A39" s="56"/>
       <c r="B39" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A40" s="56"/>
       <c r="B40" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="29" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A41" s="56"/>
       <c r="B41" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A42" s="56"/>
       <c r="B42" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A43" s="56"/>
       <c r="B43" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A44" s="56"/>
       <c r="B44" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A45" s="56"/>
       <c r="B45" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="29" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A46" s="56"/>
       <c r="B46" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A47" s="56"/>
       <c r="B47" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="14"/>
       <c r="F47" s="29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A48" s="56"/>
       <c r="B48" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A49" s="56"/>
       <c r="B49" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A50" s="56"/>
       <c r="B50" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A51" s="56"/>
       <c r="B51" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="29" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A52" s="56"/>
       <c r="B52" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A53" s="56"/>
       <c r="B53" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="29" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A54" s="56"/>
       <c r="B54" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A55" s="56"/>
       <c r="B55" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="14"/>
       <c r="F55" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I55" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="C56" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A57" s="56"/>
       <c r="B57" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A58" s="56"/>
       <c r="B58" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A59" s="56"/>
       <c r="B59" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A60" s="56"/>
       <c r="B60" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A61" s="56"/>
       <c r="B61" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
-        <v>298</v>
-      </c>
+      <c r="A62" s="56"/>
       <c r="B62" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60" t="s">
-        <v>298</v>
-      </c>
+      <c r="A63" s="59"/>
       <c r="B63" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J63" s="3"/>
     </row>
@@ -4200,22 +4138,22 @@
         <v>18</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J64" s="3"/>
     </row>
@@ -4225,21 +4163,21 @@
         <v>19</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J65" s="3"/>
     </row>
@@ -4249,243 +4187,243 @@
         <v>20</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J66" s="37"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
-      <c r="B75" s="55" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>448</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>289</v>
-      </c>
       <c r="F75" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J75" s="3"/>
     </row>
@@ -4495,21 +4433,21 @@
         <v>23</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J76" s="3"/>
     </row>
@@ -4518,192 +4456,192 @@
         <v>22</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I79" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J84" s="3"/>
     </row>
@@ -4715,21 +4653,21 @@
         <v>26</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J85" s="3"/>
     </row>
@@ -4739,45 +4677,45 @@
         <v>27</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I87" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J87" s="3"/>
     </row>
@@ -4787,21 +4725,21 @@
         <v>28</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J88" s="3"/>
     </row>
@@ -4811,21 +4749,21 @@
         <v>29</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J89" s="3"/>
     </row>
@@ -4835,21 +4773,21 @@
         <v>30</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I90" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J90" s="3"/>
     </row>
@@ -4859,49 +4797,49 @@
         <v>31</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H92" s="36" t="s">
         <v>32</v>
       </c>
       <c r="I92" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J92" s="3"/>
     </row>
@@ -4913,21 +4851,21 @@
         <v>34</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I93" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J93" s="3"/>
     </row>
@@ -4937,47 +4875,47 @@
         <v>36</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I94" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I95" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J95" s="3"/>
     </row>
@@ -4987,47 +4925,47 @@
         <v>38</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I96" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="50" t="s">
-        <v>471</v>
+      <c r="C97" s="49" t="s">
+        <v>469</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I97" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J97" s="3"/>
     </row>
@@ -5037,21 +4975,21 @@
         <v>40</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I98" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J98" s="3"/>
     </row>
@@ -5061,21 +4999,21 @@
         <v>41</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I99" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J99" s="3"/>
     </row>
@@ -5085,911 +5023,915 @@
         <v>42</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H100" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I100" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E101" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F101" s="32" t="s">
-        <v>109</v>
-      </c>
       <c r="G101" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I101" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46" t="s">
+      <c r="A102" s="62" t="s">
+        <v>578</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>577</v>
+      </c>
+      <c r="C102" s="61" t="s">
+        <v>577</v>
+      </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="I102" s="47"/>
+      <c r="I102" s="46"/>
       <c r="J102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F103" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F103" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="G103" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H104" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>533</v>
+        <v>131</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>531</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I106" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E107" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F107" s="29" t="s">
-        <v>118</v>
-      </c>
       <c r="G107" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
       <c r="F110" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H110" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
       <c r="F111" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H111" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I112" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I113" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E114" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F114" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F114" s="29" t="s">
-        <v>120</v>
-      </c>
       <c r="G114" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H114" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I114" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H115" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H116" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I116" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E117" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="29" t="s">
-        <v>109</v>
-      </c>
       <c r="G117" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H117" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H118" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I118" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I119" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E120" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F120" s="29" t="s">
-        <v>122</v>
-      </c>
       <c r="G120" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I120" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I121" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B122" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="C122" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D122" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="D122" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="E122" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="E122" s="54" t="s">
-        <v>283</v>
-      </c>
       <c r="F122" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H122" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I122" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="D123" s="53" t="s">
-        <v>282</v>
+        <v>477</v>
+      </c>
+      <c r="D123" s="52" t="s">
+        <v>281</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H123" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I123" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="D124" s="53" t="s">
-        <v>282</v>
+        <v>562</v>
+      </c>
+      <c r="D124" s="52" t="s">
+        <v>281</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G124" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H124" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="D125" s="53" t="s">
-        <v>282</v>
+        <v>495</v>
+      </c>
+      <c r="D125" s="52" t="s">
+        <v>281</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H125" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I125" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B126" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="C126" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D126" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E126" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="29" t="s">
-        <v>131</v>
-      </c>
       <c r="F126" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E127" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F127" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F127" s="29" t="s">
-        <v>118</v>
-      </c>
       <c r="G127" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I127" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D128" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E128" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E128" s="29" t="s">
-        <v>131</v>
-      </c>
       <c r="F128" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H128" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I128" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I129" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I130" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C131" s="51" t="s">
-        <v>491</v>
+        <v>131</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>489</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H131" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C132" s="51" t="s">
-        <v>486</v>
+        <v>131</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>484</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I132" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I133" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" s="52" t="s">
-        <v>565</v>
+        <v>131</v>
+      </c>
+      <c r="B134" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>563</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H134" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I134" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +6243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FD5895-B098-4A9D-98A5-1DA02E0B5048}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -6311,272 +6253,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>435</v>
+      <c r="A1" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B30" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -6584,10 +6526,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B35" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C7FCA-006C-4685-B3E9-8E9AF62CE70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413623D-1D49-448A-8BE5-E07355C1836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="582">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -824,9 +824,6 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Documento%20T%C3%A9cnico%20del%20Inventario%20Forestal%20Nacional%202002-2003%20FAO.png</t>
-  </si>
-  <si>
-    <t>No Tiene Repositorio WEB</t>
   </si>
   <si>
     <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Efra%C3%ADn/Repositorio%20web/MFC_Web/Base%20datos.zip</t>
@@ -1790,6 +1787,18 @@
       </rPr>
       <t xml:space="preserve"> Sistema de Monitoreo, Reporte y Verificación (MRV)</t>
     </r>
+  </si>
+  <si>
+    <t>MRV</t>
+  </si>
+  <si>
+    <t>Monitoreo, Reporte y Verificación</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Efra%C3%ADn/Repositorio%20web/MRV_web/Dise%C3%B1o_MRV_web.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dise%C3%B1o%20Conceptual%20MRV.png</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1873,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1880,12 +1889,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,7 +1917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1967,21 +1970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -2023,7 +2011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2037,20 +2025,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,16 +2047,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2092,28 +2080,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2129,7 +2115,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2595,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2609,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -2654,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -2682,10 +2668,10 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>77</v>
@@ -2714,10 +2700,10 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
@@ -2742,18 +2728,18 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>294</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>8</v>
@@ -2770,10 +2756,10 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -2803,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2820,8 +2806,8 @@
         <v>80</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48" t="s">
+      <c r="K9" s="45"/>
+      <c r="L9" s="46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2831,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2857,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2881,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2905,7 +2891,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -3024,20 +3010,20 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>8</v>
@@ -3048,20 +3034,20 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>8</v>
@@ -3074,10 +3060,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -3149,11 +3135,11 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="55" t="s">
         <v>146</v>
       </c>
       <c r="G23" s="29" t="s">
@@ -3168,20 +3154,20 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>8</v>
@@ -3192,20 +3178,20 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>8</v>
@@ -3216,20 +3202,20 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>8</v>
@@ -3240,20 +3226,20 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>8</v>
@@ -3264,20 +3250,20 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>8</v>
@@ -3288,20 +3274,20 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>8</v>
@@ -3312,20 +3298,20 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>8</v>
@@ -3336,20 +3322,20 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>8</v>
@@ -3360,20 +3346,20 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>8</v>
@@ -3384,20 +3370,20 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>8</v>
@@ -3408,20 +3394,20 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>8</v>
@@ -3432,20 +3418,20 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>8</v>
@@ -3456,20 +3442,20 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>8</v>
@@ -3480,20 +3466,20 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>8</v>
@@ -3504,20 +3490,20 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>8</v>
@@ -3528,20 +3514,20 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>8</v>
@@ -3552,20 +3538,20 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>8</v>
@@ -3576,20 +3562,20 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>8</v>
@@ -3600,20 +3586,20 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>8</v>
@@ -3624,20 +3610,20 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>8</v>
@@ -3648,20 +3634,20 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>8</v>
@@ -3672,20 +3658,20 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>8</v>
@@ -3696,20 +3682,20 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>8</v>
@@ -3720,20 +3706,20 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="14"/>
       <c r="F47" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>8</v>
@@ -3744,20 +3730,20 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>8</v>
@@ -3768,20 +3754,20 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>8</v>
@@ -3792,20 +3778,20 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>8</v>
@@ -3816,20 +3802,20 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>8</v>
@@ -3840,20 +3826,20 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>8</v>
@@ -3864,20 +3850,20 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>8</v>
@@ -3888,20 +3874,20 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>8</v>
@@ -3912,20 +3898,20 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="14"/>
       <c r="F55" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>8</v>
@@ -3936,20 +3922,20 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>8</v>
@@ -3960,20 +3946,20 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>8</v>
@@ -3984,20 +3970,20 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>8</v>
@@ -4008,20 +3994,20 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>8</v>
@@ -4032,20 +4018,20 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>8</v>
@@ -4056,20 +4042,20 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H61" s="14" t="s">
         <v>8</v>
@@ -4080,20 +4066,20 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>8</v>
@@ -4104,20 +4090,20 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>8</v>
@@ -4163,7 +4149,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -4187,7 +4173,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -4213,7 +4199,7 @@
         <v>92</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -4237,7 +4223,7 @@
         <v>94</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -4261,7 +4247,7 @@
         <v>95</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -4285,7 +4271,7 @@
         <v>219</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -4309,7 +4295,7 @@
         <v>98</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
@@ -4333,7 +4319,7 @@
         <v>97</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
@@ -4357,7 +4343,7 @@
         <v>96</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -4381,7 +4367,7 @@
         <v>220</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
@@ -4400,24 +4386,24 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>448</v>
+      <c r="A75" s="53"/>
+      <c r="B75" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>447</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>77</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>32</v>
@@ -4433,7 +4419,7 @@
         <v>23</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -4459,7 +4445,7 @@
         <v>84</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
@@ -4483,7 +4469,7 @@
         <v>85</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -4507,7 +4493,7 @@
         <v>86</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
@@ -4531,7 +4517,7 @@
         <v>87</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -4555,7 +4541,7 @@
         <v>88</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -4579,7 +4565,7 @@
         <v>89</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -4603,7 +4589,7 @@
         <v>90</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
@@ -4627,7 +4613,7 @@
         <v>91</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
@@ -4653,7 +4639,7 @@
         <v>26</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -4677,7 +4663,7 @@
         <v>27</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
@@ -4701,7 +4687,7 @@
         <v>172</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -4709,7 +4695,7 @@
         <v>173</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H87" s="14" t="s">
         <v>32</v>
@@ -4725,7 +4711,7 @@
         <v>28</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -4733,7 +4719,7 @@
         <v>168</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>32</v>
@@ -4749,7 +4735,7 @@
         <v>29</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
@@ -4757,7 +4743,7 @@
         <v>169</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>32</v>
@@ -4773,7 +4759,7 @@
         <v>30</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
@@ -4781,7 +4767,7 @@
         <v>170</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H90" s="14" t="s">
         <v>32</v>
@@ -4797,7 +4783,7 @@
         <v>31</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -4805,7 +4791,7 @@
         <v>171</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>32</v>
@@ -4821,7 +4807,7 @@
         <v>106</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>77</v>
@@ -4851,7 +4837,7 @@
         <v>34</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -4875,7 +4861,7 @@
         <v>36</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -4895,13 +4881,13 @@
     </row>
     <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -4925,7 +4911,7 @@
         <v>38</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -4947,19 +4933,19 @@
       <c r="A97" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="49" t="s">
+      <c r="B97" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="49" t="s">
-        <v>469</v>
+      <c r="C97" s="47" t="s">
+        <v>468</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>43</v>
@@ -4975,7 +4961,7 @@
         <v>40</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -4999,7 +4985,7 @@
         <v>41</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -5023,7 +5009,7 @@
         <v>42</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -5047,7 +5033,7 @@
         <v>109</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D101" s="32" t="s">
         <v>77</v>
@@ -5070,25 +5056,28 @@
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="62" t="s">
-        <v>578</v>
-      </c>
-      <c r="B102" s="61" t="s">
+      <c r="A102" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="C102" s="61" t="s">
-        <v>577</v>
-      </c>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45" t="s">
+      <c r="B102" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="C102" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="H102" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I102" s="46"/>
-      <c r="J102" t="s">
-        <v>264</v>
+      <c r="I102" s="35" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5099,7 +5088,7 @@
         <v>46</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D103" s="32" t="s">
         <v>77</v>
@@ -5127,7 +5116,7 @@
         <v>44</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -5149,19 +5138,19 @@
       <c r="A105" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="50" t="s">
-        <v>531</v>
+      <c r="C105" s="48" t="s">
+        <v>530</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>43</v>
@@ -5177,7 +5166,7 @@
         <v>47</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -5201,7 +5190,7 @@
         <v>48</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D107" s="29" t="s">
         <v>77</v>
@@ -5229,7 +5218,7 @@
         <v>110</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -5253,7 +5242,7 @@
         <v>111</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -5277,7 +5266,7 @@
         <v>112</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
@@ -5301,7 +5290,7 @@
         <v>113</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
@@ -5325,7 +5314,7 @@
         <v>114</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
@@ -5375,7 +5364,7 @@
         <v>51</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D114" s="29" t="s">
         <v>77</v>
@@ -5403,7 +5392,7 @@
         <v>53</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>77</v>
@@ -5431,7 +5420,7 @@
         <v>54</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -5455,7 +5444,7 @@
         <v>55</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>77</v>
@@ -5483,7 +5472,7 @@
         <v>56</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -5507,7 +5496,7 @@
         <v>57</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
@@ -5531,7 +5520,7 @@
         <v>52</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>77</v>
@@ -5556,10 +5545,10 @@
     <row r="121" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
@@ -5585,19 +5574,19 @@
         <v>59</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="D122" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D122" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E122" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="E122" s="53" t="s">
-        <v>282</v>
-      </c>
       <c r="F122" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H122" s="14" t="s">
         <v>43</v>
@@ -5615,19 +5604,19 @@
         <v>60</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="D123" s="52" t="s">
-        <v>281</v>
+        <v>476</v>
+      </c>
+      <c r="D123" s="50" t="s">
+        <v>280</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H123" s="14" t="s">
         <v>43</v>
@@ -5643,19 +5632,19 @@
         <v>61</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="D124" s="52" t="s">
-        <v>281</v>
+        <v>561</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>280</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G124" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H124" s="14" t="s">
         <v>43</v>
@@ -5671,19 +5660,19 @@
         <v>62</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="D125" s="52" t="s">
-        <v>281</v>
+        <v>494</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>280</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H125" s="15" t="s">
         <v>43</v>
@@ -5701,7 +5690,7 @@
         <v>64</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D126" s="29" t="s">
         <v>129</v>
@@ -5713,7 +5702,7 @@
         <v>128</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>43</v>
@@ -5729,7 +5718,7 @@
         <v>65</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D127" s="29" t="s">
         <v>77</v>
@@ -5741,7 +5730,7 @@
         <v>117</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>43</v>
@@ -5757,7 +5746,7 @@
         <v>66</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D128" s="29" t="s">
         <v>129</v>
@@ -5769,7 +5758,7 @@
         <v>128</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H128" s="14" t="s">
         <v>43</v>
@@ -5785,7 +5774,7 @@
         <v>67</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -5809,7 +5798,7 @@
         <v>68</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -5817,7 +5806,7 @@
         <v>193</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>43</v>
@@ -5831,19 +5820,19 @@
       <c r="A131" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="50" t="s">
+      <c r="B131" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C131" s="50" t="s">
-        <v>489</v>
+      <c r="C131" s="48" t="s">
+        <v>488</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H131" s="14" t="s">
         <v>43</v>
@@ -5857,19 +5846,19 @@
       <c r="A132" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="50" t="s">
+      <c r="B132" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C132" s="50" t="s">
-        <v>484</v>
+      <c r="C132" s="48" t="s">
+        <v>483</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>43</v>
@@ -5885,7 +5874,7 @@
         <v>71</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
@@ -5893,7 +5882,7 @@
         <v>194</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>43</v>
@@ -5907,19 +5896,19 @@
       <c r="A134" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C134" s="51" t="s">
-        <v>563</v>
+      <c r="C134" s="49" t="s">
+        <v>562</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H134" s="15" t="s">
         <v>43</v>
@@ -5931,7 +5920,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6230,21 +6219,23 @@
     <hyperlink ref="F61" r:id="rId292" xr:uid="{3B490B64-C26F-415B-BF0B-930777127604}"/>
     <hyperlink ref="F62" r:id="rId293" xr:uid="{E548DDAA-38DA-4F9B-9CF3-96DAA31AE740}"/>
     <hyperlink ref="F63" r:id="rId294" xr:uid="{4FDAFD03-2ECA-425A-BB8F-601D20982A86}"/>
+    <hyperlink ref="F102" r:id="rId295" xr:uid="{5EE30459-C062-472A-B3A2-9B041238DFAD}"/>
+    <hyperlink ref="G102" r:id="rId296" xr:uid="{F74E2DD2-1652-46CD-9620-B26D604AAD64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId295"/>
+  <pageSetup orientation="portrait" r:id="rId297"/>
   <tableParts count="1">
-    <tablePart r:id="rId296"/>
+    <tablePart r:id="rId298"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FD5895-B098-4A9D-98A5-1DA02E0B5048}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,283 +6244,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>432</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
         <v>467</v>
-      </c>
-      <c r="B2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" t="s">
         <v>450</v>
-      </c>
-      <c r="B3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" t="s">
         <v>548</v>
-      </c>
-      <c r="B4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" t="s">
         <v>496</v>
-      </c>
-      <c r="B5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B6" t="s">
         <v>536</v>
-      </c>
-      <c r="B6" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
         <v>446</v>
-      </c>
-      <c r="B7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" t="s">
         <v>550</v>
-      </c>
-      <c r="B8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" t="s">
         <v>475</v>
-      </c>
-      <c r="B9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" t="s">
         <v>461</v>
-      </c>
-      <c r="B10" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" t="s">
         <v>485</v>
-      </c>
-      <c r="B12" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" t="s">
         <v>506</v>
-      </c>
-      <c r="B13" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" t="s">
         <v>526</v>
-      </c>
-      <c r="B14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
         <v>464</v>
-      </c>
-      <c r="B15" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" t="s">
         <v>490</v>
-      </c>
-      <c r="B16" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" t="s">
         <v>482</v>
-      </c>
-      <c r="B17" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
         <v>480</v>
-      </c>
-      <c r="B18" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" t="s">
         <v>501</v>
-      </c>
-      <c r="B19" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B20" t="s">
         <v>516</v>
-      </c>
-      <c r="B20" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>441</v>
+      </c>
+      <c r="B26" t="s">
         <v>442</v>
-      </c>
-      <c r="B26" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>578</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="B28" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="B29" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>471</v>
+        <v>557</v>
       </c>
       <c r="B30" t="s">
-        <v>472</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="B31" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B32" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="B33" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>564</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>493</v>
+      </c>
+      <c r="B36" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413623D-1D49-448A-8BE5-E07355C1836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB88E0-CDE9-4C16-8C3E-FFC97E727734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="588">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t>Degradación de Suelos</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -1765,30 +1762,6 @@
     <t>Diseño Conceptual MRV</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NUEVO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sistema de Monitoreo, Reporte y Verificación (MRV)</t>
-    </r>
-  </si>
-  <si>
     <t>MRV</t>
   </si>
   <si>
@@ -1799,6 +1772,30 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dise%C3%B1o%20Conceptual%20MRV.png</t>
+  </si>
+  <si>
+    <t>Sistematización de Resultados de Taller para la Formulación de Ruta de Pueblos Indígenas en marco REDD+</t>
+  </si>
+  <si>
+    <t>Sistematización de Implementación de Encuentros de Diálogo y Participación REDD+</t>
+  </si>
+  <si>
+    <t>Ruta Pueblos Indígenas Guatemala</t>
+  </si>
+  <si>
+    <t>Encuentros de Diálogo y Participación Guatemala</t>
+  </si>
+  <si>
+    <t>Sistematización de Implementación de Encuentros de Diálogo y Participación Segunda Ronda REDD+</t>
+  </si>
+  <si>
+    <t>Encuentros de Diálogo y Participación Ronda 2 Guatemala</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>Sistema de Monitoreo, Reporte y Verificación (MRV)</t>
   </si>
 </sst>
 </file>
@@ -2265,8 +2262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:I134" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A3:I134" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE336EE-A909-4954-B5CB-4E2178015862}" name="Tabla1" displayName="Tabla1" ref="A3:I137" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A3:I137" xr:uid="{8C4B12F2-A2B2-45C6-BCD2-99845076B851}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2C68873B-B9C9-4DC5-B787-C168CCD28B73}" name="Tema" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{3D2E43D4-CBD9-40D1-907F-D386A213E9E5}" name="Documento/Dashboard Referenciados" dataDxfId="7"/>
@@ -2579,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,142 +4141,130 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="54" t="s">
+        <v>586</v>
+      </c>
       <c r="B65" s="7" t="s">
-        <v>19</v>
+        <v>580</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>214</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
       <c r="H65" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="I65" s="34"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H66" s="15" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" s="37"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>216</v>
-      </c>
+      <c r="A67" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
       <c r="H67" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>80</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I67" s="34"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>552</v>
+      <c r="B68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>444</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I68" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" s="3"/>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B70" s="11" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H70" s="14" t="s">
         <v>32</v>
@@ -4292,18 +4277,18 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>32</v>
@@ -4316,18 +4301,18 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H72" s="14" t="s">
         <v>32</v>
@@ -4340,18 +4325,18 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>32</v>
@@ -4362,20 +4347,20 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="11" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H74" s="14" t="s">
         <v>32</v>
@@ -4386,24 +4371,20 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>287</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="29" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>32</v>
@@ -4413,47 +4394,45 @@
       </c>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="H76" s="15" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="H76" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I76" s="35" t="s">
+      <c r="I76" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>537</v>
+      <c r="A77" s="16"/>
+      <c r="B77" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>32</v>
@@ -4464,20 +4443,24 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>287</v>
+      </c>
       <c r="F78" s="29" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="H78" s="14" t="s">
         <v>32</v>
@@ -4487,45 +4470,47 @@
       </c>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="H79" s="14" t="s">
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B80" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>32</v>
@@ -4538,18 +4523,18 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H81" s="14" t="s">
         <v>32</v>
@@ -4562,18 +4547,18 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H82" s="14" t="s">
         <v>32</v>
@@ -4586,18 +4571,18 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>32</v>
@@ -4607,47 +4592,45 @@
       </c>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G84" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="H84" s="15" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H84" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I84" s="35" t="s">
+      <c r="I84" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>448</v>
+      <c r="A85" s="4"/>
+      <c r="B85" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>541</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H85" s="14" t="s">
         <v>32</v>
@@ -4657,21 +4640,21 @@
       </c>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>451</v>
+      <c r="B86" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>32</v>
@@ -4681,45 +4664,47 @@
       </c>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G87" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="H87" s="14" t="s">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+      <c r="B87" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H87" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>453</v>
+      <c r="A88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>448</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="H88" s="14" t="s">
         <v>32</v>
@@ -4729,21 +4714,21 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>454</v>
+      <c r="B89" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>451</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>32</v>
@@ -4756,15 +4741,15 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="23" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G90" s="29" t="s">
         <v>278</v>
@@ -4780,15 +4765,15 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>278</v>
@@ -4801,125 +4786,123 @@
       </c>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="H92" s="36" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H92" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I92" s="35" t="s">
+      <c r="I92" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>458</v>
+      <c r="A93" s="4"/>
+      <c r="B93" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>455</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I93" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>459</v>
+      <c r="B94" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>456</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I94" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G95" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I95" s="34" t="s">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H95" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B96" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>43</v>
@@ -4930,22 +4913,20 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>468</v>
+      <c r="A97" s="4"/>
+      <c r="B97" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>459</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="29" t="s">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>43</v>
@@ -4955,21 +4936,21 @@
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>43</v>
@@ -4982,18 +4963,18 @@
     <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>43</v>
@@ -5003,21 +4984,23 @@
       </c>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>473</v>
+    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>467</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="29" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="H100" s="14" t="s">
         <v>43</v>
@@ -5027,80 +5010,69 @@
       </c>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F101" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="H101" s="15" t="s">
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H101" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I101" s="35" t="s">
+      <c r="I101" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="60" t="s">
-        <v>577</v>
-      </c>
-      <c r="B102" s="59" t="s">
-        <v>576</v>
-      </c>
-      <c r="C102" s="59" t="s">
-        <v>576</v>
-      </c>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="G102" s="31" t="s">
-        <v>581</v>
-      </c>
-      <c r="H102" s="36" t="s">
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H102" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I102" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>523</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="I102" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
       <c r="F103" s="29" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>43</v>
@@ -5110,71 +5082,80 @@
       </c>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G104" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="H104" s="14" t="s">
+    <row r="104" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H104" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I104" s="34" t="s">
+      <c r="I104" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G105" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="H105" s="14" t="s">
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="60" t="s">
+        <v>587</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="H105" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I105" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
+      <c r="I105" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="F106" s="29" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>43</v>
@@ -5186,23 +5167,19 @@
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>116</v>
-      </c>
+      <c r="B107" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
       <c r="F107" s="29" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>43</v>
@@ -5212,21 +5189,23 @@
       </c>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>518</v>
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>529</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="29" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>43</v>
@@ -5236,21 +5215,21 @@
       </c>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>519</v>
+      <c r="B109" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>43</v>
@@ -5260,21 +5239,25 @@
       </c>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="B110" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>116</v>
+      </c>
       <c r="F110" s="29" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H110" s="14" t="s">
         <v>43</v>
@@ -5287,7 +5270,7 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C111" s="21" t="s">
         <v>517</v>
@@ -5295,10 +5278,10 @@
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
       <c r="F111" s="29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H111" s="14" t="s">
         <v>43</v>
@@ -5311,18 +5294,18 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>43</v>
@@ -5332,51 +5315,45 @@
       </c>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="G113" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H113" s="15" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="G113" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="H113" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I113" s="35" t="s">
+      <c r="I113" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>118</v>
-      </c>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
       <c r="F114" s="29" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H114" s="14" t="s">
         <v>43</v>
@@ -5386,25 +5363,21 @@
       </c>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>123</v>
-      </c>
+      <c r="B115" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
       <c r="F115" s="29" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H115" s="14" t="s">
         <v>43</v>
@@ -5414,49 +5387,51 @@
       </c>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G116" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="H116" s="14" t="s">
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H116" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I116" s="34" t="s">
+      <c r="I116" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B117" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>77</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H117" s="14" t="s">
         <v>43</v>
@@ -5468,19 +5443,23 @@
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="B118" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="F118" s="29" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H118" s="14" t="s">
         <v>43</v>
@@ -5490,21 +5469,21 @@
       </c>
       <c r="J118" s="3"/>
     </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>43</v>
@@ -5517,22 +5496,22 @@
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>77</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>43</v>
@@ -5542,111 +5521,99 @@
       </c>
       <c r="J120" s="3"/>
     </row>
-    <row r="121" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
       <c r="F121" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G121" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="H121" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="H121" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I121" s="35" t="s">
+      <c r="I121" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J121" s="3"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D122" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E122" s="51" t="s">
-        <v>281</v>
-      </c>
+    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
       <c r="F122" s="29" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H122" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I122" s="35" t="s">
+      <c r="I122" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J122" s="3"/>
     </row>
-    <row r="123" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="27" t="s">
-        <v>132</v>
-      </c>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
       <c r="B123" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="D123" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>282</v>
+        <v>498</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H123" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I123" s="35" t="s">
+      <c r="I123" s="34" t="s">
         <v>80</v>
       </c>
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="D124" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>283</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
       <c r="F124" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G124" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="H124" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="H124" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I124" s="35" t="s">
@@ -5654,27 +5621,29 @@
       </c>
       <c r="J124" s="3"/>
     </row>
-    <row r="125" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>494</v>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="D125" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E125" s="15" t="s">
-        <v>284</v>
+      <c r="E125" s="51" t="s">
+        <v>281</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="H125" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H125" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I125" s="35" t="s">
@@ -5682,27 +5651,27 @@
       </c>
       <c r="J125" s="3"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>63</v>
+    <row r="126" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>130</v>
+        <v>475</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>43</v>
@@ -5715,22 +5684,22 @@
     <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>116</v>
+        <v>560</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>43</v>
@@ -5741,124 +5710,134 @@
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="D128" s="29" t="s">
+      <c r="A128" s="5"/>
+      <c r="B128" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J128" s="3"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D129" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E129" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F129" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G128" s="29" t="s">
+      <c r="G129" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I128" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="G129" s="29" t="s">
-        <v>260</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I129" s="34" t="s">
+      <c r="I129" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J129" s="3"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
+    <row r="130" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
+      <c r="B130" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="29" t="s">
+        <v>116</v>
+      </c>
       <c r="F130" s="29" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="G130" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I130" s="34" t="s">
+      <c r="I130" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J130" s="3"/>
     </row>
-    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C131" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+    <row r="131" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131" s="29" t="s">
+        <v>130</v>
+      </c>
       <c r="F131" s="29" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H131" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I131" s="34" t="s">
+      <c r="I131" s="35" t="s">
         <v>80</v>
       </c>
       <c r="J131" s="3"/>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C132" s="48" t="s">
-        <v>483</v>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>486</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="29" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>43</v>
@@ -5868,18 +5847,18 @@
       </c>
       <c r="J132" s="3"/>
     </row>
-    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>278</v>
@@ -5892,34 +5871,110 @@
       </c>
       <c r="J133" s="3"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="26" t="s">
+    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J134" s="3"/>
+    </row>
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C135" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J135" s="3"/>
+    </row>
+    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="B136" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J136" s="3"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C134" s="49" t="s">
-        <v>562</v>
-      </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="32" t="s">
+      <c r="C137" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="G134" s="32" t="s">
+      <c r="G137" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="H134" s="15" t="s">
+      <c r="H137" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I134" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J134" s="3"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="I137" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J137" s="3"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5932,44 +5987,44 @@
     <hyperlink ref="F12" r:id="rId5" xr:uid="{5655A139-9823-4CDC-BEDD-B60A696D7598}"/>
     <hyperlink ref="F14" r:id="rId6" xr:uid="{44405157-E9AB-4A44-BF64-C354D784F94A}"/>
     <hyperlink ref="F64" r:id="rId7" xr:uid="{04E80402-32D5-4B41-A6D8-E02E078E1482}"/>
-    <hyperlink ref="F92" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
-    <hyperlink ref="E101" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
-    <hyperlink ref="D101" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
-    <hyperlink ref="F101" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
-    <hyperlink ref="E103" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
-    <hyperlink ref="D103" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
-    <hyperlink ref="F103" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
-    <hyperlink ref="D107" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
-    <hyperlink ref="E107" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
-    <hyperlink ref="F107" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
-    <hyperlink ref="E114" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
-    <hyperlink ref="D114" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
-    <hyperlink ref="F114" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
-    <hyperlink ref="F115" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
-    <hyperlink ref="D115" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
-    <hyperlink ref="E115" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
-    <hyperlink ref="D92" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
-    <hyperlink ref="E92" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
+    <hyperlink ref="F95" r:id="rId8" xr:uid="{1627B940-E800-45F8-9395-E72049F3E974}"/>
+    <hyperlink ref="E104" r:id="rId9" xr:uid="{EE8B672A-35A5-4D02-9ADA-F6BA39C44E3E}"/>
+    <hyperlink ref="D104" r:id="rId10" xr:uid="{AC05A86C-88CA-402E-849C-4FD631CD8C3A}"/>
+    <hyperlink ref="F104" r:id="rId11" xr:uid="{3744C762-06BB-4C29-AE71-BC14C6423044}"/>
+    <hyperlink ref="E106" r:id="rId12" xr:uid="{7455BC84-4561-497F-9641-57E86CB366CA}"/>
+    <hyperlink ref="D106" r:id="rId13" xr:uid="{50D86FD3-F16A-42B6-9CFF-33E07634BA63}"/>
+    <hyperlink ref="F106" r:id="rId14" xr:uid="{76AA42BB-2224-48A6-84C5-7CE451DDD7CF}"/>
+    <hyperlink ref="D110" r:id="rId15" xr:uid="{E4A7BEA1-8C54-4870-B0F5-4BF0CF25A98C}"/>
+    <hyperlink ref="E110" r:id="rId16" xr:uid="{55A88F5A-E81A-4674-B775-3D358E3E00B0}"/>
+    <hyperlink ref="F110" r:id="rId17" xr:uid="{D0E3507F-65B3-4951-850E-A38880B9453D}"/>
+    <hyperlink ref="E117" r:id="rId18" xr:uid="{288D6996-82DF-4F60-9BCF-E3BF8BD44F28}"/>
+    <hyperlink ref="D117" r:id="rId19" xr:uid="{BC35C872-A0D8-4CA1-9D4D-9695A1B166B0}"/>
+    <hyperlink ref="F117" r:id="rId20" xr:uid="{87C27A43-F9BC-4165-9FAA-74B78F297D71}"/>
+    <hyperlink ref="F118" r:id="rId21" xr:uid="{26938818-9A9B-4FC4-8975-19BB2EF9C111}"/>
+    <hyperlink ref="D118" r:id="rId22" xr:uid="{3E90FB93-D433-4082-B6C9-0BA5A64DB8BD}"/>
+    <hyperlink ref="E118" r:id="rId23" xr:uid="{ED9E34E3-2B9B-4041-B510-E5FA52028D05}"/>
+    <hyperlink ref="D95" r:id="rId24" xr:uid="{220019D9-97DD-4188-AEF2-52E31948BB03}"/>
+    <hyperlink ref="E95" r:id="rId25" xr:uid="{A80DE46D-64AE-4722-83F7-3B852F776711}"/>
     <hyperlink ref="D14" r:id="rId26" xr:uid="{A1F789CA-8193-481F-9C14-31C433228CAF}"/>
     <hyperlink ref="D64" r:id="rId27" xr:uid="{78E3D53C-D832-42A0-9B14-AAE7E05EC251}"/>
     <hyperlink ref="E14" r:id="rId28" xr:uid="{2CEF5720-4D4A-42EA-981F-ED494315A5ED}"/>
     <hyperlink ref="E64" r:id="rId29" xr:uid="{3FE11369-19CE-4163-9A45-771E32A2D5C1}"/>
-    <hyperlink ref="E117" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
-    <hyperlink ref="D117" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
-    <hyperlink ref="F117" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
-    <hyperlink ref="D120" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
-    <hyperlink ref="E120" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
-    <hyperlink ref="F120" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
-    <hyperlink ref="F121" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
-    <hyperlink ref="F126" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
-    <hyperlink ref="D126" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
-    <hyperlink ref="E126" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
-    <hyperlink ref="F127" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
-    <hyperlink ref="D127" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
-    <hyperlink ref="E127" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
-    <hyperlink ref="F128" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
-    <hyperlink ref="D128" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
-    <hyperlink ref="E128" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
+    <hyperlink ref="E120" r:id="rId30" xr:uid="{D78E9175-8ABE-440B-B571-FC47A902444C}"/>
+    <hyperlink ref="D120" r:id="rId31" xr:uid="{B3774EDB-94D0-4C7C-86B9-4954910011F2}"/>
+    <hyperlink ref="F120" r:id="rId32" xr:uid="{12120D88-5CDC-4892-B03C-8D7DCF8411B1}"/>
+    <hyperlink ref="D123" r:id="rId33" xr:uid="{53FDD03C-8788-4B3C-BCBD-CDFA52D733BA}"/>
+    <hyperlink ref="E123" r:id="rId34" xr:uid="{0D6A113C-FF58-4561-A57B-29365DE21356}"/>
+    <hyperlink ref="F123" r:id="rId35" xr:uid="{DEA54D2C-EE86-41A9-8F5B-BAE7FE944EE1}"/>
+    <hyperlink ref="F124" r:id="rId36" xr:uid="{78B27D64-7562-4127-99CC-0040F9D6F3E6}"/>
+    <hyperlink ref="F129" r:id="rId37" xr:uid="{74498F2F-3297-4F33-A7A6-8FF79A2F5CCB}"/>
+    <hyperlink ref="D129" r:id="rId38" xr:uid="{18A3A508-D878-48DA-8180-B6BCCBDC773E}"/>
+    <hyperlink ref="E129" r:id="rId39" xr:uid="{9FE03861-E6E4-4903-9913-45F7E65B2120}"/>
+    <hyperlink ref="F130" r:id="rId40" xr:uid="{E006F9C1-8C73-4564-A838-1AAB9A44356C}"/>
+    <hyperlink ref="D130" r:id="rId41" xr:uid="{0F2E81A3-45B7-49D3-8A37-117E08614BFB}"/>
+    <hyperlink ref="E130" r:id="rId42" xr:uid="{6DD1FFA9-2347-45A1-95D8-640762D7C192}"/>
+    <hyperlink ref="F131" r:id="rId43" xr:uid="{42EE412B-C0FB-4551-86CF-4B27DA561B6B}"/>
+    <hyperlink ref="D131" r:id="rId44" xr:uid="{8A52158D-94AA-42FE-B67C-C2A3159FEBDB}"/>
+    <hyperlink ref="E131" r:id="rId45" xr:uid="{41F56E48-20D3-4664-BA9B-38F43E79C909}"/>
     <hyperlink ref="F4" r:id="rId46" xr:uid="{55AA08BF-EC4C-4284-AA73-CAE2B9F77272}"/>
     <hyperlink ref="F8" r:id="rId47" xr:uid="{1FB3A017-4666-4C63-9263-FE4B29A2B4E0}"/>
     <hyperlink ref="F9" r:id="rId48" xr:uid="{F790313A-4ABC-4DEC-B2E0-915F3C5A3ADF}"/>
@@ -5983,53 +6038,53 @@
     <hyperlink ref="F21" r:id="rId56" xr:uid="{39736642-F5A0-4B4A-B441-323B55665988}"/>
     <hyperlink ref="F22" r:id="rId57" xr:uid="{9B128D51-8CD3-4163-9A48-70444310DAC1}"/>
     <hyperlink ref="F23" r:id="rId58" xr:uid="{9B932BD3-3F50-4C2F-A97D-6459E471EE53}"/>
-    <hyperlink ref="F65" r:id="rId59" xr:uid="{728BBAC9-E40E-45F3-8D03-BF8FD55C5FDC}"/>
-    <hyperlink ref="F66" r:id="rId60" xr:uid="{9DE4BB3F-35C6-40A7-9E23-9043EB6FC7DF}"/>
-    <hyperlink ref="F71" r:id="rId61" xr:uid="{350B2830-FC1E-49A8-B7FF-FB825BBDE0D2}"/>
-    <hyperlink ref="F73" r:id="rId62" xr:uid="{CC057D40-5047-4280-ABDD-3A85E3914AFF}"/>
-    <hyperlink ref="F72" r:id="rId63" xr:uid="{AA7A3E9F-4B9A-468B-839B-128E37033483}"/>
-    <hyperlink ref="F74" r:id="rId64" xr:uid="{7F0897BE-59F8-4E4B-A6F8-4D9BB0A9AEE9}"/>
-    <hyperlink ref="F67" r:id="rId65" xr:uid="{7E8C7005-997A-42C7-9C99-145778E45F3E}"/>
-    <hyperlink ref="F70" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
-    <hyperlink ref="F69" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
-    <hyperlink ref="F68" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
-    <hyperlink ref="F76" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
-    <hyperlink ref="F77" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
-    <hyperlink ref="F78" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
-    <hyperlink ref="F79" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
-    <hyperlink ref="F80" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
-    <hyperlink ref="F81" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
-    <hyperlink ref="F82" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
-    <hyperlink ref="F83" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
-    <hyperlink ref="F84" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
-    <hyperlink ref="F85" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
-    <hyperlink ref="F86" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
-    <hyperlink ref="F88" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
-    <hyperlink ref="F89" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
-    <hyperlink ref="F90" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
-    <hyperlink ref="F91" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
-    <hyperlink ref="F87" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
-    <hyperlink ref="F93" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
-    <hyperlink ref="F94" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
-    <hyperlink ref="F95" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
-    <hyperlink ref="F96" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
-    <hyperlink ref="F98" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
-    <hyperlink ref="F99" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
-    <hyperlink ref="F100" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
-    <hyperlink ref="F104" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
-    <hyperlink ref="F106" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
-    <hyperlink ref="F108" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
-    <hyperlink ref="F109" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
-    <hyperlink ref="F110" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
-    <hyperlink ref="F111" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
-    <hyperlink ref="F112" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
-    <hyperlink ref="F113" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
-    <hyperlink ref="F116" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
-    <hyperlink ref="F118" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
-    <hyperlink ref="F119" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
-    <hyperlink ref="F129" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
-    <hyperlink ref="F130" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
-    <hyperlink ref="F133" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
+    <hyperlink ref="F68" r:id="rId59" xr:uid="{728BBAC9-E40E-45F3-8D03-BF8FD55C5FDC}"/>
+    <hyperlink ref="F69" r:id="rId60" xr:uid="{9DE4BB3F-35C6-40A7-9E23-9043EB6FC7DF}"/>
+    <hyperlink ref="F74" r:id="rId61" xr:uid="{350B2830-FC1E-49A8-B7FF-FB825BBDE0D2}"/>
+    <hyperlink ref="F76" r:id="rId62" xr:uid="{CC057D40-5047-4280-ABDD-3A85E3914AFF}"/>
+    <hyperlink ref="F75" r:id="rId63" xr:uid="{AA7A3E9F-4B9A-468B-839B-128E37033483}"/>
+    <hyperlink ref="F77" r:id="rId64" xr:uid="{7F0897BE-59F8-4E4B-A6F8-4D9BB0A9AEE9}"/>
+    <hyperlink ref="F70" r:id="rId65" xr:uid="{7E8C7005-997A-42C7-9C99-145778E45F3E}"/>
+    <hyperlink ref="F73" r:id="rId66" xr:uid="{E8470DB3-CEE7-43C5-A2F2-3FC4B72A58BD}"/>
+    <hyperlink ref="F72" r:id="rId67" xr:uid="{5D5E2F8D-8CE0-4A06-882B-B340880A033B}"/>
+    <hyperlink ref="F71" r:id="rId68" xr:uid="{0D124670-19B8-4912-A521-D169707CF605}"/>
+    <hyperlink ref="F79" r:id="rId69" xr:uid="{85353DEF-CC7E-40FA-8C15-2B462197AD1C}"/>
+    <hyperlink ref="F80" r:id="rId70" xr:uid="{B0470CDD-6EFB-45F8-8BFD-E0E307B1535F}"/>
+    <hyperlink ref="F81" r:id="rId71" xr:uid="{FC19EE0B-F781-47BC-A4D0-6DD759404C44}"/>
+    <hyperlink ref="F82" r:id="rId72" xr:uid="{AAC155E5-3B4F-4BB9-964B-CFC9312110AA}"/>
+    <hyperlink ref="F83" r:id="rId73" xr:uid="{800D8611-C1C8-4ED3-A400-D2A2F136E83F}"/>
+    <hyperlink ref="F84" r:id="rId74" xr:uid="{A4AD53EE-0C0E-427D-B9A2-2C6049AD0804}"/>
+    <hyperlink ref="F85" r:id="rId75" xr:uid="{7513811C-CA0A-44E9-9212-41A38E158EE0}"/>
+    <hyperlink ref="F86" r:id="rId76" xr:uid="{47F720F9-0671-4D49-B9C7-61E8993117D7}"/>
+    <hyperlink ref="F87" r:id="rId77" xr:uid="{8D01C63E-7063-4A2F-A1A4-EB98E8E0E1A3}"/>
+    <hyperlink ref="F88" r:id="rId78" xr:uid="{33B444F3-8348-431F-B309-797D355B4396}"/>
+    <hyperlink ref="F89" r:id="rId79" xr:uid="{96ED6622-BBA4-43C1-9188-225EBEC585F6}"/>
+    <hyperlink ref="F91" r:id="rId80" xr:uid="{616D2CB3-A385-4E51-9EB0-C94C4B630DD0}"/>
+    <hyperlink ref="F92" r:id="rId81" xr:uid="{DB9588D9-4AA4-4ECE-8B3D-AD737B7E11F8}"/>
+    <hyperlink ref="F93" r:id="rId82" xr:uid="{167E07EF-3795-4853-8BC8-84A7D13B7AF7}"/>
+    <hyperlink ref="F94" r:id="rId83" xr:uid="{1DB2B23B-C231-4150-AF07-7F27856F3F6D}"/>
+    <hyperlink ref="F90" r:id="rId84" xr:uid="{8033385E-C8AB-4D57-B9A4-0B759D748BC6}"/>
+    <hyperlink ref="F96" r:id="rId85" xr:uid="{E0F71743-AB11-4F94-A65C-A512FEC7570E}"/>
+    <hyperlink ref="F97" r:id="rId86" xr:uid="{0CEF0064-21E4-4B29-966B-86E8C03442BB}"/>
+    <hyperlink ref="F98" r:id="rId87" xr:uid="{2D947C7E-8E75-4842-81B4-5E1DD4124372}"/>
+    <hyperlink ref="F99" r:id="rId88" xr:uid="{3E8833C5-350E-44A1-BDF2-9ABACCBC723D}"/>
+    <hyperlink ref="F101" r:id="rId89" xr:uid="{45A1C332-0ED7-43DE-8465-B207A5AAADFC}"/>
+    <hyperlink ref="F102" r:id="rId90" xr:uid="{24597CF5-E4A7-4E3B-9A89-D3E9D81F210F}"/>
+    <hyperlink ref="F103" r:id="rId91" xr:uid="{5DAB4E61-9248-4DE1-83D7-59D13462BB2C}"/>
+    <hyperlink ref="F107" r:id="rId92" xr:uid="{FA209B27-8163-4D4F-BD61-F0A624126EA3}"/>
+    <hyperlink ref="F109" r:id="rId93" xr:uid="{8AD569FE-6F58-41EC-A62F-82F957390F7C}"/>
+    <hyperlink ref="F111" r:id="rId94" xr:uid="{D720C661-087E-4708-94EE-525752AA051F}"/>
+    <hyperlink ref="F112" r:id="rId95" xr:uid="{76DE4C88-8683-4610-BD0A-628B41C0A962}"/>
+    <hyperlink ref="F113" r:id="rId96" xr:uid="{3C300F9B-B3A9-483F-B8AA-564BE43BC8D4}"/>
+    <hyperlink ref="F114" r:id="rId97" xr:uid="{44FA001F-F036-4ECD-BD75-286CAADF0226}"/>
+    <hyperlink ref="F115" r:id="rId98" xr:uid="{296C9B4A-90FE-4A1B-863A-C1591ED9708A}"/>
+    <hyperlink ref="F116" r:id="rId99" xr:uid="{486734AE-42DC-4E26-ADC7-8CF8A0DCF741}"/>
+    <hyperlink ref="F119" r:id="rId100" xr:uid="{CAB8E350-6161-4A8F-B39A-03F624B33420}"/>
+    <hyperlink ref="F121" r:id="rId101" xr:uid="{1AE7A3B9-A1FD-471E-AC02-078196A05D44}"/>
+    <hyperlink ref="F122" r:id="rId102" xr:uid="{716C5D8F-BA5A-4199-9025-081F66E5AE5A}"/>
+    <hyperlink ref="F132" r:id="rId103" xr:uid="{5A660E09-1E9B-4976-871C-F71D2D46F5EB}"/>
+    <hyperlink ref="F133" r:id="rId104" xr:uid="{A62943EF-901F-4C09-A27D-600A933DCE9F}"/>
+    <hyperlink ref="F136" r:id="rId105" xr:uid="{928C0928-0517-492F-89AF-D3E8E1051E61}"/>
     <hyperlink ref="G4" r:id="rId106" xr:uid="{9AE2DF6B-2359-4671-961A-67C3E3D128AF}"/>
     <hyperlink ref="G5" r:id="rId107" xr:uid="{6F47A7B7-4BFB-4496-8EEC-0F7ED526C666}"/>
     <hyperlink ref="G6" r:id="rId108" xr:uid="{E55B49B4-D57E-4ADF-83C5-3B2D3FA4E86D}"/>
@@ -6048,91 +6103,91 @@
     <hyperlink ref="G22" r:id="rId121" xr:uid="{F990757C-2807-4187-B0CE-B4E4F9F89DCA}"/>
     <hyperlink ref="G23" r:id="rId122" xr:uid="{BDA8A04C-06F3-44DB-BC20-E74EA2A857D4}"/>
     <hyperlink ref="G64" r:id="rId123" xr:uid="{0C492958-55A2-4592-AA93-CA9B73417B4A}"/>
-    <hyperlink ref="G65" r:id="rId124" xr:uid="{02850476-00EF-4061-A28A-9C85170B446B}"/>
-    <hyperlink ref="G66" r:id="rId125" xr:uid="{A0BC01ED-0F79-465C-AF12-6B6855553840}"/>
-    <hyperlink ref="G67" r:id="rId126" xr:uid="{780F7922-750C-4474-AF5A-D15D84D00870}"/>
-    <hyperlink ref="G68" r:id="rId127" xr:uid="{3FA3A5E4-E12D-4377-9897-2D0AAFEC05D8}"/>
-    <hyperlink ref="G69" r:id="rId128" xr:uid="{6273858D-29FD-4B58-A6A0-ED2343F31BCF}"/>
-    <hyperlink ref="G70" r:id="rId129" xr:uid="{5DF1252F-5426-4335-9EC2-EBDE176191B1}"/>
-    <hyperlink ref="G71" r:id="rId130" xr:uid="{EC3EFFA2-0FE8-4362-9D24-E008D38B067B}"/>
-    <hyperlink ref="G72" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
-    <hyperlink ref="G73" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
-    <hyperlink ref="G74" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
-    <hyperlink ref="G76" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
-    <hyperlink ref="G77" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
-    <hyperlink ref="G78" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
-    <hyperlink ref="G79" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
-    <hyperlink ref="G80" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
-    <hyperlink ref="G81" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
-    <hyperlink ref="G82" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
-    <hyperlink ref="G83" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
-    <hyperlink ref="G84" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
-    <hyperlink ref="G85" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
-    <hyperlink ref="G86" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
-    <hyperlink ref="G92" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
-    <hyperlink ref="G93" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
-    <hyperlink ref="G94" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
-    <hyperlink ref="G95" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
-    <hyperlink ref="G96" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
-    <hyperlink ref="G98" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
-    <hyperlink ref="G99" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
-    <hyperlink ref="G100" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
-    <hyperlink ref="G101" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
-    <hyperlink ref="G103" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
-    <hyperlink ref="G104" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
-    <hyperlink ref="G106" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
-    <hyperlink ref="G107" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
-    <hyperlink ref="G108" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
-    <hyperlink ref="G109" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
-    <hyperlink ref="G110" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
-    <hyperlink ref="G111" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
-    <hyperlink ref="G112" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
-    <hyperlink ref="G113" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
-    <hyperlink ref="G114" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
-    <hyperlink ref="G115" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
-    <hyperlink ref="G116" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
-    <hyperlink ref="G117" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
-    <hyperlink ref="G118" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
-    <hyperlink ref="G119" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
-    <hyperlink ref="G120" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
-    <hyperlink ref="G121" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
-    <hyperlink ref="G129" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
-    <hyperlink ref="F97" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
-    <hyperlink ref="F105" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
-    <hyperlink ref="F122" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
-    <hyperlink ref="F123" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
-    <hyperlink ref="F124" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
-    <hyperlink ref="F125" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
-    <hyperlink ref="F131" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
-    <hyperlink ref="F134" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
-    <hyperlink ref="G122" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
-    <hyperlink ref="G123" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
-    <hyperlink ref="G124" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
-    <hyperlink ref="G125" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
-    <hyperlink ref="G126" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
-    <hyperlink ref="G127" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
-    <hyperlink ref="G130" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
-    <hyperlink ref="G133" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
-    <hyperlink ref="G87" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
-    <hyperlink ref="G88" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
-    <hyperlink ref="G89" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
-    <hyperlink ref="G90" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
-    <hyperlink ref="G91" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
-    <hyperlink ref="G97" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
-    <hyperlink ref="G105" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
-    <hyperlink ref="G131" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
-    <hyperlink ref="G134" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
-    <hyperlink ref="G128" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
-    <hyperlink ref="D122" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
-    <hyperlink ref="D123" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
-    <hyperlink ref="D124" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
-    <hyperlink ref="D125" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
-    <hyperlink ref="G132" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
-    <hyperlink ref="F75" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
-    <hyperlink ref="D75" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
-    <hyperlink ref="E75" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
-    <hyperlink ref="F132" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
-    <hyperlink ref="G75" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
+    <hyperlink ref="G68" r:id="rId124" xr:uid="{02850476-00EF-4061-A28A-9C85170B446B}"/>
+    <hyperlink ref="G69" r:id="rId125" xr:uid="{A0BC01ED-0F79-465C-AF12-6B6855553840}"/>
+    <hyperlink ref="G70" r:id="rId126" xr:uid="{780F7922-750C-4474-AF5A-D15D84D00870}"/>
+    <hyperlink ref="G71" r:id="rId127" xr:uid="{3FA3A5E4-E12D-4377-9897-2D0AAFEC05D8}"/>
+    <hyperlink ref="G72" r:id="rId128" xr:uid="{6273858D-29FD-4B58-A6A0-ED2343F31BCF}"/>
+    <hyperlink ref="G73" r:id="rId129" xr:uid="{5DF1252F-5426-4335-9EC2-EBDE176191B1}"/>
+    <hyperlink ref="G74" r:id="rId130" xr:uid="{EC3EFFA2-0FE8-4362-9D24-E008D38B067B}"/>
+    <hyperlink ref="G75" r:id="rId131" xr:uid="{4965832F-2754-4E30-8CC9-94EBC4D352FC}"/>
+    <hyperlink ref="G76" r:id="rId132" xr:uid="{6331EBAF-6BC0-40ED-A7A1-8492622B7006}"/>
+    <hyperlink ref="G77" r:id="rId133" xr:uid="{BF544F68-EEAA-4FAF-BF5C-2BB240EBBD82}"/>
+    <hyperlink ref="G79" r:id="rId134" xr:uid="{A9CA4B36-527D-41B6-8AB7-D2A6AF61CE78}"/>
+    <hyperlink ref="G80" r:id="rId135" xr:uid="{F94ACB80-E60C-454D-B697-B856A1263865}"/>
+    <hyperlink ref="G81" r:id="rId136" xr:uid="{AF01B769-74A6-4A3B-A864-016969526D9F}"/>
+    <hyperlink ref="G82" r:id="rId137" xr:uid="{8C96CBEF-FC9C-4DD1-8FE5-4500542508BF}"/>
+    <hyperlink ref="G83" r:id="rId138" xr:uid="{64B30FE7-7C2A-4A45-B1F2-F007C383A68D}"/>
+    <hyperlink ref="G84" r:id="rId139" xr:uid="{8F1BFB38-40AE-41D8-B572-F910802A0279}"/>
+    <hyperlink ref="G85" r:id="rId140" xr:uid="{C4553070-FCDF-4A0D-ACE2-A9520D41DDDC}"/>
+    <hyperlink ref="G86" r:id="rId141" xr:uid="{D45CFFF6-F234-4B03-A10F-76E441FCC5E5}"/>
+    <hyperlink ref="G87" r:id="rId142" xr:uid="{E557316E-C086-4873-BFE0-D0DE4159C0DD}"/>
+    <hyperlink ref="G88" r:id="rId143" xr:uid="{0B0B837C-DF4E-4523-A98B-12BA56E0F8DA}"/>
+    <hyperlink ref="G89" r:id="rId144" xr:uid="{37FB0598-C5F1-4988-9E10-DF4DDFB0CC3C}"/>
+    <hyperlink ref="G95" r:id="rId145" xr:uid="{BF999DCD-EBD0-4103-ADFB-05D31D8BCC5D}"/>
+    <hyperlink ref="G96" r:id="rId146" xr:uid="{5144C879-ADD8-46C1-95C4-D677FECA6E74}"/>
+    <hyperlink ref="G97" r:id="rId147" xr:uid="{5E831352-F084-4491-AD55-2F8DF7A26563}"/>
+    <hyperlink ref="G98" r:id="rId148" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Manual%20Usuario%20de%20An%C3%A1lisis%20de%20Datos%20Nacionales%20de%20Cobertura%20Terrestre%20y%20C%C3%A1lculo%20de%20Subindicadores%20de%20Cambio%20de%20Cobertura%20Terrestre.png" xr:uid="{78A31B1D-A89A-449A-9809-C211159581B5}"/>
+    <hyperlink ref="G99" r:id="rId149" xr:uid="{024FAD08-B80A-4116-A528-00618A1F75DF}"/>
+    <hyperlink ref="G101" r:id="rId150" xr:uid="{46608C6A-194A-4CB0-BB57-04AFB46788DB}"/>
+    <hyperlink ref="G102" r:id="rId151" xr:uid="{F97D2479-026D-4847-9349-5A4B74D492DE}"/>
+    <hyperlink ref="G103" r:id="rId152" xr:uid="{FE4EBD0A-444D-4EF5-9C55-6DE0D184A53F}"/>
+    <hyperlink ref="G104" r:id="rId153" xr:uid="{7A4E47D5-1653-4E8D-8E60-5526367141A8}"/>
+    <hyperlink ref="G106" r:id="rId154" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociado%20a%20Mapa%20de%20Din%C3%A1mica%20de%20la%20Cobertura%20Forestal%202006-2016.png" xr:uid="{E1BFDF9E-6BCC-4F68-818F-B8749FCED257}"/>
+    <hyperlink ref="G107" r:id="rId155" xr:uid="{943882BA-3B8C-4124-A254-42B0334157B6}"/>
+    <hyperlink ref="G109" r:id="rId156" xr:uid="{2D57F1CE-54A5-4E0F-A57F-5C95FFDD0482}"/>
+    <hyperlink ref="G110" r:id="rId157" xr:uid="{B4031BFF-011A-450C-A0D9-893DBD02FC2B}"/>
+    <hyperlink ref="G111" r:id="rId158" xr:uid="{76C3A9ED-C2B2-496F-9352-FEE0E5A3A98F}"/>
+    <hyperlink ref="G112" r:id="rId159" xr:uid="{B9B1FD94-6FCC-4D7B-994D-9F05A544C673}"/>
+    <hyperlink ref="G113" r:id="rId160" xr:uid="{52C53B70-879C-43DE-8893-8453F1559BA4}"/>
+    <hyperlink ref="G114" r:id="rId161" xr:uid="{4CEE4F50-2432-431C-8942-07104F0519EA}"/>
+    <hyperlink ref="G115" r:id="rId162" xr:uid="{663F4779-4139-4735-9B91-E4643980A43B}"/>
+    <hyperlink ref="G116" r:id="rId163" xr:uid="{6B23FC43-307D-4EE3-B23D-2DC2F448C2D6}"/>
+    <hyperlink ref="G117" r:id="rId164" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Factores%20de%20Emisi%C3%B3n%20y%20Absorci%C3%B3n%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016%20FE.png" xr:uid="{6F6C36BC-CD8D-40D6-82DB-C376F7B1D243}"/>
+    <hyperlink ref="G118" r:id="rId165" xr:uid="{10E8CDCD-4005-4515-987B-19213AD00516}"/>
+    <hyperlink ref="G119" r:id="rId166" xr:uid="{FB4B3F89-887E-4DCD-8491-FAC61F552810}"/>
+    <hyperlink ref="G120" r:id="rId167" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Datos%20de%20Actividad%20Asociados%20a%20Mapa%20de%20Din%C3%A1mica%20Forestal%202006-2016.png" xr:uid="{1871BC4B-0AAA-48D6-AADA-21F1930E7FFC}"/>
+    <hyperlink ref="G121" r:id="rId168" xr:uid="{38D52F8F-4A83-420A-B39B-FAF2B7B3B547}"/>
+    <hyperlink ref="G122" r:id="rId169" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Metodolog%C3%ADa%2C%20Enfoque%20y%20An%C3%A1lisis%20Estad%C3%ADstico%20de%20Factores%20de%20Emisi%C3%B3n%20Estimados%20para%20Guatemala%20en%20Marco%20del%20Nivel%20de%20Referencia%20de%20Emisiones%20Forestales%20a%20Nivel%20Subnacional.png" xr:uid="{BB61F757-1086-4C7C-B97A-4B6B9384C6BD}"/>
+    <hyperlink ref="G123" r:id="rId170" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Estratos%20de%20Carbono%20Asociados%20a%20Mapa%20de%20Cobertura%20Forestal%202016%20FE.png" xr:uid="{9320BA01-51EF-4339-8E3A-45CC1124946E}"/>
+    <hyperlink ref="G124" r:id="rId171" xr:uid="{9A9D08E3-273C-4A40-9AB9-1DD8527B2D1D}"/>
+    <hyperlink ref="G132" r:id="rId172" xr:uid="{42DED7B9-C2B3-4880-AFB5-A13790714633}"/>
+    <hyperlink ref="F100" r:id="rId173" xr:uid="{184347A1-D77E-4245-994C-1F814011019F}"/>
+    <hyperlink ref="F108" r:id="rId174" xr:uid="{96A8D8D1-F914-4CBD-963E-7BCCAA45BFA9}"/>
+    <hyperlink ref="F125" r:id="rId175" xr:uid="{542BB1B2-0A84-436D-A9D6-E2AE7DAF872A}"/>
+    <hyperlink ref="F126" r:id="rId176" xr:uid="{1C5ADC70-DCD8-4658-88AA-94631D607779}"/>
+    <hyperlink ref="F127" r:id="rId177" xr:uid="{2E449DA2-A3E5-4153-88D1-8F85F029F61D}"/>
+    <hyperlink ref="F128" r:id="rId178" xr:uid="{4B40F80F-ADF3-40B6-8D09-756F65132B53}"/>
+    <hyperlink ref="F134" r:id="rId179" xr:uid="{CFBC9244-F9C5-42B3-973D-47D2CD28AC6A}"/>
+    <hyperlink ref="F137" r:id="rId180" xr:uid="{F7AE274C-C5F8-48AD-A870-931379AB5235}"/>
+    <hyperlink ref="G125" r:id="rId181" xr:uid="{FF57C4BE-1842-45B0-B81B-D5CDEB5D50F7}"/>
+    <hyperlink ref="G126" r:id="rId182" xr:uid="{805013BC-67E9-47F0-BB63-9E975FA910B4}"/>
+    <hyperlink ref="G127" r:id="rId183" xr:uid="{A9AA1C20-8951-4867-AA4B-31E4E3123D7A}"/>
+    <hyperlink ref="G128" r:id="rId184" xr:uid="{809F2893-C233-42FF-B52C-10AC90188374}"/>
+    <hyperlink ref="G129" r:id="rId185" xr:uid="{60D84DA5-AE57-4666-88FF-D17D6D3FA265}"/>
+    <hyperlink ref="G130" r:id="rId186" display="https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Dashboard%20Herramienta%20de%20C%C3%A1lculo%2C%20An%C3%A1lisis%20y%20Reporte%20de%20Emisiones%20y%20Absorciones%20de%20CO2%20del%20Sector%20Forestal%20a%20Nivel%20Subnacional.png" xr:uid="{7BE61223-A150-4EF6-A64E-86C2656BE129}"/>
+    <hyperlink ref="G133" r:id="rId187" xr:uid="{4D323020-95DE-42BF-A1A1-7C37CF86544C}"/>
+    <hyperlink ref="G136" r:id="rId188" xr:uid="{884B7F87-8867-4248-86E4-7ABDA17FA1A2}"/>
+    <hyperlink ref="G90" r:id="rId189" xr:uid="{9F1E36C6-F170-4BFE-A288-8858DA59C9B1}"/>
+    <hyperlink ref="G91" r:id="rId190" xr:uid="{EB38F748-FD14-4C03-AF85-8193CA79B9A9}"/>
+    <hyperlink ref="G92" r:id="rId191" xr:uid="{FB7379FE-5B4D-4F17-B616-EC11D7661295}"/>
+    <hyperlink ref="G93" r:id="rId192" xr:uid="{558FF788-6FFA-4168-9EE4-2A87C57AFD9E}"/>
+    <hyperlink ref="G94" r:id="rId193" xr:uid="{E22E44E3-F921-41CB-9BB3-BCF5930BCAE9}"/>
+    <hyperlink ref="G100" r:id="rId194" xr:uid="{DE90ED5F-4C2A-4A09-BFF1-D96B90B2B969}"/>
+    <hyperlink ref="G108" r:id="rId195" xr:uid="{D09B8FBA-B48A-42A3-97F0-110B6B16A2F8}"/>
+    <hyperlink ref="G134" r:id="rId196" xr:uid="{7E3B8A9A-9BD5-4A58-9925-91C36ADAFCD9}"/>
+    <hyperlink ref="G137" r:id="rId197" xr:uid="{78A4A669-2334-4872-A791-E0C572AB4FA5}"/>
+    <hyperlink ref="G131" r:id="rId198" xr:uid="{B40FC9D4-22B2-4F19-B0DB-C0C2CF76A444}"/>
+    <hyperlink ref="D125" r:id="rId199" xr:uid="{97A4AEE9-D002-4C1A-8739-3915CBA7B2DE}"/>
+    <hyperlink ref="D126" r:id="rId200" xr:uid="{B73B45F2-3B76-48AB-8782-0BC8BD8522B0}"/>
+    <hyperlink ref="D127" r:id="rId201" xr:uid="{273C3E80-B294-4F7E-AA4B-D871A68A4CE9}"/>
+    <hyperlink ref="D128" r:id="rId202" xr:uid="{290F106E-75C3-4354-AC34-A138F2E1F280}"/>
+    <hyperlink ref="G135" r:id="rId203" xr:uid="{220DCB65-51E2-4909-9AB4-09F3496F6633}"/>
+    <hyperlink ref="F78" r:id="rId204" xr:uid="{A6D9E55A-3D65-4001-A451-A798BE864D34}"/>
+    <hyperlink ref="D78" r:id="rId205" xr:uid="{DBB13095-AF4A-42DA-933F-D55D844DD053}"/>
+    <hyperlink ref="E78" r:id="rId206" xr:uid="{D30C525C-42ED-4F36-84E3-A468F83F609B}"/>
+    <hyperlink ref="F135" r:id="rId207" xr:uid="{3819EFC7-92DF-41F3-9931-42D680BA5ACF}"/>
+    <hyperlink ref="G78" r:id="rId208" xr:uid="{24E2D7D5-ADDF-4A21-AF3C-5C0C228E0E11}"/>
     <hyperlink ref="F7" r:id="rId209" xr:uid="{2004B6BB-26AD-4E55-B226-C61BAC4AC34E}"/>
     <hyperlink ref="G7" r:id="rId210" xr:uid="{0A98455D-0197-4D81-881E-24352D704928}"/>
     <hyperlink ref="F18" r:id="rId211" xr:uid="{969CFA0D-5C49-4F71-8812-818C34558C76}"/>
@@ -6219,8 +6274,8 @@
     <hyperlink ref="F61" r:id="rId292" xr:uid="{3B490B64-C26F-415B-BF0B-930777127604}"/>
     <hyperlink ref="F62" r:id="rId293" xr:uid="{E548DDAA-38DA-4F9B-9CF3-96DAA31AE740}"/>
     <hyperlink ref="F63" r:id="rId294" xr:uid="{4FDAFD03-2ECA-425A-BB8F-601D20982A86}"/>
-    <hyperlink ref="F102" r:id="rId295" xr:uid="{5EE30459-C062-472A-B3A2-9B041238DFAD}"/>
-    <hyperlink ref="G102" r:id="rId296" xr:uid="{F74E2DD2-1652-46CD-9620-B26D604AAD64}"/>
+    <hyperlink ref="F105" r:id="rId295" xr:uid="{5EE30459-C062-472A-B3A2-9B041238DFAD}"/>
+    <hyperlink ref="G105" r:id="rId296" xr:uid="{F74E2DD2-1652-46CD-9620-B26D604AAD64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId297"/>
@@ -6253,10 +6308,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" t="s">
         <v>466</v>
-      </c>
-      <c r="B2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6269,26 +6324,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" t="s">
         <v>547</v>
-      </c>
-      <c r="B4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" t="s">
         <v>495</v>
-      </c>
-      <c r="B5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B6" t="s">
         <v>535</v>
-      </c>
-      <c r="B6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6301,18 +6356,18 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" t="s">
         <v>549</v>
-      </c>
-      <c r="B8" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" t="s">
         <v>474</v>
-      </c>
-      <c r="B9" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6325,34 +6380,34 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s">
         <v>484</v>
-      </c>
-      <c r="B12" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" t="s">
         <v>505</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B14" t="s">
         <v>525</v>
-      </c>
-      <c r="B14" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6365,82 +6420,82 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" t="s">
         <v>489</v>
-      </c>
-      <c r="B16" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B17" t="s">
         <v>481</v>
-      </c>
-      <c r="B17" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" t="s">
         <v>479</v>
-      </c>
-      <c r="B18" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19" t="s">
         <v>500</v>
-      </c>
-      <c r="B19" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B20" t="s">
         <v>515</v>
-      </c>
-      <c r="B20" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6453,66 +6508,66 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>476</v>
+      </c>
+      <c r="B28" t="s">
         <v>477</v>
-      </c>
-      <c r="B28" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" t="s">
         <v>513</v>
-      </c>
-      <c r="B29" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>556</v>
+      </c>
+      <c r="B30" t="s">
         <v>557</v>
-      </c>
-      <c r="B30" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B31" t="s">
         <v>470</v>
-      </c>
-      <c r="B31" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>530</v>
+      </c>
+      <c r="B32" t="s">
         <v>531</v>
-      </c>
-      <c r="B32" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" t="s">
         <v>528</v>
-      </c>
-      <c r="B33" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6525,10 +6580,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB88E0-CDE9-4C16-8C3E-FFC97E727734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9664B874-69A0-4844-B569-27B30204A7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="594">
   <si>
     <t>Sistema de Registro de Proyectos</t>
   </si>
@@ -1796,6 +1796,24 @@
   </si>
   <si>
     <t>Sistema de Monitoreo, Reporte y Verificación (MRV)</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Maria%20Victoria/Repositorio%20Web/6.4.3_Sistematizaci%C3%B3n%20del%20Taller%20de%20Pueblos%20Ind%C3%ADgenas_V3.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Maria%20Victoria/Repositorio%20Web/Entregable_3_Talleres%20de%20dialogo%20Territorial.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Maria%20Victoria/Repositorio%20Web/6.4.1_Informe%20sistematizacion%202%20ronda%20di%C3%A1logos%20territoriales_%20V2.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Sistematizaci%C3%B3n%20Resultados%20Taller%20Formulaci%C3%B3n%20Ruta%20Pueblos%20Ind%C3%ADgenas.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Sistematizaci%C3%B3n%20Implementaci%C3%B3n%20Encuentros%20Di%C3%A1logo%20y%20Participaci%C3%B3n.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/documentos/raw/master/MRV_version2/Im%C3%A1genes%20Miniatura/Sistematizaci%C3%B3n%20Implementaci%C3%B3n%20Encuentros%20Di%C3%A1logo%20y%20Participaci%C3%B3n%20Segunda%20Ronda.png</t>
   </si>
 </sst>
 </file>
@@ -2578,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,12 +4170,18 @@
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
+      <c r="F65" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="G65" s="29" t="s">
+        <v>591</v>
+      </c>
       <c r="H65" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="34"/>
+      <c r="I65" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4172,12 +4196,18 @@
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
+      <c r="F66" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>592</v>
+      </c>
       <c r="H66" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4192,12 +4222,18 @@
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
+      <c r="F67" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>593</v>
+      </c>
       <c r="H67" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -6276,11 +6312,17 @@
     <hyperlink ref="F63" r:id="rId294" xr:uid="{4FDAFD03-2ECA-425A-BB8F-601D20982A86}"/>
     <hyperlink ref="F105" r:id="rId295" xr:uid="{5EE30459-C062-472A-B3A2-9B041238DFAD}"/>
     <hyperlink ref="G105" r:id="rId296" xr:uid="{F74E2DD2-1652-46CD-9620-B26D604AAD64}"/>
+    <hyperlink ref="F65" r:id="rId297" xr:uid="{EF922D8A-F8D2-44CB-AAE6-4902BEF522AA}"/>
+    <hyperlink ref="F66" r:id="rId298" xr:uid="{FD6097D5-8A66-426A-8D51-89C505C7A107}"/>
+    <hyperlink ref="F67" r:id="rId299" xr:uid="{C7F15340-8F8F-47D8-B8AB-468CB53F11F4}"/>
+    <hyperlink ref="G65" r:id="rId300" xr:uid="{EEFB4D41-7764-4BE9-9375-1BB63CD1F7E1}"/>
+    <hyperlink ref="G66" r:id="rId301" xr:uid="{4529D509-9A02-498C-A0FE-DB69107C4DB4}"/>
+    <hyperlink ref="G67" r:id="rId302" xr:uid="{ADA1A6C6-EFD2-4B0F-945A-1E9AA9CA522C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId297"/>
+  <pageSetup orientation="portrait" r:id="rId303"/>
   <tableParts count="1">
-    <tablePart r:id="rId298"/>
+    <tablePart r:id="rId304"/>
   </tableParts>
 </worksheet>
 </file>

--- a/MRV_version2/MRV Guatemala.xlsx
+++ b/MRV_version2/MRV Guatemala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\MRV_version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9664B874-69A0-4844-B569-27B30204A7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29ED33-F9A4-4C1F-BED1-4BD021156AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A0E2DE4-17D9-4533-BCE8-2915CC7ACD32}"/>
   </bookViews>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1F161E-417A-4062-87D9-674EF6710145}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
